--- a/Data_FGCS2.xlsx
+++ b/Data_FGCS2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeshunshi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeshunshi/Desktop/Github/FGCS2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC17FD8-F3B8-BD4D-9C5C-1514F6F19385}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B56353E-58E4-9343-A1E1-7AC6F56D3E40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14200" activeTab="3" xr2:uid="{0E1FB2F4-51F8-A64D-A5C6-9FB8EC605AD1}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14200" xr2:uid="{0E1FB2F4-51F8-A64D-A5C6-9FB8EC605AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Besu" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Iroha" sheetId="4" r:id="rId4"/>
     <sheet name="Sawtooth" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -81,808 +81,7 @@
     <t>Throughput</t>
   </si>
   <si>
-    <t>1.0 tps</t>
-  </si>
-  <si>
-    <t>0.00 s</t>
-  </si>
-  <si>
-    <t>100000.00 s</t>
-  </si>
-  <si>
-    <t>NaN s</t>
-  </si>
-  <si>
-    <t>0.0 tps</t>
-  </si>
-  <si>
-    <t>2.0 tps</t>
-  </si>
-  <si>
-    <t>35.13 s</t>
-  </si>
-  <si>
-    <t>0.64 s</t>
-  </si>
-  <si>
-    <t>15.89 s</t>
-  </si>
-  <si>
-    <t>1.8 tps</t>
-  </si>
-  <si>
-    <t>4.0 tps</t>
-  </si>
-  <si>
-    <t>22.83 s</t>
-  </si>
-  <si>
-    <t>2.06 s</t>
-  </si>
-  <si>
-    <t>12.76 s</t>
-  </si>
-  <si>
-    <t>2.6 tps</t>
-  </si>
-  <si>
-    <t>8.1 tps</t>
-  </si>
-  <si>
-    <t>17.29 s</t>
-  </si>
-  <si>
-    <t>4.88 s</t>
-  </si>
-  <si>
-    <t>11.03 s</t>
-  </si>
-  <si>
-    <t>5.8 tps</t>
-  </si>
-  <si>
-    <t>16.2 tps</t>
-  </si>
-  <si>
-    <t>9.44 s</t>
-  </si>
-  <si>
-    <t>1.84 s</t>
-  </si>
-  <si>
-    <t>4.37 s</t>
-  </si>
-  <si>
-    <t>6.8 tps</t>
-  </si>
-  <si>
-    <t>32.3 tps</t>
-  </si>
-  <si>
-    <t>19.37 s</t>
-  </si>
-  <si>
-    <t>1.63 s</t>
-  </si>
-  <si>
-    <t>17.67 s</t>
-  </si>
-  <si>
-    <t>5.1 tps</t>
-  </si>
-  <si>
-    <t>64.7 tps</t>
-  </si>
-  <si>
-    <t>48.78 s</t>
-  </si>
-  <si>
-    <t>4.45 s</t>
-  </si>
-  <si>
-    <t>47.53 s</t>
-  </si>
-  <si>
-    <t>129.5 tps</t>
-  </si>
-  <si>
-    <t>11.33 s</t>
-  </si>
-  <si>
-    <t>10.41 s</t>
-  </si>
-  <si>
-    <t>10.85 s</t>
-  </si>
-  <si>
-    <t>8.8 tps</t>
-  </si>
-  <si>
-    <t>244.5 tps</t>
-  </si>
-  <si>
-    <t>31.07 s</t>
-  </si>
-  <si>
-    <t>30.62 s</t>
-  </si>
-  <si>
-    <t>30.84 s</t>
-  </si>
-  <si>
-    <t>3.2 tps</t>
-  </si>
-  <si>
-    <t>0.04 s</t>
-  </si>
-  <si>
-    <t>0.03 s</t>
-  </si>
-  <si>
-    <t>0.35 s</t>
-  </si>
-  <si>
-    <t>0.42 s</t>
-  </si>
-  <si>
-    <t>0.57 s</t>
-  </si>
-  <si>
-    <t>0.05 s</t>
-  </si>
-  <si>
-    <t>7.9 tps</t>
-  </si>
-  <si>
-    <t>0.68 s</t>
-  </si>
-  <si>
-    <t>0.10 s</t>
-  </si>
-  <si>
-    <t>16.0 tps</t>
-  </si>
-  <si>
-    <t>1.04 s</t>
-  </si>
-  <si>
-    <t>0.75 s</t>
-  </si>
-  <si>
-    <t>28.8 tps</t>
-  </si>
-  <si>
-    <t>64.5 tps</t>
-  </si>
-  <si>
-    <t>2.53 s</t>
-  </si>
-  <si>
-    <t>0.09 s</t>
-  </si>
-  <si>
-    <t>1.85 s</t>
-  </si>
-  <si>
-    <t>29.6 tps</t>
-  </si>
-  <si>
-    <t>129.2 tps</t>
-  </si>
-  <si>
-    <t>2.80 s</t>
-  </si>
-  <si>
-    <t>0.14 s</t>
-  </si>
-  <si>
-    <t>2.20 s</t>
-  </si>
-  <si>
-    <t>29.0 tps</t>
-  </si>
-  <si>
-    <t>258.4 tps</t>
-  </si>
-  <si>
-    <t>2.91 s</t>
-  </si>
-  <si>
-    <t>0.45 s</t>
-  </si>
-  <si>
-    <t>2.37 s</t>
-  </si>
-  <si>
-    <t>30.1 tps</t>
-  </si>
-  <si>
-    <t>62.30 s</t>
-  </si>
-  <si>
-    <t>0.63 s</t>
-  </si>
-  <si>
-    <t>26.12 s</t>
-  </si>
-  <si>
-    <t>1.1 tps</t>
-  </si>
-  <si>
-    <t>30.63 s</t>
-  </si>
-  <si>
-    <t>1.65 s</t>
-  </si>
-  <si>
-    <t>15.70 s</t>
-  </si>
-  <si>
-    <t>2.2 tps</t>
-  </si>
-  <si>
-    <t>23.44 s</t>
-  </si>
-  <si>
-    <t>13.19 s</t>
-  </si>
-  <si>
-    <t>18.30 s</t>
-  </si>
-  <si>
-    <t>3.5 tps</t>
-  </si>
-  <si>
-    <t>28.89 s</t>
-  </si>
-  <si>
-    <t>0.82 s</t>
-  </si>
-  <si>
-    <t>25.52 s</t>
-  </si>
-  <si>
-    <t>23.00 s</t>
-  </si>
-  <si>
-    <t>19.81 s</t>
-  </si>
-  <si>
-    <t>21.43 s</t>
-  </si>
-  <si>
-    <t>4.3 tps</t>
-  </si>
-  <si>
-    <t>35.00 s</t>
-  </si>
-  <si>
-    <t>33.34 s</t>
-  </si>
-  <si>
-    <t>34.19 s</t>
-  </si>
-  <si>
-    <t>2.9 tps</t>
-  </si>
-  <si>
-    <t>129.4 tps</t>
-  </si>
-  <si>
-    <t>32.96 s</t>
-  </si>
-  <si>
-    <t>32.18 s</t>
-  </si>
-  <si>
-    <t>32.53 s</t>
-  </si>
-  <si>
-    <t>3.0 tps</t>
-  </si>
-  <si>
-    <t>232.6 tps</t>
-  </si>
-  <si>
-    <t>21.25 s</t>
-  </si>
-  <si>
-    <t>20.81 s</t>
-  </si>
-  <si>
-    <t>21.03 s</t>
-  </si>
-  <si>
-    <t>4.7 tps</t>
-  </si>
-  <si>
-    <t>0.06 s</t>
-  </si>
-  <si>
-    <t>0.30 s</t>
-  </si>
-  <si>
-    <t>0.40 s</t>
-  </si>
-  <si>
-    <t>3.9 tps</t>
-  </si>
-  <si>
-    <t>0.41 s</t>
-  </si>
-  <si>
-    <t>8.0 tps</t>
-  </si>
-  <si>
-    <t>16.1 tps</t>
-  </si>
-  <si>
-    <t>0.74 s</t>
-  </si>
-  <si>
-    <t>0.11 s</t>
-  </si>
-  <si>
-    <t>1.05 s</t>
-  </si>
-  <si>
-    <t>27.5 tps</t>
-  </si>
-  <si>
-    <t>64.6 tps</t>
-  </si>
-  <si>
-    <t>2.59 s</t>
-  </si>
-  <si>
-    <t>1.92 s</t>
-  </si>
-  <si>
-    <t>2.69 s</t>
-  </si>
-  <si>
-    <t>2.18 s</t>
-  </si>
-  <si>
-    <t>30.0 tps</t>
-  </si>
-  <si>
-    <t>261.1 tps</t>
-  </si>
-  <si>
-    <t>2.83 s</t>
-  </si>
-  <si>
-    <t>0.60 s</t>
-  </si>
-  <si>
-    <t>2.33 s</t>
-  </si>
-  <si>
-    <t>29.9 tps</t>
-  </si>
-  <si>
-    <t>45.16 s</t>
-  </si>
-  <si>
-    <t>0.43 s</t>
-  </si>
-  <si>
-    <t>21.68 s</t>
-  </si>
-  <si>
-    <t>1.5 tps</t>
-  </si>
-  <si>
-    <t>35.55 s</t>
-  </si>
-  <si>
-    <t>15.88 s</t>
-  </si>
-  <si>
-    <t>25.71 s</t>
-  </si>
-  <si>
-    <t>20.75 s</t>
-  </si>
-  <si>
-    <t>8.81 s</t>
-  </si>
-  <si>
-    <t>14.77 s</t>
-  </si>
-  <si>
-    <t>4.6 tps</t>
-  </si>
-  <si>
-    <t>49.77 s</t>
-  </si>
-  <si>
-    <t>43.59 s</t>
-  </si>
-  <si>
-    <t>46.68 s</t>
-  </si>
-  <si>
-    <t>31.39 s</t>
-  </si>
-  <si>
-    <t>28.30 s</t>
-  </si>
-  <si>
-    <t>29.82 s</t>
-  </si>
-  <si>
-    <t>11.15 s</t>
-  </si>
-  <si>
-    <t>9.47 s</t>
-  </si>
-  <si>
-    <t>10.32 s</t>
-  </si>
-  <si>
-    <t>9.0 tps</t>
-  </si>
-  <si>
-    <t>9.21 s</t>
-  </si>
-  <si>
-    <t>4.31 s</t>
-  </si>
-  <si>
-    <t>8.63 s</t>
-  </si>
-  <si>
-    <t>10.8 tps</t>
-  </si>
-  <si>
-    <t>256.4 tps</t>
-  </si>
-  <si>
-    <t>6.82 s</t>
-  </si>
-  <si>
-    <t>3.07 s</t>
-  </si>
-  <si>
-    <t>6.52 s</t>
-  </si>
-  <si>
-    <t>14.7 tps</t>
-  </si>
-  <si>
-    <t>1.51 s</t>
-  </si>
-  <si>
-    <t>0.62 s</t>
-  </si>
-  <si>
-    <t>7.6 tps</t>
-  </si>
-  <si>
-    <t>0.67 s</t>
-  </si>
-  <si>
-    <t>15.7 tps</t>
-  </si>
-  <si>
-    <t>1.21 s</t>
-  </si>
-  <si>
-    <t>0.92 s</t>
-  </si>
-  <si>
-    <t>26.3 tps</t>
-  </si>
-  <si>
-    <t>2.68 s</t>
-  </si>
-  <si>
-    <t>1.97 s</t>
-  </si>
-  <si>
-    <t>28.1 tps</t>
-  </si>
-  <si>
-    <t>2.77 s</t>
-  </si>
-  <si>
-    <t>2.21 s</t>
-  </si>
-  <si>
-    <t>29.3 tps</t>
-  </si>
-  <si>
-    <t>259.1 tps</t>
-  </si>
-  <si>
-    <t>3.06 s</t>
-  </si>
-  <si>
-    <t>0.56 s</t>
-  </si>
-  <si>
-    <t>2.48 s</t>
-  </si>
-  <si>
-    <t>28.4 tps</t>
-  </si>
-  <si>
-    <t>100.03 s</t>
-  </si>
-  <si>
-    <t>27.55 s</t>
-  </si>
-  <si>
-    <t>0.2 tps</t>
-  </si>
-  <si>
-    <t>60.88 s</t>
-  </si>
-  <si>
-    <t>36.13 s</t>
-  </si>
-  <si>
-    <t>48.49 s</t>
-  </si>
-  <si>
-    <t>1.6 tps</t>
-  </si>
-  <si>
-    <t>15.17 s</t>
-  </si>
-  <si>
-    <t>2.85 s</t>
-  </si>
-  <si>
-    <t>9.02 s</t>
-  </si>
-  <si>
-    <t>6.5 tps</t>
-  </si>
-  <si>
-    <t>21.35 s</t>
-  </si>
-  <si>
-    <t>15.27 s</t>
-  </si>
-  <si>
-    <t>18.32 s</t>
-  </si>
-  <si>
-    <t>12.50 s</t>
-  </si>
-  <si>
-    <t>3.90 s</t>
-  </si>
-  <si>
-    <t>8.01 s</t>
-  </si>
-  <si>
-    <t>7.1 tps</t>
-  </si>
-  <si>
-    <t>32.59 s</t>
-  </si>
-  <si>
-    <t>3.03 s</t>
-  </si>
-  <si>
-    <t>31.52 s</t>
-  </si>
-  <si>
-    <t>3.1 tps</t>
-  </si>
-  <si>
-    <t>129.7 tps</t>
-  </si>
-  <si>
-    <t>52.53 s</t>
-  </si>
-  <si>
-    <t>51.76 s</t>
-  </si>
-  <si>
-    <t>52.14 s</t>
-  </si>
-  <si>
-    <t>1.9 tps</t>
-  </si>
-  <si>
-    <t>238.1 tps</t>
-  </si>
-  <si>
-    <t>34.52 s</t>
-  </si>
-  <si>
-    <t>34.00 s</t>
-  </si>
-  <si>
-    <t>34.26 s</t>
-  </si>
-  <si>
-    <t>0.37 s</t>
-  </si>
-  <si>
-    <t>0.36 s</t>
-  </si>
-  <si>
-    <t>0.52 s</t>
-  </si>
-  <si>
-    <t>0.38 s</t>
-  </si>
-  <si>
-    <t>1.12 s</t>
-  </si>
-  <si>
-    <t>0.84 s</t>
-  </si>
-  <si>
-    <t>28.0 tps</t>
-  </si>
-  <si>
-    <t>2.58 s</t>
-  </si>
-  <si>
-    <t>1.81 s</t>
-  </si>
-  <si>
-    <t>29.2 tps</t>
-  </si>
-  <si>
-    <t>2.74 s</t>
-  </si>
-  <si>
-    <t>0.12 s</t>
-  </si>
-  <si>
-    <t>260.4 tps</t>
-  </si>
-  <si>
-    <t>2.93 s</t>
-  </si>
-  <si>
-    <t>0.39 s</t>
-  </si>
-  <si>
-    <t>2.46 s</t>
-  </si>
-  <si>
-    <t>1.40 s</t>
-  </si>
-  <si>
-    <t>26.89 s</t>
-  </si>
-  <si>
-    <t>8.57 s</t>
-  </si>
-  <si>
-    <t>17.74 s</t>
-  </si>
-  <si>
-    <t>27.32 s</t>
-  </si>
-  <si>
-    <t>21.04 s</t>
-  </si>
-  <si>
-    <t>3.6 tps</t>
-  </si>
-  <si>
-    <t>28.04 s</t>
-  </si>
-  <si>
-    <t>1.03 s</t>
-  </si>
-  <si>
-    <t>24.74 s</t>
-  </si>
-  <si>
-    <t>31.22 s</t>
-  </si>
-  <si>
-    <t>3.64 s</t>
-  </si>
-  <si>
-    <t>29.43 s</t>
-  </si>
-  <si>
-    <t>17.73 s</t>
-  </si>
-  <si>
-    <t>3.04 s</t>
-  </si>
-  <si>
-    <t>16.82 s</t>
-  </si>
-  <si>
-    <t>5.6 tps</t>
-  </si>
-  <si>
-    <t>130.0 tps</t>
-  </si>
-  <si>
-    <t>15.79 s</t>
-  </si>
-  <si>
-    <t>14.95 s</t>
-  </si>
-  <si>
-    <t>15.37 s</t>
-  </si>
-  <si>
-    <t>6.3 tps</t>
-  </si>
-  <si>
-    <t>29.71 s</t>
-  </si>
-  <si>
-    <t>3.19 s</t>
-  </si>
-  <si>
-    <t>29.20 s</t>
-  </si>
-  <si>
-    <t>3.4 tps</t>
-  </si>
-  <si>
-    <t>0.9 tps</t>
-  </si>
-  <si>
-    <t>0.34 s</t>
-  </si>
-  <si>
-    <t>0.46 s</t>
-  </si>
-  <si>
-    <t>0.49 s</t>
-  </si>
-  <si>
-    <t>7.7 tps</t>
-  </si>
-  <si>
-    <t>0.66 s</t>
-  </si>
-  <si>
-    <t>14.6 tps</t>
-  </si>
-  <si>
-    <t>1.14 s</t>
-  </si>
-  <si>
-    <t>0.86 s</t>
-  </si>
-  <si>
-    <t>2.73 s</t>
-  </si>
-  <si>
-    <t>2.03 s</t>
-  </si>
-  <si>
-    <t>26.0 tps</t>
-  </si>
-  <si>
-    <t>129.0 tps</t>
-  </si>
-  <si>
-    <t>2.81 s</t>
-  </si>
-  <si>
-    <t>0.13 s</t>
-  </si>
-  <si>
-    <t>2.25 s</t>
-  </si>
-  <si>
-    <t>28.6 tps</t>
-  </si>
-  <si>
-    <t>3.05 s</t>
-  </si>
-  <si>
-    <t>26.5 tps</t>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -1371,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873FB8C2-BE84-8D47-93A9-0AE14038F2D0}">
   <dimension ref="A1:AR55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4195,308 +3394,308 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <f>TEXT(A27,"0.00")&amp;"@"&amp;TEXT(F27,"0.00")</f>
-        <v>5.12@0.01</v>
+        <f>TEXT(A27,"0.000")&amp;"@"&amp;TEXT(F27,"0.000")</f>
+        <v>5.116@0.009</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" ref="B47:I47" si="0">TEXT(B27,"0.00")&amp;"@"&amp;TEXT(G27,"0.00")</f>
-        <v>1.04@0.01</v>
+        <f t="shared" ref="B47:D47" si="0">TEXT(B27,"0.000")&amp;"@"&amp;TEXT(G27,"0.000")</f>
+        <v>1.036@0.005</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
-        <v>3.06@0.01</v>
+        <v>3.056@0.005</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
-        <v>1.00@0.00</v>
+        <v>1.000@0.000</v>
       </c>
       <c r="E47" t="str">
-        <f>TEXT(A36,"0.00")&amp;"@"&amp;TEXT(F36,"0.00")</f>
-        <v>0.03@0.01</v>
+        <f>TEXT(A36,"0.000")&amp;"@"&amp;TEXT(F36,"0.000")</f>
+        <v>0.032@0.011</v>
       </c>
       <c r="F47" t="str">
-        <f>TEXT(B36,"0.00")&amp;"@"&amp;TEXT(G36,"0.00")</f>
-        <v>0.01@0.00</v>
+        <f t="shared" ref="F47:H55" si="1">TEXT(B36,"0.000")&amp;"@"&amp;TEXT(G36,"0.000")</f>
+        <v>0.010@0.000</v>
       </c>
       <c r="G47" t="str">
-        <f>TEXT(C36,"0.00")&amp;"@"&amp;TEXT(H36,"0.00")</f>
-        <v>0.01@0.00</v>
+        <f t="shared" si="1"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="H47" t="str">
-        <f>TEXT(D36,"0.00")&amp;"@"&amp;TEXT(I36,"0.00")</f>
-        <v>1.00@0.00</v>
+        <f t="shared" si="1"/>
+        <v>1.000@0.000</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
-        <f t="shared" ref="A48:A58" si="1">TEXT(A28,"0.00")&amp;"@"&amp;TEXT(F28,"0.00")</f>
-        <v>5.29@0.44</v>
+        <f t="shared" ref="A48:A55" si="2">TEXT(A28,"0.000")&amp;"@"&amp;TEXT(F28,"0.000")</f>
+        <v>5.288@0.443</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" ref="B48:B59" si="2">TEXT(B28,"0.00")&amp;"@"&amp;TEXT(G28,"0.00")</f>
-        <v>1.03@0.00</v>
+        <f t="shared" ref="B48:B55" si="3">TEXT(B28,"0.000")&amp;"@"&amp;TEXT(G28,"0.000")</f>
+        <v>1.030@0.000</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" ref="C48:C59" si="3">TEXT(C28,"0.00")&amp;"@"&amp;TEXT(H28,"0.00")</f>
-        <v>3.06@0.03</v>
+        <f t="shared" ref="C48:C55" si="4">TEXT(C28,"0.000")&amp;"@"&amp;TEXT(H28,"0.000")</f>
+        <v>3.056@0.031</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" ref="D48:D59" si="4">TEXT(D28,"0.00")&amp;"@"&amp;TEXT(I28,"0.00")</f>
-        <v>1.86@0.05</v>
+        <f t="shared" ref="D48:D55" si="5">TEXT(D28,"0.000")&amp;"@"&amp;TEXT(I28,"0.000")</f>
+        <v>1.860@0.055</v>
       </c>
       <c r="E48" t="str">
-        <f>TEXT(A37,"0.00")&amp;"@"&amp;TEXT(F37,"0.00")</f>
-        <v>0.03@0.02</v>
+        <f t="shared" ref="E48:E55" si="6">TEXT(A37,"0.000")&amp;"@"&amp;TEXT(F37,"0.000")</f>
+        <v>0.032@0.022</v>
       </c>
       <c r="F48" t="str">
-        <f>TEXT(B37,"0.00")&amp;"@"&amp;TEXT(G37,"0.00")</f>
-        <v>0.01@0.00</v>
+        <f t="shared" si="1"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="G48" t="str">
-        <f>TEXT(C37,"0.00")&amp;"@"&amp;TEXT(H37,"0.00")</f>
-        <v>0.01@0.00</v>
+        <f t="shared" si="1"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="H48" t="str">
-        <f>TEXT(D37,"0.00")&amp;"@"&amp;TEXT(I37,"0.00")</f>
-        <v>2.00@0.00</v>
+        <f t="shared" si="1"/>
+        <v>2.000@0.000</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
+        <f t="shared" si="2"/>
+        <v>5.476@0.533</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="3"/>
+        <v>1.030@0.000</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="4"/>
+        <v>3.108@0.091</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="5"/>
+        <v>3.460@0.055</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="6"/>
+        <v>0.022@0.004</v>
+      </c>
+      <c r="F49" t="str">
         <f t="shared" si="1"/>
-        <v>5.48@0.53</v>
-      </c>
-      <c r="B49" t="str">
-        <f t="shared" si="2"/>
-        <v>1.03@0.00</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" si="3"/>
-        <v>3.11@0.09</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="4"/>
-        <v>3.46@0.05</v>
-      </c>
-      <c r="E49" t="str">
-        <f>TEXT(A38,"0.00")&amp;"@"&amp;TEXT(F38,"0.00")</f>
-        <v>0.02@0.00</v>
-      </c>
-      <c r="F49" t="str">
-        <f>TEXT(B38,"0.00")&amp;"@"&amp;TEXT(G38,"0.00")</f>
-        <v>0.01@0.00</v>
+        <v>0.010@0.000</v>
       </c>
       <c r="G49" t="str">
-        <f>TEXT(C38,"0.00")&amp;"@"&amp;TEXT(H38,"0.00")</f>
-        <v>0.01@0.00</v>
+        <f t="shared" si="1"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="H49" t="str">
-        <f>TEXT(D38,"0.00")&amp;"@"&amp;TEXT(I38,"0.00")</f>
-        <v>4.00@0.00</v>
+        <f t="shared" si="1"/>
+        <v>4.000@0.000</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
+        <f t="shared" si="2"/>
+        <v>5.656@0.540</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="3"/>
+        <v>1.028@0.004</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="4"/>
+        <v>2.912@0.051</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="5"/>
+        <v>7.200@0.071</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="6"/>
+        <v>0.024@0.005</v>
+      </c>
+      <c r="F50" t="str">
         <f t="shared" si="1"/>
-        <v>5.66@0.54</v>
-      </c>
-      <c r="B50" t="str">
-        <f t="shared" si="2"/>
-        <v>1.03@0.00</v>
-      </c>
-      <c r="C50" t="str">
-        <f t="shared" si="3"/>
-        <v>2.91@0.05</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="4"/>
-        <v>7.20@0.07</v>
-      </c>
-      <c r="E50" t="str">
-        <f>TEXT(A39,"0.00")&amp;"@"&amp;TEXT(F39,"0.00")</f>
-        <v>0.02@0.01</v>
-      </c>
-      <c r="F50" t="str">
-        <f>TEXT(B39,"0.00")&amp;"@"&amp;TEXT(G39,"0.00")</f>
-        <v>0.01@0.00</v>
+        <v>0.010@0.000</v>
       </c>
       <c r="G50" t="str">
-        <f>TEXT(C39,"0.00")&amp;"@"&amp;TEXT(H39,"0.00")</f>
-        <v>0.01@0.00</v>
+        <f t="shared" si="1"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="H50" t="str">
-        <f>TEXT(D39,"0.00")&amp;"@"&amp;TEXT(I39,"0.00")</f>
-        <v>8.10@0.00</v>
+        <f t="shared" si="1"/>
+        <v>8.100@0.000</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
+        <f t="shared" si="2"/>
+        <v>5.860@0.447</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="3"/>
+        <v>1.028@0.004</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="4"/>
+        <v>3.022@0.013</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="5"/>
+        <v>11.320@0.045</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="6"/>
+        <v>0.020@0.000</v>
+      </c>
+      <c r="F51" t="str">
         <f t="shared" si="1"/>
-        <v>5.86@0.45</v>
-      </c>
-      <c r="B51" t="str">
-        <f t="shared" si="2"/>
-        <v>1.03@0.00</v>
-      </c>
-      <c r="C51" t="str">
-        <f t="shared" si="3"/>
-        <v>3.02@0.01</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" si="4"/>
-        <v>11.32@0.04</v>
-      </c>
-      <c r="E51" t="str">
-        <f>TEXT(A40,"0.00")&amp;"@"&amp;TEXT(F40,"0.00")</f>
-        <v>0.02@0.00</v>
-      </c>
-      <c r="F51" t="str">
-        <f>TEXT(B40,"0.00")&amp;"@"&amp;TEXT(G40,"0.00")</f>
-        <v>0.01@0.00</v>
+        <v>0.010@0.000</v>
       </c>
       <c r="G51" t="str">
-        <f>TEXT(C40,"0.00")&amp;"@"&amp;TEXT(H40,"0.00")</f>
-        <v>0.01@0.00</v>
+        <f t="shared" si="1"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="H51" t="str">
-        <f>TEXT(D40,"0.00")&amp;"@"&amp;TEXT(I40,"0.00")</f>
-        <v>16.10@0.00</v>
+        <f t="shared" si="1"/>
+        <v>16.100@0.000</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
+        <f t="shared" si="2"/>
+        <v>5.402@0.608</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="3"/>
+        <v>1.226@0.449</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="4"/>
+        <v>2.850@0.788</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="5"/>
+        <v>12.300@0.000</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="6"/>
+        <v>0.020@0.000</v>
+      </c>
+      <c r="F52" t="str">
         <f t="shared" si="1"/>
-        <v>5.40@0.61</v>
-      </c>
-      <c r="B52" t="str">
-        <f t="shared" si="2"/>
-        <v>1.23@0.45</v>
-      </c>
-      <c r="C52" t="str">
-        <f t="shared" si="3"/>
-        <v>2.85@0.79</v>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" si="4"/>
-        <v>12.30@0.00</v>
-      </c>
-      <c r="E52" t="str">
-        <f>TEXT(A41,"0.00")&amp;"@"&amp;TEXT(F41,"0.00")</f>
-        <v>0.02@0.00</v>
-      </c>
-      <c r="F52" t="str">
-        <f>TEXT(B41,"0.00")&amp;"@"&amp;TEXT(G41,"0.00")</f>
-        <v>0.01@0.00</v>
+        <v>0.010@0.000</v>
       </c>
       <c r="G52" t="str">
-        <f>TEXT(C41,"0.00")&amp;"@"&amp;TEXT(H41,"0.00")</f>
-        <v>0.01@0.00</v>
+        <f t="shared" si="1"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="H52" t="str">
-        <f>TEXT(D41,"0.00")&amp;"@"&amp;TEXT(I41,"0.00")</f>
-        <v>32.16@0.05</v>
+        <f t="shared" si="1"/>
+        <v>32.160@0.055</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
+        <f t="shared" si="2"/>
+        <v>4.082@0.008</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="3"/>
+        <v>2.046@0.009</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="4"/>
+        <v>3.266@0.045</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="5"/>
+        <v>22.320@0.148</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="6"/>
+        <v>0.026@0.005</v>
+      </c>
+      <c r="F53" t="str">
         <f t="shared" si="1"/>
-        <v>4.08@0.01</v>
-      </c>
-      <c r="B53" t="str">
-        <f t="shared" si="2"/>
-        <v>2.05@0.01</v>
-      </c>
-      <c r="C53" t="str">
-        <f t="shared" si="3"/>
-        <v>3.27@0.05</v>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" si="4"/>
-        <v>22.32@0.15</v>
-      </c>
-      <c r="E53" t="str">
-        <f>TEXT(A42,"0.00")&amp;"@"&amp;TEXT(F42,"0.00")</f>
-        <v>0.03@0.01</v>
-      </c>
-      <c r="F53" t="str">
-        <f>TEXT(B42,"0.00")&amp;"@"&amp;TEXT(G42,"0.00")</f>
-        <v>0.01@0.00</v>
+        <v>0.010@0.000</v>
       </c>
       <c r="G53" t="str">
-        <f>TEXT(C42,"0.00")&amp;"@"&amp;TEXT(H42,"0.00")</f>
-        <v>0.01@0.00</v>
+        <f t="shared" si="1"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="H53" t="str">
-        <f>TEXT(D42,"0.00")&amp;"@"&amp;TEXT(I42,"0.00")</f>
-        <v>64.16@0.05</v>
+        <f t="shared" si="1"/>
+        <v>64.160@0.055</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
+        <f t="shared" si="2"/>
+        <v>3.340@0.119</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="3"/>
+        <v>2.154@0.133</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="4"/>
+        <v>2.796@0.044</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="5"/>
+        <v>26.860@0.404</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="6"/>
+        <v>0.050@0.029</v>
+      </c>
+      <c r="F54" t="str">
         <f t="shared" si="1"/>
-        <v>3.34@0.12</v>
-      </c>
-      <c r="B54" t="str">
-        <f t="shared" si="2"/>
-        <v>2.15@0.13</v>
-      </c>
-      <c r="C54" t="str">
-        <f t="shared" si="3"/>
-        <v>2.80@0.04</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" si="4"/>
-        <v>26.86@0.40</v>
-      </c>
-      <c r="E54" t="str">
-        <f>TEXT(A43,"0.00")&amp;"@"&amp;TEXT(F43,"0.00")</f>
-        <v>0.05@0.03</v>
-      </c>
-      <c r="F54" t="str">
-        <f>TEXT(B43,"0.00")&amp;"@"&amp;TEXT(G43,"0.00")</f>
-        <v>0.01@0.00</v>
+        <v>0.010@0.000</v>
       </c>
       <c r="G54" t="str">
-        <f>TEXT(C43,"0.00")&amp;"@"&amp;TEXT(H43,"0.00")</f>
-        <v>0.02@0.00</v>
+        <f t="shared" si="1"/>
+        <v>0.022@0.004</v>
       </c>
       <c r="H54" t="str">
-        <f>TEXT(D43,"0.00")&amp;"@"&amp;TEXT(I43,"0.00")</f>
-        <v>126.42@0.82</v>
+        <f t="shared" si="1"/>
+        <v>126.420@0.817</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
+        <f t="shared" si="2"/>
+        <v>3.336@0.088</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="3"/>
+        <v>2.098@0.035</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="4"/>
+        <v>2.844@0.068</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="5"/>
+        <v>26.440@0.219</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="6"/>
+        <v>0.190@0.030</v>
+      </c>
+      <c r="F55" t="str">
         <f t="shared" si="1"/>
-        <v>3.34@0.09</v>
-      </c>
-      <c r="B55" t="str">
-        <f t="shared" si="2"/>
-        <v>2.10@0.03</v>
-      </c>
-      <c r="C55" t="str">
-        <f t="shared" si="3"/>
-        <v>2.84@0.07</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="4"/>
-        <v>26.44@0.22</v>
-      </c>
-      <c r="E55" t="str">
-        <f>TEXT(A44,"0.00")&amp;"@"&amp;TEXT(F44,"0.00")</f>
-        <v>0.19@0.03</v>
-      </c>
-      <c r="F55" t="str">
-        <f>TEXT(B44,"0.00")&amp;"@"&amp;TEXT(G44,"0.00")</f>
-        <v>0.02@0.01</v>
+        <v>0.016@0.005</v>
       </c>
       <c r="G55" t="str">
-        <f>TEXT(C44,"0.00")&amp;"@"&amp;TEXT(H44,"0.00")</f>
-        <v>0.09@0.02</v>
+        <f t="shared" si="1"/>
+        <v>0.092@0.019</v>
       </c>
       <c r="H55" t="str">
-        <f>TEXT(D44,"0.00")&amp;"@"&amp;TEXT(I44,"0.00")</f>
-        <v>207.36@7.67</v>
+        <f t="shared" si="1"/>
+        <v>207.360@7.666</v>
       </c>
     </row>
   </sheetData>
@@ -4508,8 +3707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0F9BAA-20D2-8046-9E45-7F5090D03EBB}">
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7446,326 +6645,326 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <f>TEXT(A24,"0.00")&amp;"@"&amp;TEXT(F24,"0.00")</f>
-        <v>7.07@0.01</v>
+        <f>TEXT(A24,"0.000")&amp;"@"&amp;TEXT(F24,"0.000")</f>
+        <v>7.072@0.015</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" ref="B44:D44" si="14">TEXT(B24,"0.00")&amp;"@"&amp;TEXT(G24,"0.00")</f>
-        <v>3.02@0.00</v>
+        <f t="shared" ref="B44:D44" si="14">TEXT(B24,"0.000")&amp;"@"&amp;TEXT(G24,"0.000")</f>
+        <v>3.020@0.000</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="14"/>
-        <v>5.03@0.01</v>
+        <v>5.034@0.005</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="14"/>
-        <v>1.00@0.00</v>
+        <v>1.000@0.000</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <f t="shared" ref="A45:A58" si="15">TEXT(A25,"0.00")&amp;"@"&amp;TEXT(F25,"0.00")</f>
-        <v>7.07@0.01</v>
+        <f t="shared" ref="A45:A51" si="15">TEXT(A25,"0.000")&amp;"@"&amp;TEXT(F25,"0.000")</f>
+        <v>7.070@0.012</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" ref="B45:B59" si="16">TEXT(B25,"0.00")&amp;"@"&amp;TEXT(G25,"0.00")</f>
-        <v>3.02@0.00</v>
+        <f t="shared" ref="B45:B51" si="16">TEXT(B25,"0.000")&amp;"@"&amp;TEXT(G25,"0.000")</f>
+        <v>3.020@0.000</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" ref="C45:C59" si="17">TEXT(C25,"0.00")&amp;"@"&amp;TEXT(H25,"0.00")</f>
-        <v>5.03@0.00</v>
+        <f t="shared" ref="C45:C51" si="17">TEXT(C25,"0.000")&amp;"@"&amp;TEXT(H25,"0.000")</f>
+        <v>5.032@0.004</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" ref="D45:D59" si="18">TEXT(D25,"0.00")&amp;"@"&amp;TEXT(I25,"0.00")</f>
-        <v>1.90@0.00</v>
+        <f t="shared" ref="D45:D51" si="18">TEXT(D25,"0.000")&amp;"@"&amp;TEXT(I25,"0.000")</f>
+        <v>1.900@0.000</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="15"/>
-        <v>7.06@0.01</v>
+        <v>7.056@0.009</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="16"/>
-        <v>3.02@0.00</v>
+        <v>3.020@0.000</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="17"/>
-        <v>5.03@0.00</v>
+        <v>5.030@0.000</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="18"/>
-        <v>3.56@0.05</v>
+        <v>3.560@0.055</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="15"/>
-        <v>7.06@0.00</v>
+        <v>7.060@0.000</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="16"/>
-        <v>2.82@0.44</v>
+        <v>2.822@0.443</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="17"/>
-        <v>5.25@0.02</v>
+        <v>5.250@0.022</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="18"/>
-        <v>5.56@0.09</v>
+        <v>5.560@0.089</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="15"/>
-        <v>7.07@0.01</v>
+        <v>7.074@0.005</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="16"/>
-        <v>3.02@0.01</v>
+        <v>3.024@0.005</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="17"/>
-        <v>5.39@0.03</v>
+        <v>5.390@0.025</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="18"/>
-        <v>7.72@0.04</v>
+        <v>7.720@0.045</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="15"/>
-        <v>7.06@0.00</v>
+        <v>7.062@0.004</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="16"/>
-        <v>4.03@0.01</v>
+        <v>4.034@0.005</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="17"/>
-        <v>5.92@0.02</v>
+        <v>5.920@0.019</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="18"/>
-        <v>12.54@0.05</v>
+        <v>12.540@0.055</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="15"/>
-        <v>7.09@0.01</v>
+        <v>7.086@0.005</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="16"/>
-        <v>6.02@0.00</v>
+        <v>6.022@0.004</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="17"/>
-        <v>6.62@0.01</v>
+        <v>6.624@0.005</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="18"/>
-        <v>12.60@0.00</v>
+        <v>12.600@0.000</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="15"/>
-        <v>7.18@0.06</v>
+        <v>7.184@0.055</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="16"/>
-        <v>7.04@0.01</v>
+        <v>7.036@0.005</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="17"/>
-        <v>7.08@0.02</v>
+        <v>7.084@0.017</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="18"/>
-        <v>12.74@0.05</v>
+        <v>12.740@0.055</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
-        <f t="shared" si="15"/>
-        <v>7.47@0.18</v>
+        <f t="shared" ref="A52:A61" si="19">TEXT(A32,"0.000")&amp;"@"&amp;TEXT(F32,"0.000")</f>
+        <v>7.468@0.182</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="16"/>
-        <v>4.06@2.75</v>
+        <f t="shared" ref="B52:B61" si="20">TEXT(B32,"0.000")&amp;"@"&amp;TEXT(G32,"0.000")</f>
+        <v>4.060@2.748</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="17"/>
-        <v>7.26@0.11</v>
+        <f t="shared" ref="C52:C61" si="21">TEXT(C32,"0.000")&amp;"@"&amp;TEXT(H32,"0.000")</f>
+        <v>7.258@0.112</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="18"/>
-        <v>12.92@0.04</v>
+        <f t="shared" ref="D52:D61" si="22">TEXT(D32,"0.000")&amp;"@"&amp;TEXT(I32,"0.000")</f>
+        <v>12.920@0.045</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
-        <f t="shared" si="15"/>
-        <v>0.02@0.00</v>
+        <f t="shared" si="19"/>
+        <v>0.020@0.000</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="16"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="20"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="17"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="21"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="18"/>
-        <v>1.00@0.00</v>
+        <f t="shared" si="22"/>
+        <v>1.000@0.000</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
-        <f t="shared" si="15"/>
-        <v>0.02@0.00</v>
+        <f t="shared" si="19"/>
+        <v>0.020@0.000</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="16"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="20"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="17"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="21"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="18"/>
-        <v>2.00@0.00</v>
+        <f t="shared" si="22"/>
+        <v>2.000@0.000</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
-        <f t="shared" si="15"/>
-        <v>0.02@0.00</v>
+        <f t="shared" si="19"/>
+        <v>0.020@0.000</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="16"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="20"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="17"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="21"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="18"/>
-        <v>4.00@0.00</v>
+        <f t="shared" si="22"/>
+        <v>4.000@0.000</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
-        <f t="shared" si="15"/>
-        <v>0.02@0.00</v>
+        <f t="shared" si="19"/>
+        <v>0.022@0.004</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="16"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="20"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="17"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="21"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="18"/>
-        <v>8.10@0.00</v>
+        <f t="shared" si="22"/>
+        <v>8.100@0.000</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <f t="shared" si="15"/>
-        <v>0.03@0.02</v>
+        <f t="shared" si="19"/>
+        <v>0.030@0.022</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="16"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="20"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="17"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="21"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="18"/>
-        <v>16.10@0.00</v>
+        <f t="shared" si="22"/>
+        <v>16.100@0.000</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <f t="shared" si="15"/>
-        <v>0.02@0.00</v>
+        <f t="shared" si="19"/>
+        <v>0.020@0.000</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="16"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="20"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="17"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="21"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="18"/>
-        <v>32.14@0.05</v>
+        <f t="shared" si="22"/>
+        <v>32.140@0.055</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <f>TEXT(A39,"0.00")&amp;"@"&amp;TEXT(F39,"0.00")</f>
-        <v>0.03@0.01</v>
+        <f t="shared" si="19"/>
+        <v>0.028@0.008</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="16"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="20"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="17"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="21"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="18"/>
-        <v>64.16@0.11</v>
+        <f t="shared" si="22"/>
+        <v>64.160@0.114</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <f t="shared" ref="A60:A61" si="19">TEXT(A40,"0.00")&amp;"@"&amp;TEXT(F40,"0.00")</f>
-        <v>0.04@0.01</v>
+        <f t="shared" si="19"/>
+        <v>0.038@0.008</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" ref="B60:B61" si="20">TEXT(B40,"0.00")&amp;"@"&amp;TEXT(G40,"0.00")</f>
-        <v>0.01@0.00</v>
+        <f t="shared" si="20"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" ref="C60:C61" si="21">TEXT(C40,"0.00")&amp;"@"&amp;TEXT(H40,"0.00")</f>
-        <v>0.02@0.00</v>
+        <f t="shared" si="21"/>
+        <v>0.020@0.000</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" ref="D60:D61" si="22">TEXT(D40,"0.00")&amp;"@"&amp;TEXT(I40,"0.00")</f>
-        <v>127.40@0.41</v>
+        <f t="shared" si="22"/>
+        <v>127.400@0.412</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="19"/>
-        <v>0.16@0.02</v>
+        <v>0.162@0.025</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="20"/>
-        <v>0.01@0.00</v>
+        <v>0.012@0.004</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="21"/>
-        <v>0.07@0.01</v>
+        <v>0.070@0.007</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="22"/>
-        <v>209.78@17.96</v>
+        <v>209.780@17.964</v>
       </c>
     </row>
   </sheetData>
@@ -7778,7 +6977,7 @@
   <dimension ref="A1:AR64"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:D64"/>
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10481,15 +9680,15 @@
         <v>0.20600000000000002</v>
       </c>
       <c r="B37">
-        <f t="shared" ref="B37:B44" si="11">AVERAGE(F13,O13,X13,AG13,AP13)</f>
+        <f t="shared" ref="B37:B43" si="11">AVERAGE(F13,O13,X13,AG13,AP13)</f>
         <v>0.01</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:C44" si="12">AVERAGE(G13,P13,Y13,AH13,AQ13)</f>
+        <f t="shared" ref="C37:C43" si="12">AVERAGE(G13,P13,Y13,AH13,AQ13)</f>
         <v>0.02</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:D44" si="13">AVERAGE(H13,Q13,Z13,AI13,AR13)</f>
+        <f t="shared" ref="D37:D43" si="13">AVERAGE(H13,Q13,Z13,AI13,AR13)</f>
         <v>4</v>
       </c>
       <c r="F37">
@@ -10715,326 +9914,326 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <f>TEXT(A26,"0.00")&amp;"@"&amp;TEXT(F26,"0.00")</f>
-        <v>0.36@0.10</v>
+        <f>TEXT(A26,"0.000")&amp;"@"&amp;TEXT(F26,"0.000")</f>
+        <v>0.360@0.101</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" ref="B47:D47" si="14">TEXT(B26,"0.00")&amp;"@"&amp;TEXT(G26,"0.00")</f>
-        <v>0.29@0.00</v>
+        <f t="shared" ref="B47:D47" si="14">TEXT(B26,"0.000")&amp;"@"&amp;TEXT(G26,"0.000")</f>
+        <v>0.288@0.004</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="14"/>
-        <v>0.30@0.01</v>
+        <v>0.298@0.008</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="14"/>
-        <v>1.00@0.00</v>
+        <v>1.000@0.000</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
-        <f t="shared" ref="A48:A60" si="15">TEXT(A27,"0.00")&amp;"@"&amp;TEXT(F27,"0.00")</f>
-        <v>0.69@0.52</v>
+        <f t="shared" ref="A48:A64" si="15">TEXT(A27,"0.000")&amp;"@"&amp;TEXT(F27,"0.000")</f>
+        <v>0.694@0.518</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" ref="B48:B61" si="16">TEXT(B27,"0.00")&amp;"@"&amp;TEXT(G27,"0.00")</f>
-        <v>0.27@0.04</v>
+        <f t="shared" ref="B48:B64" si="16">TEXT(B27,"0.000")&amp;"@"&amp;TEXT(G27,"0.000")</f>
+        <v>0.274@0.036</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" ref="C48:C61" si="17">TEXT(C27,"0.00")&amp;"@"&amp;TEXT(H27,"0.00")</f>
-        <v>0.30@0.01</v>
+        <f t="shared" ref="C48:C64" si="17">TEXT(C27,"0.000")&amp;"@"&amp;TEXT(H27,"0.000")</f>
+        <v>0.304@0.005</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" ref="D48:D61" si="18">TEXT(D27,"0.00")&amp;"@"&amp;TEXT(I27,"0.00")</f>
-        <v>2.00@0.00</v>
+        <f t="shared" ref="D48:D64" si="18">TEXT(D27,"0.000")&amp;"@"&amp;TEXT(I27,"0.000")</f>
+        <v>2.000@0.000</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="15"/>
-        <v>0.52@0.45</v>
+        <v>0.518@0.448</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="16"/>
-        <v>0.04@0.00</v>
+        <v>0.040@0.000</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="17"/>
-        <v>0.21@0.02</v>
+        <v>0.214@0.017</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="18"/>
-        <v>4.00@0.00</v>
+        <v>4.000@0.000</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="15"/>
-        <v>0.53@0.45</v>
+        <v>0.528@0.454</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="16"/>
-        <v>0.05@0.00</v>
+        <v>0.048@0.004</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="17"/>
-        <v>0.21@0.03</v>
+        <v>0.214@0.031</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="18"/>
-        <v>7.94@0.05</v>
+        <v>7.940@0.055</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="15"/>
-        <v>0.34@0.02</v>
+        <v>0.342@0.018</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="16"/>
-        <v>0.05@0.00</v>
+        <v>0.052@0.004</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="17"/>
-        <v>0.20@0.01</v>
+        <v>0.204@0.005</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="18"/>
-        <v>15.64@0.19</v>
+        <v>15.640@0.195</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="15"/>
-        <v>0.39@0.03</v>
+        <v>0.388@0.029</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="16"/>
-        <v>0.07@0.01</v>
+        <v>0.072@0.011</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="17"/>
-        <v>0.23@0.01</v>
+        <v>0.226@0.005</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="18"/>
-        <v>30.20@0.89</v>
+        <v>30.200@0.894</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="15"/>
-        <v>0.73@0.45</v>
+        <v>0.726@0.446</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="16"/>
-        <v>0.13@0.03</v>
+        <v>0.132@0.029</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="17"/>
-        <v>0.39@0.21</v>
+        <v>0.386@0.214</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="18"/>
-        <v>49.46@6.61</v>
+        <v>49.460@6.611</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="15"/>
-        <v>1.16@0.15</v>
+        <v>1.164@0.153</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="16"/>
-        <v>0.32@0.11</v>
+        <v>0.324@0.113</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="17"/>
-        <v>0.81@0.13</v>
+        <v>0.810@0.132</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="18"/>
-        <v>65.50@2.07</v>
+        <v>65.500@2.065</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="15"/>
-        <v>1.24@0.10</v>
+        <v>1.238@0.099</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="16"/>
-        <v>0.53@0.02</v>
+        <v>0.532@0.023</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="17"/>
-        <v>0.95@0.04</v>
+        <v>0.946@0.038</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="18"/>
-        <v>68.68@4.21</v>
+        <v>68.680@4.212</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="15"/>
-        <v>0.02@0.00</v>
+        <v>0.022@0.004</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="16"/>
-        <v>0.01@0.00</v>
+        <v>0.010@0.000</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="17"/>
-        <v>0.02@0.01</v>
+        <v>0.016@0.005</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="18"/>
-        <v>1.00@0.00</v>
+        <v>1.000@0.000</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="15"/>
-        <v>0.19@0.37</v>
+        <v>0.192@0.373</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="16"/>
-        <v>0.01@0.00</v>
+        <v>0.010@0.000</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="17"/>
-        <v>0.02@0.01</v>
+        <v>0.018@0.008</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="18"/>
-        <v>2.00@0.00</v>
+        <v>2.000@0.000</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="15"/>
-        <v>0.21@0.42</v>
+        <v>0.206@0.416</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="16"/>
-        <v>0.01@0.00</v>
+        <v>0.010@0.000</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="17"/>
-        <v>0.02@0.01</v>
+        <v>0.020@0.012</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="18"/>
-        <v>4.00@0.00</v>
+        <v>4.000@0.000</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="15"/>
-        <v>0.03@0.02</v>
+        <v>0.028@0.018</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="16"/>
-        <v>0.01@0.00</v>
+        <v>0.010@0.000</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="17"/>
-        <v>0.02@0.00</v>
+        <v>0.020@0.000</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="18"/>
-        <v>8.10@0.00</v>
+        <v>8.100@0.000</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="15"/>
-        <v>0.22@0.46</v>
+        <v>0.224@0.456</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="16"/>
-        <v>0.01@0.00</v>
+        <v>0.010@0.000</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="17"/>
-        <v>0.04@0.04</v>
+        <v>0.038@0.040</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="18"/>
-        <v>16.10@0.00</v>
+        <v>16.100@0.000</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <f>TEXT(A40,"0.00")&amp;"@"&amp;TEXT(F40,"0.00")</f>
-        <v>0.04@0.01</v>
+        <f t="shared" si="15"/>
+        <v>0.036@0.005</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="16"/>
-        <v>0.01@0.00</v>
+        <v>0.010@0.000</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="17"/>
-        <v>0.02@0.00</v>
+        <v>0.020@0.000</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="18"/>
-        <v>32.14@0.05</v>
+        <v>32.140@0.055</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <f t="shared" ref="A62:A63" si="19">TEXT(A41,"0.00")&amp;"@"&amp;TEXT(F41,"0.00")</f>
-        <v>0.05@0.02</v>
+        <f t="shared" si="15"/>
+        <v>0.052@0.022</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" ref="B62:B64" si="20">TEXT(B41,"0.00")&amp;"@"&amp;TEXT(G41,"0.00")</f>
-        <v>0.01@0.00</v>
+        <f t="shared" si="16"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" ref="C62:C64" si="21">TEXT(C41,"0.00")&amp;"@"&amp;TEXT(H41,"0.00")</f>
-        <v>0.02@0.00</v>
+        <f t="shared" si="17"/>
+        <v>0.020@0.000</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" ref="D62:D64" si="22">TEXT(D41,"0.00")&amp;"@"&amp;TEXT(I41,"0.00")</f>
-        <v>64.04@0.09</v>
+        <f t="shared" si="18"/>
+        <v>64.040@0.089</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <f t="shared" si="19"/>
-        <v>0.70@0.18</v>
+        <f t="shared" si="15"/>
+        <v>0.698@0.178</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="20"/>
-        <v>0.03@0.01</v>
+        <f t="shared" si="16"/>
+        <v>0.026@0.009</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="21"/>
-        <v>0.31@0.12</v>
+        <f t="shared" si="17"/>
+        <v>0.308@0.120</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="22"/>
-        <v>112.54@4.68</v>
+        <f t="shared" si="18"/>
+        <v>112.540@4.683</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <f>TEXT(A43,"0.00")&amp;"@"&amp;TEXT(F43,"0.00")</f>
-        <v>0.76@0.03</v>
+        <f t="shared" si="15"/>
+        <v>0.760@0.034</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="20"/>
-        <v>0.04@0.00</v>
+        <f t="shared" si="16"/>
+        <v>0.042@0.004</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="21"/>
-        <v>0.42@0.01</v>
+        <f t="shared" si="17"/>
+        <v>0.416@0.011</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="22"/>
-        <v>130.08@5.79</v>
+        <f t="shared" si="18"/>
+        <v>130.080@5.793</v>
       </c>
     </row>
   </sheetData>
@@ -11046,11 +10245,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0729F83-C7B1-ED42-817C-53F1BAA4C881}">
   <dimension ref="A1:AR62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -13984,326 +13186,326 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <f>TEXT(A24,"0.00")&amp;"@"&amp;TEXT(F24,"0.00")</f>
-        <v>5.20@1.89</v>
+        <f>TEXT(A24,"0.000")&amp;"@"&amp;TEXT(F24,"0.000")</f>
+        <v>5.202@1.894</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" ref="B45:D45" si="18">TEXT(B24,"0.00")&amp;"@"&amp;TEXT(G24,"0.00")</f>
-        <v>0.11@0.02</v>
+        <f t="shared" ref="B45:D45" si="18">TEXT(B24,"0.000")&amp;"@"&amp;TEXT(G24,"0.000")</f>
+        <v>0.106@0.015</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="18"/>
-        <v>1.52@0.08</v>
+        <v>1.518@0.078</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="18"/>
-        <v>0.98@0.04</v>
+        <v>0.980@0.045</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <f t="shared" ref="A46:A55" si="19">TEXT(A25,"0.00")&amp;"@"&amp;TEXT(F25,"0.00")</f>
-        <v>5.76@0.37</v>
+        <f t="shared" ref="A46:A62" si="19">TEXT(A25,"0.000")&amp;"@"&amp;TEXT(F25,"0.000")</f>
+        <v>5.760@0.372</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" ref="B46:B56" si="20">TEXT(B25,"0.00")&amp;"@"&amp;TEXT(G25,"0.00")</f>
-        <v>0.17@0.02</v>
+        <f t="shared" ref="B46:B62" si="20">TEXT(B25,"0.000")&amp;"@"&amp;TEXT(G25,"0.000")</f>
+        <v>0.168@0.018</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" ref="C46:C56" si="21">TEXT(C25,"0.00")&amp;"@"&amp;TEXT(H25,"0.00")</f>
-        <v>1.79@0.17</v>
+        <f t="shared" ref="C46:C62" si="21">TEXT(C25,"0.000")&amp;"@"&amp;TEXT(H25,"0.000")</f>
+        <v>1.786@0.174</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" ref="D46:D56" si="22">TEXT(D25,"0.00")&amp;"@"&amp;TEXT(I25,"0.00")</f>
-        <v>1.98@0.04</v>
+        <f t="shared" ref="D46:D62" si="22">TEXT(D25,"0.000")&amp;"@"&amp;TEXT(I25,"0.000")</f>
+        <v>1.980@0.045</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="19"/>
-        <v>8.60@2.33</v>
+        <v>8.602@2.327</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="20"/>
-        <v>0.16@0.01</v>
+        <v>0.164@0.011</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="21"/>
-        <v>2.39@0.57</v>
+        <v>2.394@0.573</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="22"/>
-        <v>3.68@0.40</v>
+        <v>3.680@0.396</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="19"/>
-        <v>6.35@0.59</v>
+        <v>6.350@0.587</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="20"/>
-        <v>0.17@0.05</v>
+        <v>0.166@0.054</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="21"/>
-        <v>2.35@0.11</v>
+        <v>2.346@0.111</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="22"/>
-        <v>7.84@0.05</v>
+        <v>7.840@0.055</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="19"/>
-        <v>9.75@3.53</v>
+        <v>9.746@3.528</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="20"/>
-        <v>2.26@0.94</v>
+        <v>2.256@0.942</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="21"/>
-        <v>5.89@1.97</v>
+        <v>5.890@1.966</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="22"/>
-        <v>9.88@2.79</v>
+        <v>9.880@2.787</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="19"/>
-        <v>9.19@3.14</v>
+        <v>9.188@3.140</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="20"/>
-        <v>4.51@1.39</v>
+        <v>4.506@1.388</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="21"/>
-        <v>7.42@2.73</v>
+        <v>7.416@2.729</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="22"/>
-        <v>10.74@2.40</v>
+        <v>10.740@2.396</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="19"/>
-        <v>15.54@9.61</v>
+        <v>15.542@9.606</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="20"/>
-        <v>10.17@4.66</v>
+        <v>10.172@4.662</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="21"/>
-        <v>12.91@6.71</v>
+        <v>12.906@6.709</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="22"/>
-        <v>9.02@5.65</v>
+        <v>9.020@5.648</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="19"/>
-        <v>14.05@10.55</v>
+        <v>14.048@10.550</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="20"/>
-        <v>9.15@4.82</v>
+        <v>9.152@4.815</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="21"/>
-        <v>11.53@6.69</v>
+        <v>11.530@6.690</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="22"/>
-        <v>10.14@5.48</v>
+        <v>10.140@5.479</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="19"/>
-        <v>7.53@1.27</v>
+        <v>7.532@1.267</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="20"/>
-        <v>5.62@0.22</v>
+        <v>5.618@0.224</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="21"/>
-        <v>7.02@1.12</v>
+        <v>7.018@1.116</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="22"/>
-        <v>13.52@2.16</v>
+        <v>13.520@2.164</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="19"/>
-        <v>0.02@0.01</v>
+        <v>0.024@0.005</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="20"/>
-        <v>0.01@0.00</v>
+        <v>0.010@0.000</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="21"/>
-        <v>0.01@0.00</v>
+        <v>0.010@0.000</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="22"/>
-        <v>1.00@0.00</v>
+        <v>1.000@0.000</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="19"/>
-        <v>0.02@0.00</v>
+        <v>0.018@0.004</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="20"/>
-        <v>0.01@0.00</v>
+        <v>0.010@0.000</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="21"/>
-        <v>0.01@0.00</v>
+        <v>0.010@0.000</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="22"/>
-        <v>2.00@0.00</v>
+        <v>2.000@0.000</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
-        <f>TEXT(A35,"0.00")&amp;"@"&amp;TEXT(F35,"0.00")</f>
-        <v>0.02@0.00</v>
+        <f t="shared" si="19"/>
+        <v>0.018@0.004</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="20"/>
-        <v>0.01@0.00</v>
+        <v>0.010@0.000</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="21"/>
-        <v>0.01@0.00</v>
+        <v>0.010@0.000</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="22"/>
-        <v>4.00@0.00</v>
+        <v>4.000@0.000</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <f t="shared" ref="A57:A61" si="23">TEXT(A36,"0.00")&amp;"@"&amp;TEXT(F36,"0.00")</f>
-        <v>0.03@0.02</v>
+        <f t="shared" si="19"/>
+        <v>0.026@0.019</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" ref="B57:B62" si="24">TEXT(B36,"0.00")&amp;"@"&amp;TEXT(G36,"0.00")</f>
-        <v>0.01@0.00</v>
+        <f t="shared" si="20"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" ref="C57:C62" si="25">TEXT(C36,"0.00")&amp;"@"&amp;TEXT(H36,"0.00")</f>
-        <v>0.01@0.00</v>
+        <f t="shared" si="21"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" ref="D57:D62" si="26">TEXT(D36,"0.00")&amp;"@"&amp;TEXT(I36,"0.00")</f>
-        <v>8.10@0.00</v>
+        <f t="shared" si="22"/>
+        <v>8.100@0.000</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <f t="shared" si="23"/>
-        <v>0.02@0.00</v>
+        <f t="shared" si="19"/>
+        <v>0.018@0.004</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="24"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="20"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="25"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="21"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="26"/>
-        <v>16.10@0.00</v>
+        <f t="shared" si="22"/>
+        <v>16.100@0.000</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <f t="shared" si="23"/>
-        <v>0.02@0.00</v>
+        <f t="shared" si="19"/>
+        <v>0.020@0.000</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="24"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="20"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="25"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="21"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="26"/>
-        <v>32.20@0.00</v>
+        <f t="shared" si="22"/>
+        <v>32.200@0.000</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <f t="shared" si="23"/>
-        <v>0.02@0.01</v>
+        <f t="shared" si="19"/>
+        <v>0.020@0.012</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="24"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="20"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="25"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="21"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="26"/>
-        <v>64.28@0.08</v>
+        <f t="shared" si="22"/>
+        <v>64.280@0.084</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <f t="shared" si="23"/>
-        <v>0.03@0.01</v>
+        <f t="shared" si="19"/>
+        <v>0.026@0.005</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="24"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="20"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="25"/>
-        <v>0.01@0.00</v>
+        <f t="shared" si="21"/>
+        <v>0.010@0.000</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="26"/>
-        <v>128.18@0.36</v>
+        <f t="shared" si="22"/>
+        <v>128.180@0.356</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <f>TEXT(A41,"0.00")&amp;"@"&amp;TEXT(F41,"0.00")</f>
-        <v>0.38@0.11</v>
+        <f t="shared" si="19"/>
+        <v>0.378@0.107</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="24"/>
-        <v>0.02@0.01</v>
+        <f t="shared" si="20"/>
+        <v>0.016@0.005</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="25"/>
-        <v>0.19@0.07</v>
+        <f t="shared" si="21"/>
+        <v>0.186@0.069</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="26"/>
-        <v>221.02@18.92</v>
+        <f t="shared" si="22"/>
+        <v>221.020@18.917</v>
       </c>
     </row>
   </sheetData>
@@ -14313,10 +13515,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDD85A2-0575-4F4A-995B-6F15BC9A4F02}">
-  <dimension ref="A1:AR24"/>
+  <dimension ref="A1:AR86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14453,20 +13655,20 @@
       <c r="C2" s="7">
         <v>100</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>19</v>
+      <c r="H2" s="8">
+        <v>0</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>8</v>
@@ -14477,20 +13679,20 @@
       <c r="L2" s="7">
         <v>100</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="7">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>19</v>
+      <c r="Q2" s="8">
+        <v>0</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>8</v>
@@ -14501,20 +13703,20 @@
       <c r="U2" s="7">
         <v>100</v>
       </c>
-      <c r="V2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>17</v>
+      <c r="V2" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W2" s="7">
+        <v>0</v>
+      </c>
+      <c r="X2" s="7">
+        <v>100000</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>0</v>
       </c>
       <c r="AB2" s="7" t="s">
         <v>8</v>
@@ -14525,20 +13727,20 @@
       <c r="AD2" s="7">
         <v>100</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AE2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>100000</v>
+      </c>
+      <c r="AH2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>19</v>
+      <c r="AI2" s="8">
+        <v>0</v>
       </c>
       <c r="AK2" s="7" t="s">
         <v>8</v>
@@ -14549,20 +13751,20 @@
       <c r="AM2" s="7">
         <v>100</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AN2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>100000</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AO2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>19</v>
+      <c r="AR2" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.2">
@@ -14575,20 +13777,20 @@
       <c r="C3" s="7">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>24</v>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>35.130000000000003</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="G3" s="7">
+        <v>15.89</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1.8</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>8</v>
@@ -14599,20 +13801,20 @@
       <c r="L3" s="7">
         <v>0</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>90</v>
+      <c r="M3" s="7">
+        <v>2</v>
+      </c>
+      <c r="N3" s="7">
+        <v>62.3</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="P3" s="7">
+        <v>26.12</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>1.1000000000000001</v>
       </c>
       <c r="S3" s="7" t="s">
         <v>8</v>
@@ -14623,20 +13825,20 @@
       <c r="U3" s="7">
         <v>0</v>
       </c>
-      <c r="V3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>145</v>
+      <c r="V3" s="7">
+        <v>2</v>
+      </c>
+      <c r="W3" s="7">
+        <v>45.16</v>
+      </c>
+      <c r="X3" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>21.68</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>1.5</v>
       </c>
       <c r="AB3" s="7" t="s">
         <v>8</v>
@@ -14647,20 +13849,20 @@
       <c r="AD3" s="7">
         <v>69</v>
       </c>
-      <c r="AE3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>193</v>
+      <c r="AE3" s="7">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>100.03</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>27.55</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>0.2</v>
       </c>
       <c r="AK3" s="7" t="s">
         <v>8</v>
@@ -14671,20 +13873,20 @@
       <c r="AM3" s="7">
         <v>95</v>
       </c>
-      <c r="AN3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO3" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="AP3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ3" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="AR3" s="8" t="s">
-        <v>19</v>
+      <c r="AN3" s="7">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="7">
+        <v>2.46</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="AQ3" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="AR3" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
@@ -14697,20 +13899,20 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>29</v>
+      <c r="D4" s="7">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7">
+        <v>22.83</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2.06</v>
+      </c>
+      <c r="G4" s="7">
+        <v>12.76</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2.6</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>8</v>
@@ -14721,20 +13923,20 @@
       <c r="L4" s="7">
         <v>0</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>94</v>
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>30.63</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1.65</v>
+      </c>
+      <c r="P4" s="7">
+        <v>15.7</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>2.2000000000000002</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>8</v>
@@ -14745,20 +13947,20 @@
       <c r="U4" s="7">
         <v>20</v>
       </c>
-      <c r="V4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>94</v>
+      <c r="V4" s="7">
+        <v>4</v>
+      </c>
+      <c r="W4" s="7">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="X4" s="7">
+        <v>15.88</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>25.71</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>2.2000000000000002</v>
       </c>
       <c r="AB4" s="7" t="s">
         <v>8</v>
@@ -14769,20 +13971,20 @@
       <c r="AD4" s="7">
         <v>0</v>
       </c>
-      <c r="AE4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF4" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG4" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH4" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI4" s="8" t="s">
-        <v>197</v>
+      <c r="AE4" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>60.88</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>36.130000000000003</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>48.49</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>1.6</v>
       </c>
       <c r="AK4" s="7" t="s">
         <v>8</v>
@@ -14793,20 +13995,20 @@
       <c r="AM4" s="7">
         <v>26</v>
       </c>
-      <c r="AN4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="AP4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="AQ4" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="AR4" s="8" t="s">
-        <v>94</v>
+      <c r="AN4" s="7">
+        <v>4</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>26.89</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>8.57</v>
+      </c>
+      <c r="AQ4" s="7">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="AR4" s="8">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
@@ -14819,20 +14021,20 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>34</v>
+      <c r="D5" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>17.29</v>
+      </c>
+      <c r="F5" s="7">
+        <v>4.88</v>
+      </c>
+      <c r="G5" s="7">
+        <v>11.03</v>
+      </c>
+      <c r="H5" s="8">
+        <v>5.8</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>8</v>
@@ -14843,20 +14045,20 @@
       <c r="L5" s="7">
         <v>17</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>98</v>
+      <c r="M5" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>23.44</v>
+      </c>
+      <c r="O5" s="7">
+        <v>13.19</v>
+      </c>
+      <c r="P5" s="7">
+        <v>18.3</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>3.5</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>8</v>
@@ -14867,20 +14069,20 @@
       <c r="U5" s="7">
         <v>4</v>
       </c>
-      <c r="V5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z5" s="8" t="s">
-        <v>152</v>
+      <c r="V5" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="W5" s="7">
+        <v>20.75</v>
+      </c>
+      <c r="X5" s="7">
+        <v>8.81</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>14.77</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>4.5999999999999996</v>
       </c>
       <c r="AB5" s="7" t="s">
         <v>8</v>
@@ -14891,20 +14093,20 @@
       <c r="AD5" s="7">
         <v>0</v>
       </c>
-      <c r="AE5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF5" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG5" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH5" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI5" s="8" t="s">
-        <v>201</v>
+      <c r="AE5" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>15.17</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>2.85</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>9.02</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>6.5</v>
       </c>
       <c r="AK5" s="7" t="s">
         <v>8</v>
@@ -14915,20 +14117,20 @@
       <c r="AM5" s="7">
         <v>0</v>
       </c>
-      <c r="AN5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="AP5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="AR5" s="8" t="s">
-        <v>244</v>
+      <c r="AN5" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="AO5" s="7">
+        <v>27.32</v>
+      </c>
+      <c r="AP5" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="AQ5" s="7">
+        <v>21.04</v>
+      </c>
+      <c r="AR5" s="8">
+        <v>3.6</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
@@ -14941,20 +14143,20 @@
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>39</v>
+      <c r="D6" s="7">
+        <v>16.2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>9.44</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1.84</v>
+      </c>
+      <c r="G6" s="7">
+        <v>4.37</v>
+      </c>
+      <c r="H6" s="8">
+        <v>6.8</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>8</v>
@@ -14965,20 +14167,20 @@
       <c r="L6" s="7">
         <v>0</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>98</v>
+      <c r="M6" s="7">
+        <v>16.2</v>
+      </c>
+      <c r="N6" s="7">
+        <v>28.89</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="P6" s="7">
+        <v>25.52</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>3.5</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>8</v>
@@ -14989,20 +14191,20 @@
       <c r="U6" s="7">
         <v>0</v>
       </c>
-      <c r="V6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z6" s="8" t="s">
-        <v>20</v>
+      <c r="V6" s="7">
+        <v>16.2</v>
+      </c>
+      <c r="W6" s="7">
+        <v>49.77</v>
+      </c>
+      <c r="X6" s="7">
+        <v>43.59</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>46.68</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>2</v>
       </c>
       <c r="AB6" s="7" t="s">
         <v>8</v>
@@ -15013,20 +14215,20 @@
       <c r="AD6" s="7">
         <v>0</v>
       </c>
-      <c r="AE6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF6" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG6" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH6" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="AI6" s="8" t="s">
-        <v>119</v>
+      <c r="AE6" s="7">
+        <v>16.2</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>21.35</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>15.27</v>
+      </c>
+      <c r="AH6" s="7">
+        <v>18.32</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>4.7</v>
       </c>
       <c r="AK6" s="7" t="s">
         <v>8</v>
@@ -15037,20 +14239,20 @@
       <c r="AM6" s="7">
         <v>0</v>
       </c>
-      <c r="AN6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO6" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="AP6" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="AQ6" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="AR6" s="8" t="s">
-        <v>98</v>
+      <c r="AN6" s="7">
+        <v>16.2</v>
+      </c>
+      <c r="AO6" s="7">
+        <v>28.04</v>
+      </c>
+      <c r="AP6" s="7">
+        <v>1.03</v>
+      </c>
+      <c r="AQ6" s="7">
+        <v>24.74</v>
+      </c>
+      <c r="AR6" s="8">
+        <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.2">
@@ -15063,20 +14265,20 @@
       <c r="C7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>44</v>
+      <c r="D7" s="7">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E7" s="7">
+        <v>19.37</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1.63</v>
+      </c>
+      <c r="G7" s="7">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="H7" s="8">
+        <v>5.0999999999999996</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>8</v>
@@ -15087,20 +14289,20 @@
       <c r="L7" s="7">
         <v>0</v>
       </c>
-      <c r="M7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>105</v>
+      <c r="M7" s="7">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="N7" s="7">
+        <v>23</v>
+      </c>
+      <c r="O7" s="7">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="P7" s="7">
+        <v>21.43</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>4.3</v>
       </c>
       <c r="S7" s="7" t="s">
         <v>8</v>
@@ -15111,20 +14313,20 @@
       <c r="U7" s="7">
         <v>0</v>
       </c>
-      <c r="V7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="W7" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="X7" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y7" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>58</v>
+      <c r="V7" s="7">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="W7" s="7">
+        <v>31.39</v>
+      </c>
+      <c r="X7" s="7">
+        <v>28.3</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>29.82</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>3.2</v>
       </c>
       <c r="AB7" s="7" t="s">
         <v>8</v>
@@ -15135,20 +14337,20 @@
       <c r="AD7" s="7">
         <v>0</v>
       </c>
-      <c r="AE7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF7" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG7" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH7" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI7" s="8" t="s">
-        <v>208</v>
+      <c r="AE7" s="7">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="AH7" s="7">
+        <v>8.01</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>7.1</v>
       </c>
       <c r="AK7" s="7" t="s">
         <v>8</v>
@@ -15159,20 +14361,20 @@
       <c r="AM7" s="7">
         <v>0</v>
       </c>
-      <c r="AN7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO7" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="AP7" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AQ7" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="AR7" s="8" t="s">
-        <v>58</v>
+      <c r="AN7" s="7">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AO7" s="7">
+        <v>31.22</v>
+      </c>
+      <c r="AP7" s="7">
+        <v>3.64</v>
+      </c>
+      <c r="AQ7" s="7">
+        <v>29.43</v>
+      </c>
+      <c r="AR7" s="8">
+        <v>3.2</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
@@ -15185,20 +14387,20 @@
       <c r="C8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>20</v>
+      <c r="D8" s="7">
+        <v>64.7</v>
+      </c>
+      <c r="E8" s="7">
+        <v>48.78</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4.45</v>
+      </c>
+      <c r="G8" s="7">
+        <v>47.53</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>8</v>
@@ -15209,20 +14411,20 @@
       <c r="L8" s="7">
         <v>0</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>109</v>
+      <c r="M8" s="7">
+        <v>64.7</v>
+      </c>
+      <c r="N8" s="7">
+        <v>35</v>
+      </c>
+      <c r="O8" s="7">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="P8" s="7">
+        <v>34.19</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>2.9</v>
       </c>
       <c r="S8" s="7" t="s">
         <v>8</v>
@@ -15233,20 +14435,20 @@
       <c r="U8" s="7">
         <v>0</v>
       </c>
-      <c r="V8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z8" s="8" t="s">
-        <v>162</v>
+      <c r="V8" s="7">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="W8" s="7">
+        <v>11.15</v>
+      </c>
+      <c r="X8" s="7">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>10.32</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>9</v>
       </c>
       <c r="AB8" s="7" t="s">
         <v>8</v>
@@ -15257,20 +14459,20 @@
       <c r="AD8" s="7">
         <v>0</v>
       </c>
-      <c r="AE8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF8" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="AG8" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="AH8" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="AI8" s="8" t="s">
-        <v>212</v>
+      <c r="AE8" s="7">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>32.590000000000003</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>3.03</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>31.52</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>3.1</v>
       </c>
       <c r="AK8" s="7" t="s">
         <v>8</v>
@@ -15281,20 +14483,20 @@
       <c r="AM8" s="7">
         <v>0</v>
       </c>
-      <c r="AN8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO8" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="AP8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="AQ8" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="AR8" s="8" t="s">
-        <v>254</v>
+      <c r="AN8" s="7">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="AO8" s="7">
+        <v>17.73</v>
+      </c>
+      <c r="AP8" s="7">
+        <v>3.04</v>
+      </c>
+      <c r="AQ8" s="7">
+        <v>16.82</v>
+      </c>
+      <c r="AR8" s="8">
+        <v>5.6</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
@@ -15307,20 +14509,20 @@
       <c r="C9" s="7">
         <v>0</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>53</v>
+      <c r="D9" s="7">
+        <v>129.5</v>
+      </c>
+      <c r="E9" s="7">
+        <v>11.33</v>
+      </c>
+      <c r="F9" s="7">
+        <v>10.41</v>
+      </c>
+      <c r="G9" s="7">
+        <v>10.85</v>
+      </c>
+      <c r="H9" s="8">
+        <v>8.8000000000000007</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>8</v>
@@ -15331,20 +14533,20 @@
       <c r="L9" s="7">
         <v>0</v>
       </c>
-      <c r="M9" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>114</v>
+      <c r="M9" s="7">
+        <v>129.4</v>
+      </c>
+      <c r="N9" s="7">
+        <v>32.96</v>
+      </c>
+      <c r="O9" s="7">
+        <v>32.18</v>
+      </c>
+      <c r="P9" s="7">
+        <v>32.53</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>3</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>8</v>
@@ -15355,20 +14557,20 @@
       <c r="U9" s="7">
         <v>0</v>
       </c>
-      <c r="V9" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y9" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z9" s="8" t="s">
-        <v>166</v>
+      <c r="V9" s="7">
+        <v>129.4</v>
+      </c>
+      <c r="W9" s="7">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="X9" s="7">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>10.8</v>
       </c>
       <c r="AB9" s="7" t="s">
         <v>8</v>
@@ -15379,20 +14581,20 @@
       <c r="AD9" s="7">
         <v>0</v>
       </c>
-      <c r="AE9" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF9" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG9" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="AH9" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AI9" s="8" t="s">
-        <v>217</v>
+      <c r="AE9" s="7">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>52.53</v>
+      </c>
+      <c r="AG9" s="7">
+        <v>51.76</v>
+      </c>
+      <c r="AH9" s="7">
+        <v>52.14</v>
+      </c>
+      <c r="AI9" s="8">
+        <v>1.9</v>
       </c>
       <c r="AK9" s="7" t="s">
         <v>8</v>
@@ -15403,20 +14605,20 @@
       <c r="AM9" s="7">
         <v>0</v>
       </c>
-      <c r="AN9" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="AO9" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="AP9" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="AQ9" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="AR9" s="8" t="s">
-        <v>259</v>
+      <c r="AN9" s="7">
+        <v>130</v>
+      </c>
+      <c r="AO9" s="7">
+        <v>15.79</v>
+      </c>
+      <c r="AP9" s="7">
+        <v>14.95</v>
+      </c>
+      <c r="AQ9" s="7">
+        <v>15.37</v>
+      </c>
+      <c r="AR9" s="8">
+        <v>6.3</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
@@ -15429,20 +14631,20 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>58</v>
+      <c r="D10" s="7">
+        <v>244.5</v>
+      </c>
+      <c r="E10" s="7">
+        <v>31.07</v>
+      </c>
+      <c r="F10" s="7">
+        <v>30.62</v>
+      </c>
+      <c r="G10" s="7">
+        <v>30.84</v>
+      </c>
+      <c r="H10" s="8">
+        <v>3.2</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>8</v>
@@ -15453,20 +14655,20 @@
       <c r="L10" s="7">
         <v>0</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>119</v>
+      <c r="M10" s="7">
+        <v>232.6</v>
+      </c>
+      <c r="N10" s="7">
+        <v>21.25</v>
+      </c>
+      <c r="O10" s="7">
+        <v>20.81</v>
+      </c>
+      <c r="P10" s="7">
+        <v>21.03</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>4.7</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>8</v>
@@ -15477,20 +14679,20 @@
       <c r="U10" s="7">
         <v>0</v>
       </c>
-      <c r="V10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z10" s="8" t="s">
-        <v>171</v>
+      <c r="V10" s="7">
+        <v>256.39999999999998</v>
+      </c>
+      <c r="W10" s="7">
+        <v>6.82</v>
+      </c>
+      <c r="X10" s="7">
+        <v>3.07</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>6.52</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>14.7</v>
       </c>
       <c r="AB10" s="7" t="s">
         <v>8</v>
@@ -15501,20 +14703,20 @@
       <c r="AD10" s="7">
         <v>0</v>
       </c>
-      <c r="AE10" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="AF10" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG10" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH10" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI10" s="8" t="s">
-        <v>109</v>
+      <c r="AE10" s="7">
+        <v>238.1</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>34.520000000000003</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>34</v>
+      </c>
+      <c r="AH10" s="7">
+        <v>34.26</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>2.9</v>
       </c>
       <c r="AK10" s="7" t="s">
         <v>8</v>
@@ -15525,20 +14727,20 @@
       <c r="AM10" s="7">
         <v>0</v>
       </c>
-      <c r="AN10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="AP10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="AQ10" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="AR10" s="8" t="s">
-        <v>263</v>
+      <c r="AN10" s="7">
+        <v>261.10000000000002</v>
+      </c>
+      <c r="AO10" s="7">
+        <v>29.71</v>
+      </c>
+      <c r="AP10" s="7">
+        <v>3.19</v>
+      </c>
+      <c r="AQ10" s="7">
+        <v>29.2</v>
+      </c>
+      <c r="AR10" s="8">
+        <v>3.4</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
@@ -15551,20 +14753,20 @@
       <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>15</v>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>9</v>
@@ -15575,20 +14777,20 @@
       <c r="L11" s="7">
         <v>1</v>
       </c>
-      <c r="M11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>15</v>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>1</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>9</v>
@@ -15599,20 +14801,20 @@
       <c r="U11" s="7">
         <v>3</v>
       </c>
-      <c r="V11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z11" s="8" t="s">
-        <v>15</v>
+      <c r="V11" s="7">
+        <v>1</v>
+      </c>
+      <c r="W11" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="X11" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>1</v>
       </c>
       <c r="AB11" s="7" t="s">
         <v>9</v>
@@ -15623,20 +14825,20 @@
       <c r="AD11" s="7">
         <v>0</v>
       </c>
-      <c r="AE11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF11" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI11" s="8" t="s">
-        <v>15</v>
+      <c r="AE11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="AG11" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="AH11" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="AI11" s="8">
+        <v>1</v>
       </c>
       <c r="AK11" s="7" t="s">
         <v>9</v>
@@ -15647,20 +14849,20 @@
       <c r="AM11" s="7">
         <v>6</v>
       </c>
-      <c r="AN11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR11" s="8" t="s">
-        <v>264</v>
+      <c r="AN11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="AP11" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="AQ11" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="AR11" s="8">
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
@@ -15673,20 +14875,20 @@
       <c r="C12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>20</v>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>9</v>
@@ -15697,20 +14899,20 @@
       <c r="L12" s="7">
         <v>2</v>
       </c>
-      <c r="M12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>20</v>
+      <c r="M12" s="7">
+        <v>2</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>2</v>
       </c>
       <c r="S12" s="7" t="s">
         <v>9</v>
@@ -15721,20 +14923,20 @@
       <c r="U12" s="7">
         <v>3</v>
       </c>
-      <c r="V12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="X12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z12" s="8" t="s">
-        <v>20</v>
+      <c r="V12" s="7">
+        <v>2</v>
+      </c>
+      <c r="W12" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="X12" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>2</v>
       </c>
       <c r="AB12" s="7" t="s">
         <v>9</v>
@@ -15745,20 +14947,20 @@
       <c r="AD12" s="7">
         <v>0</v>
       </c>
-      <c r="AE12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF12" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="AG12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI12" s="8" t="s">
-        <v>20</v>
+      <c r="AE12" s="7">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="AG12" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="AH12" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>2</v>
       </c>
       <c r="AK12" s="7" t="s">
         <v>9</v>
@@ -15769,20 +14971,20 @@
       <c r="AM12" s="7">
         <v>4</v>
       </c>
-      <c r="AN12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO12" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="AP12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR12" s="8" t="s">
-        <v>217</v>
+      <c r="AN12" s="7">
+        <v>2</v>
+      </c>
+      <c r="AO12" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="AP12" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="AQ12" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="AR12" s="8">
+        <v>1.9</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.2">
@@ -15795,20 +14997,20 @@
       <c r="C13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>25</v>
+      <c r="D13" s="7">
+        <v>4</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="H13" s="8">
+        <v>4</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>9</v>
@@ -15819,20 +15021,20 @@
       <c r="L13" s="7">
         <v>4</v>
       </c>
-      <c r="M13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>123</v>
+      <c r="M13" s="7">
+        <v>4</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>3.9</v>
       </c>
       <c r="S13" s="7" t="s">
         <v>9</v>
@@ -15843,20 +15045,20 @@
       <c r="U13" s="7">
         <v>2</v>
       </c>
-      <c r="V13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z13" s="8" t="s">
-        <v>25</v>
+      <c r="V13" s="7">
+        <v>4</v>
+      </c>
+      <c r="W13" s="7">
+        <v>1.51</v>
+      </c>
+      <c r="X13" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>4</v>
       </c>
       <c r="AB13" s="7" t="s">
         <v>9</v>
@@ -15867,20 +15069,20 @@
       <c r="AD13" s="7">
         <v>1</v>
       </c>
-      <c r="AE13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="AG13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI13" s="8" t="s">
-        <v>25</v>
+      <c r="AE13" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF13" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="AG13" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="AH13" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="AI13" s="8">
+        <v>4</v>
       </c>
       <c r="AK13" s="7" t="s">
         <v>9</v>
@@ -15891,20 +15093,20 @@
       <c r="AM13" s="7">
         <v>10</v>
       </c>
-      <c r="AN13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO13" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="AP13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR13" s="8" t="s">
-        <v>244</v>
+      <c r="AN13" s="7">
+        <v>4</v>
+      </c>
+      <c r="AO13" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="AP13" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="AQ13" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="AR13" s="8">
+        <v>3.6</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.2">
@@ -15917,20 +15119,20 @@
       <c r="C14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>65</v>
+      <c r="D14" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H14" s="8">
+        <v>7.9</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>9</v>
@@ -15941,20 +15143,20 @@
       <c r="L14" s="7">
         <v>1</v>
       </c>
-      <c r="M14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>125</v>
+      <c r="M14" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>8</v>
       </c>
       <c r="S14" s="7" t="s">
         <v>9</v>
@@ -15965,20 +15167,20 @@
       <c r="U14" s="7">
         <v>6</v>
       </c>
-      <c r="V14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="W14" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y14" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z14" s="8" t="s">
-        <v>174</v>
+      <c r="V14" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="W14" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="X14" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>7.6</v>
       </c>
       <c r="AB14" s="7" t="s">
         <v>9</v>
@@ -15989,20 +15191,20 @@
       <c r="AD14" s="7">
         <v>0</v>
       </c>
-      <c r="AE14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI14" s="8" t="s">
-        <v>30</v>
+      <c r="AE14" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AG14" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="AH14" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="AI14" s="8">
+        <v>8.1</v>
       </c>
       <c r="AK14" s="7" t="s">
         <v>9</v>
@@ -16013,20 +15215,20 @@
       <c r="AM14" s="7">
         <v>5</v>
       </c>
-      <c r="AN14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO14" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="AP14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR14" s="8" t="s">
-        <v>268</v>
+      <c r="AN14" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="AO14" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="AP14" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="AQ14" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="AR14" s="8">
+        <v>7.7</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.2">
@@ -16039,20 +15241,20 @@
       <c r="C15" s="7">
         <v>0</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>68</v>
+      <c r="D15" s="7">
+        <v>16.2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="8">
+        <v>16</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>9</v>
@@ -16063,20 +15265,20 @@
       <c r="L15" s="7">
         <v>0</v>
       </c>
-      <c r="M15" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>68</v>
+      <c r="M15" s="7">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>16</v>
       </c>
       <c r="S15" s="7" t="s">
         <v>9</v>
@@ -16087,20 +15289,20 @@
       <c r="U15" s="7">
         <v>2</v>
       </c>
-      <c r="V15" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="W15" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="X15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z15" s="8" t="s">
-        <v>176</v>
+      <c r="V15" s="7">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="W15" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="X15" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>15.7</v>
       </c>
       <c r="AB15" s="7" t="s">
         <v>9</v>
@@ -16111,20 +15313,20 @@
       <c r="AD15" s="7">
         <v>2</v>
       </c>
-      <c r="AE15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH15" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="AI15" s="8" t="s">
-        <v>176</v>
+      <c r="AE15" s="7">
+        <v>16.2</v>
+      </c>
+      <c r="AF15" s="7">
+        <v>1.63</v>
+      </c>
+      <c r="AG15" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="AH15" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="AI15" s="8">
+        <v>15.7</v>
       </c>
       <c r="AK15" s="7" t="s">
         <v>9</v>
@@ -16135,20 +15337,20 @@
       <c r="AM15" s="7">
         <v>9</v>
       </c>
-      <c r="AN15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO15" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="AP15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR15" s="8" t="s">
-        <v>270</v>
+      <c r="AN15" s="7">
+        <v>16.2</v>
+      </c>
+      <c r="AO15" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="AQ15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AR15" s="8">
+        <v>14.6</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.2">
@@ -16161,20 +15363,20 @@
       <c r="C16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>71</v>
+      <c r="D16" s="7">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H16" s="8">
+        <v>28.8</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>9</v>
@@ -16185,20 +15387,20 @@
       <c r="L16" s="7">
         <v>4</v>
       </c>
-      <c r="M16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>130</v>
+      <c r="M16" s="7">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>27.5</v>
       </c>
       <c r="S16" s="7" t="s">
         <v>9</v>
@@ -16209,20 +15411,20 @@
       <c r="U16" s="7">
         <v>5</v>
       </c>
-      <c r="V16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="W16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="X16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y16" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z16" s="8" t="s">
-        <v>179</v>
+      <c r="V16" s="7">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="W16" s="7">
+        <v>1.21</v>
+      </c>
+      <c r="X16" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="Z16" s="8">
+        <v>26.3</v>
       </c>
       <c r="AB16" s="7" t="s">
         <v>9</v>
@@ -16233,20 +15435,20 @@
       <c r="AD16" s="7">
         <v>0</v>
       </c>
-      <c r="AE16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI16" s="8" t="s">
-        <v>228</v>
+      <c r="AE16" s="7">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AF16" s="7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AG16" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="AH16" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="AI16" s="8">
+        <v>28</v>
       </c>
       <c r="AK16" s="7" t="s">
         <v>9</v>
@@ -16257,20 +15459,20 @@
       <c r="AM16" s="7">
         <v>6</v>
       </c>
-      <c r="AN16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="AR16" s="8" t="s">
-        <v>179</v>
+      <c r="AN16" s="7">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AO16" s="7">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AP16" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="AQ16" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="AR16" s="8">
+        <v>26.3</v>
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.2">
@@ -16283,20 +15485,20 @@
       <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>76</v>
+      <c r="D17" s="7">
+        <v>64.5</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1.85</v>
+      </c>
+      <c r="H17" s="8">
+        <v>29.6</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>9</v>
@@ -16307,20 +15509,20 @@
       <c r="L17" s="7">
         <v>0</v>
       </c>
-      <c r="M17" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>81</v>
+      <c r="M17" s="7">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2.59</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="P17" s="7">
+        <v>1.92</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>29</v>
       </c>
       <c r="S17" s="7" t="s">
         <v>9</v>
@@ -16331,20 +15533,20 @@
       <c r="U17" s="7">
         <v>3</v>
       </c>
-      <c r="V17" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="W17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="X17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z17" s="8" t="s">
-        <v>182</v>
+      <c r="V17" s="7">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="W17" s="7">
+        <v>2.68</v>
+      </c>
+      <c r="X17" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>1.97</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>28.1</v>
       </c>
       <c r="AB17" s="7" t="s">
         <v>9</v>
@@ -16355,20 +15557,20 @@
       <c r="AD17" s="7">
         <v>1</v>
       </c>
-      <c r="AE17" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI17" s="8" t="s">
-        <v>231</v>
+      <c r="AE17" s="7">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="AF17" s="7">
+        <v>2.58</v>
+      </c>
+      <c r="AG17" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="AH17" s="7">
+        <v>1.81</v>
+      </c>
+      <c r="AI17" s="8">
+        <v>29.2</v>
       </c>
       <c r="AK17" s="7" t="s">
         <v>9</v>
@@ -16379,20 +15581,20 @@
       <c r="AM17" s="7">
         <v>7</v>
       </c>
-      <c r="AN17" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO17" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="AP17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="AR17" s="8" t="s">
-        <v>275</v>
+      <c r="AN17" s="7">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="AO17" s="7">
+        <v>2.73</v>
+      </c>
+      <c r="AP17" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AQ17" s="7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AR17" s="8">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.2">
@@ -16405,20 +15607,20 @@
       <c r="C18" s="7">
         <v>2</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>81</v>
+      <c r="D18" s="7">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G18" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H18" s="8">
+        <v>29</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>9</v>
@@ -16429,20 +15631,20 @@
       <c r="L18" s="7">
         <v>1</v>
       </c>
-      <c r="M18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>136</v>
+      <c r="M18" s="7">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="N18" s="7">
+        <v>2.69</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="P18" s="7">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>30</v>
       </c>
       <c r="S18" s="7" t="s">
         <v>9</v>
@@ -16453,20 +15655,20 @@
       <c r="U18" s="7">
         <v>3</v>
       </c>
-      <c r="V18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="W18" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="X18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y18" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z18" s="8" t="s">
-        <v>185</v>
+      <c r="V18" s="7">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="W18" s="7">
+        <v>2.77</v>
+      </c>
+      <c r="X18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>2.21</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>29.3</v>
       </c>
       <c r="AB18" s="7" t="s">
         <v>9</v>
@@ -16477,20 +15679,20 @@
       <c r="AD18" s="7">
         <v>0</v>
       </c>
-      <c r="AE18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF18" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="AG18" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="AH18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI18" s="8" t="s">
-        <v>86</v>
+      <c r="AE18" s="7">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="AF18" s="7">
+        <v>2.74</v>
+      </c>
+      <c r="AG18" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AH18" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI18" s="8">
+        <v>30.1</v>
       </c>
       <c r="AK18" s="7" t="s">
         <v>9</v>
@@ -16501,20 +15703,20 @@
       <c r="AM18" s="7">
         <v>2</v>
       </c>
-      <c r="AN18" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="AO18" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="AP18" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="AQ18" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="AR18" s="8" t="s">
-        <v>280</v>
+      <c r="AN18" s="7">
+        <v>129</v>
+      </c>
+      <c r="AO18" s="7">
+        <v>2.81</v>
+      </c>
+      <c r="AP18" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="AQ18" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="AR18" s="8">
+        <v>28.6</v>
       </c>
     </row>
     <row r="19" spans="1:44" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -16527,20 +15729,20 @@
       <c r="C19" s="10">
         <v>1</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>86</v>
+      <c r="D19" s="10">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2.91</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="G19" s="10">
+        <v>2.37</v>
+      </c>
+      <c r="H19" s="11">
+        <v>30.1</v>
       </c>
       <c r="J19" s="10" t="s">
         <v>9</v>
@@ -16551,20 +15753,20 @@
       <c r="L19" s="10">
         <v>4</v>
       </c>
-      <c r="M19" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q19" s="11" t="s">
-        <v>141</v>
+      <c r="M19" s="10">
+        <v>261.10000000000002</v>
+      </c>
+      <c r="N19" s="10">
+        <v>2.83</v>
+      </c>
+      <c r="O19" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="P19" s="10">
+        <v>2.33</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>29.9</v>
       </c>
       <c r="S19" s="10" t="s">
         <v>9</v>
@@ -16575,20 +15777,20 @@
       <c r="U19" s="10">
         <v>2</v>
       </c>
-      <c r="V19" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="W19" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="X19" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y19" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z19" s="11" t="s">
-        <v>190</v>
+      <c r="V19" s="10">
+        <v>259.10000000000002</v>
+      </c>
+      <c r="W19" s="10">
+        <v>3.06</v>
+      </c>
+      <c r="X19" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>2.48</v>
+      </c>
+      <c r="Z19" s="11">
+        <v>28.4</v>
       </c>
       <c r="AB19" s="10" t="s">
         <v>9</v>
@@ -16599,20 +15801,20 @@
       <c r="AD19" s="10">
         <v>1</v>
       </c>
-      <c r="AE19" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF19" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="AG19" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH19" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI19" s="11" t="s">
-        <v>141</v>
+      <c r="AE19" s="10">
+        <v>260.39999999999998</v>
+      </c>
+      <c r="AF19" s="10">
+        <v>2.93</v>
+      </c>
+      <c r="AG19" s="10">
+        <v>0.39</v>
+      </c>
+      <c r="AH19" s="10">
+        <v>2.37</v>
+      </c>
+      <c r="AI19" s="11">
+        <v>29.9</v>
       </c>
       <c r="AK19" s="10" t="s">
         <v>9</v>
@@ -16623,26 +15825,3350 @@
       <c r="AM19" s="10">
         <v>9</v>
       </c>
-      <c r="AN19" s="10" t="s">
+      <c r="AN19" s="10">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="AO19" s="10">
+        <v>3.05</v>
+      </c>
+      <c r="AP19" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="AQ19" s="10">
+        <v>2.46</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2">
+        <v>100</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="G26" s="2">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="2">
+        <v>81</v>
+      </c>
+      <c r="L26" s="2">
+        <v>19</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
+        <v>99.46</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="P26" s="2">
+        <v>45.81</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" s="2">
+        <v>100</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
+        <v>1</v>
+      </c>
+      <c r="W26" s="2">
+        <v>38.42</v>
+      </c>
+      <c r="X26" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>16.38</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>91.01</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="AH26" s="2">
+        <v>13.18</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL26" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>76.17</v>
+      </c>
+      <c r="AP26" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="AQ26" s="2">
+        <v>15.28</v>
+      </c>
+      <c r="AR26" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2">
+        <v>100</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>53.71</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="G27" s="2">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="2">
+        <v>100</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>2</v>
+      </c>
+      <c r="N27" s="2">
+        <v>30.9</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="P27" s="2">
+        <v>16.11</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T27" s="2">
+        <v>100</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="2">
+        <v>2</v>
+      </c>
+      <c r="W27" s="2">
+        <v>28.8</v>
+      </c>
+      <c r="X27" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>11.62</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>32.81</v>
+      </c>
+      <c r="AG27" s="2">
+        <v>1.23</v>
+      </c>
+      <c r="AH27" s="2">
+        <v>14.61</v>
+      </c>
+      <c r="AI27" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL27" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="AP27" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="AQ27" s="2">
+        <v>17.12</v>
+      </c>
+      <c r="AR27" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2">
+        <v>100</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
+        <v>25.01</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="G28" s="2">
+        <v>10.34</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="2">
+        <v>95</v>
+      </c>
+      <c r="L28" s="2">
+        <v>5</v>
+      </c>
+      <c r="M28" s="2">
+        <v>4</v>
+      </c>
+      <c r="N28" s="2">
+        <v>39.94</v>
+      </c>
+      <c r="O28" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="P28" s="2">
+        <v>28.13</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T28" s="2">
+        <v>88</v>
+      </c>
+      <c r="U28" s="2">
+        <v>12</v>
+      </c>
+      <c r="V28" s="2">
+        <v>4</v>
+      </c>
+      <c r="W28" s="2">
+        <v>26.42</v>
+      </c>
+      <c r="X28" s="2">
+        <v>5.12</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>14.01</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>36.99</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>16.48</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL28" s="2">
+        <v>87</v>
+      </c>
+      <c r="AM28" s="2">
+        <v>13</v>
+      </c>
+      <c r="AN28" s="2">
+        <v>4</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>36.58</v>
+      </c>
+      <c r="AP28" s="2">
+        <v>15.17</v>
+      </c>
+      <c r="AQ28" s="2">
+        <v>25.89</v>
+      </c>
+      <c r="AR28" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2">
+        <v>94</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>26.78</v>
+      </c>
+      <c r="F29" s="2">
+        <v>15.16</v>
+      </c>
+      <c r="G29" s="2">
+        <v>20.95</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="2">
+        <v>100</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="N29" s="2">
+        <v>41.59</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="P29" s="2">
+        <v>35.03</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="2">
+        <v>87</v>
+      </c>
+      <c r="U29" s="2">
+        <v>13</v>
+      </c>
+      <c r="V29" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="W29" s="2">
+        <v>28.41</v>
+      </c>
+      <c r="X29" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>22.8</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="2">
         <v>82</v>
       </c>
-      <c r="AO19" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="AP19" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="AQ19" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="AR19" s="11" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A24" t="e">
-        <f>AVERAGE(E2,N2,W2,AF2,AO2)</f>
-        <v>#DIV/0!</v>
+      <c r="AD29" s="2">
+        <v>18</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>14.33</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="AH29" s="2">
+        <v>9.17</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL29" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>32.26</v>
+      </c>
+      <c r="AP29" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="AQ29" s="2">
+        <v>25.91</v>
+      </c>
+      <c r="AR29" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2">
+        <v>100</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>60.39</v>
+      </c>
+      <c r="F30" s="2">
+        <v>54.31</v>
+      </c>
+      <c r="G30" s="2">
+        <v>57.36</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="2">
+        <v>100</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="N30" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="O30" s="2">
+        <v>7.67</v>
+      </c>
+      <c r="P30" s="2">
+        <v>10.75</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T30" s="2">
+        <v>100</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="W30" s="2">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="X30" s="2">
+        <v>11.21</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>14.33</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>10.11</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>3.87</v>
+      </c>
+      <c r="AH30" s="2">
+        <v>6.95</v>
+      </c>
+      <c r="AI30" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL30" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM30" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN30" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="AO30" s="2">
+        <v>7.46</v>
+      </c>
+      <c r="AP30" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="AQ30" s="2">
+        <v>4.97</v>
+      </c>
+      <c r="AR30" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2">
+        <v>100</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E31" s="2">
+        <v>47.77</v>
+      </c>
+      <c r="F31" s="2">
+        <v>44.67</v>
+      </c>
+      <c r="G31" s="2">
+        <v>46.25</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="2">
+        <v>100</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="N31" s="2">
+        <v>14.33</v>
+      </c>
+      <c r="O31" s="2">
+        <v>11.16</v>
+      </c>
+      <c r="P31" s="2">
+        <v>12.77</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T31" s="2">
+        <v>100</v>
+      </c>
+      <c r="U31" s="2">
+        <v>0</v>
+      </c>
+      <c r="V31" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="W31" s="2">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="X31" s="2">
+        <v>4.68</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>6.92</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>75.14</v>
+      </c>
+      <c r="AG31" s="2">
+        <v>72.11</v>
+      </c>
+      <c r="AH31" s="2">
+        <v>73.62</v>
+      </c>
+      <c r="AI31" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL31" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>50.47</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>47.36</v>
+      </c>
+      <c r="AQ31" s="2">
+        <v>48.88</v>
+      </c>
+      <c r="AR31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2">
+        <v>100</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>64.7</v>
+      </c>
+      <c r="E32" s="2">
+        <v>19.02</v>
+      </c>
+      <c r="F32" s="2">
+        <v>17.41</v>
+      </c>
+      <c r="G32" s="2">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="H32" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="2">
+        <v>100</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="N32" s="2">
+        <v>34.380000000000003</v>
+      </c>
+      <c r="O32" s="2">
+        <v>32.83</v>
+      </c>
+      <c r="P32" s="2">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T32" s="2">
+        <v>100</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="W32" s="2">
+        <v>52.47</v>
+      </c>
+      <c r="X32" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>51.2</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>8.85</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>7.15</v>
+      </c>
+      <c r="AH32" s="2">
+        <v>8.02</v>
+      </c>
+      <c r="AI32" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL32" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>64.7</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>46.86</v>
+      </c>
+      <c r="AP32" s="2">
+        <v>45.27</v>
+      </c>
+      <c r="AQ32" s="2">
+        <v>46.07</v>
+      </c>
+      <c r="AR32" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2">
+        <v>100</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>129.4</v>
+      </c>
+      <c r="E33" s="2">
+        <v>16.45</v>
+      </c>
+      <c r="F33" s="2">
+        <v>15.63</v>
+      </c>
+      <c r="G33" s="2">
+        <v>16.03</v>
+      </c>
+      <c r="H33" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="2">
+        <v>100</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>129.5</v>
+      </c>
+      <c r="N33" s="2">
+        <v>20.36</v>
+      </c>
+      <c r="O33" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="P33" s="2">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T33" s="2">
+        <v>100</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2">
+        <v>129.5</v>
+      </c>
+      <c r="W33" s="2">
+        <v>17.98</v>
+      </c>
+      <c r="X33" s="2">
+        <v>17.18</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="2">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="AF33" s="2">
+        <v>25.32</v>
+      </c>
+      <c r="AG33" s="2">
+        <v>24.51</v>
+      </c>
+      <c r="AH33" s="2">
+        <v>24.9</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL33" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="2">
+        <v>129.4</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>15.72</v>
+      </c>
+      <c r="AP33" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="AQ33" s="2">
+        <v>15.26</v>
+      </c>
+      <c r="AR33" s="2">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2">
+        <v>100</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>261.10000000000002</v>
+      </c>
+      <c r="E34" s="2">
+        <v>28.36</v>
+      </c>
+      <c r="F34" s="2">
+        <v>27.91</v>
+      </c>
+      <c r="G34" s="2">
+        <v>28.13</v>
+      </c>
+      <c r="H34" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="2">
+        <v>100</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>259.7</v>
+      </c>
+      <c r="N34" s="2">
+        <v>40.770000000000003</v>
+      </c>
+      <c r="O34" s="2">
+        <v>40.26</v>
+      </c>
+      <c r="P34" s="2">
+        <v>40.51</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T34" s="2">
+        <v>100</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2">
+        <v>247.5</v>
+      </c>
+      <c r="W34" s="2">
+        <v>57</v>
+      </c>
+      <c r="X34" s="2">
+        <v>56.56</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>56.79</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>257.7</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>100000</v>
+      </c>
+      <c r="AH34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL34" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>261.8</v>
+      </c>
+      <c r="AO34" s="2">
+        <v>58.48</v>
+      </c>
+      <c r="AP34" s="2">
+        <v>57.99</v>
+      </c>
+      <c r="AQ34" s="2">
+        <v>58.22</v>
+      </c>
+      <c r="AR34" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2">
+        <v>100</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="2">
+        <v>100</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>1</v>
+      </c>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T35" s="2">
+        <v>97</v>
+      </c>
+      <c r="U35" s="2">
+        <v>3</v>
+      </c>
+      <c r="V35" s="2">
+        <v>1</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="X35" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>88</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="AG35" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AH35" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AI35" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL35" s="2">
+        <v>99</v>
+      </c>
+      <c r="AM35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO35" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP35" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AQ35" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AR35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2">
+        <v>98</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="2">
+        <v>98</v>
+      </c>
+      <c r="L36" s="2">
+        <v>2</v>
+      </c>
+      <c r="M36" s="2">
+        <v>2</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>2</v>
+      </c>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T36" s="2">
+        <v>97</v>
+      </c>
+      <c r="U36" s="2">
+        <v>3</v>
+      </c>
+      <c r="V36" s="2">
+        <v>2</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="X36" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AH36" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AI36" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL36" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM36" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO36" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="AP36" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AQ36" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AR36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2">
+        <v>100</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="H37" s="2">
+        <v>4</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="2">
+        <v>98</v>
+      </c>
+      <c r="L37" s="2">
+        <v>2</v>
+      </c>
+      <c r="M37" s="2">
+        <v>4</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>4</v>
+      </c>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T37" s="2">
+        <v>98</v>
+      </c>
+      <c r="U37" s="2">
+        <v>2</v>
+      </c>
+      <c r="V37" s="2">
+        <v>4</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="X37" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF37" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="AG37" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AH37" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AI37" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL37" s="2">
+        <v>99</v>
+      </c>
+      <c r="AM37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>4</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AP37" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AQ37" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AR37" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="2">
+        <v>100</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H38" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="2">
+        <v>96</v>
+      </c>
+      <c r="L38" s="2">
+        <v>4</v>
+      </c>
+      <c r="M38" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T38" s="2">
+        <v>99</v>
+      </c>
+      <c r="U38" s="2">
+        <v>1</v>
+      </c>
+      <c r="V38" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="W38" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="X38" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AH38" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AI38" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL38" s="2">
+        <v>96</v>
+      </c>
+      <c r="AM38" s="2">
+        <v>4</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="AO38" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="AP38" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AQ38" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="AR38" s="2">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2">
+        <v>100</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="2">
+        <v>98</v>
+      </c>
+      <c r="L39" s="2">
+        <v>2</v>
+      </c>
+      <c r="M39" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>15.7</v>
+      </c>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T39" s="2">
+        <v>99</v>
+      </c>
+      <c r="U39" s="2">
+        <v>1</v>
+      </c>
+      <c r="V39" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="W39" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="X39" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>15.9</v>
+      </c>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="AG39" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AH39" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AI39" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL39" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="AO39" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="AP39" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AQ39" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="AR39" s="2">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="2">
+        <v>100</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="H40" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="2">
+        <v>96</v>
+      </c>
+      <c r="L40" s="2">
+        <v>4</v>
+      </c>
+      <c r="M40" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="N40" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>27.4</v>
+      </c>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T40" s="2">
+        <v>98</v>
+      </c>
+      <c r="U40" s="2">
+        <v>2</v>
+      </c>
+      <c r="V40" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="W40" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="X40" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>1.18</v>
+      </c>
+      <c r="AG40" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AH40" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="AI40" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL40" s="2">
+        <v>99</v>
+      </c>
+      <c r="AM40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AO40" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="AP40" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AQ40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="2">
+        <v>98</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2.62</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="H41" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="2">
+        <v>97</v>
+      </c>
+      <c r="L41" s="2">
+        <v>3</v>
+      </c>
+      <c r="M41" s="2">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="N41" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="O41" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1.83</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T41" s="2">
+        <v>97</v>
+      </c>
+      <c r="U41" s="2">
+        <v>3</v>
+      </c>
+      <c r="V41" s="2">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="W41" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="X41" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>1.91</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>28.7</v>
+      </c>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="AF41" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AG41" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="AH41" s="2">
+        <v>1.89</v>
+      </c>
+      <c r="AI41" s="2">
+        <v>28.3</v>
+      </c>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL41" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="2">
+        <v>64.7</v>
+      </c>
+      <c r="AO41" s="2">
+        <v>2.61</v>
+      </c>
+      <c r="AP41" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AQ41" s="2">
+        <v>1.92</v>
+      </c>
+      <c r="AR41" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="2">
+        <v>98</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="G42" s="2">
+        <v>2.27</v>
+      </c>
+      <c r="H42" s="2">
+        <v>28.5</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="2">
+        <v>99</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1</v>
+      </c>
+      <c r="M42" s="2">
+        <v>128.9</v>
+      </c>
+      <c r="N42" s="2">
+        <v>2.63</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="P42" s="2">
+        <v>2.13</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T42" s="2">
+        <v>99</v>
+      </c>
+      <c r="U42" s="2">
+        <v>1</v>
+      </c>
+      <c r="V42" s="2">
+        <v>129.4</v>
+      </c>
+      <c r="W42" s="2">
+        <v>2.63</v>
+      </c>
+      <c r="X42" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>2.13</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>30.9</v>
+      </c>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF42" s="2">
+        <v>2.96</v>
+      </c>
+      <c r="AG42" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="AH42" s="2">
+        <v>2.37</v>
+      </c>
+      <c r="AI42" s="2">
+        <v>27</v>
+      </c>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL42" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="2">
+        <v>129</v>
+      </c>
+      <c r="AO42" s="2">
+        <v>2.83</v>
+      </c>
+      <c r="AP42" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="AQ42" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AR42" s="2">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="2">
+        <v>100</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>259.10000000000002</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2.91</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G43" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="H43" s="2">
+        <v>30.4</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="2">
+        <v>99</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1</v>
+      </c>
+      <c r="M43" s="2">
+        <v>260.39999999999998</v>
+      </c>
+      <c r="N43" s="2">
+        <v>2.92</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="P43" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>30</v>
+      </c>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T43" s="2">
+        <v>99</v>
+      </c>
+      <c r="U43" s="2">
+        <v>1</v>
+      </c>
+      <c r="V43" s="2">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="W43" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="X43" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="2">
+        <v>257.7</v>
+      </c>
+      <c r="AF43" s="2">
+        <v>2.81</v>
+      </c>
+      <c r="AG43" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="AH43" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI43" s="2">
+        <v>31.3</v>
+      </c>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL43" s="2">
+        <v>97</v>
+      </c>
+      <c r="AM43" s="2">
+        <v>3</v>
+      </c>
+      <c r="AN43" s="2">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="AO43" s="2">
+        <v>2.97</v>
+      </c>
+      <c r="AP43" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="AQ43" s="2">
+        <v>2.44</v>
+      </c>
+      <c r="AR43" s="2">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f>AVERAGE(E26,N26,W26,AF26,AO26)</f>
+        <v>67.515999999999991</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48:D48" si="0">AVERAGE(F26,O26,X26,AG26,AP26)</f>
+        <v>0.51</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>20.136000000000003</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="F48">
+        <f>STDEV(E26,N26,W26,AF26,AO26)</f>
+        <v>30.490064447291701</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ref="G48:I48" si="1">STDEV(F26,O26,X26,AG26,AP26)</f>
+        <v>0.17902513789968147</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>14.554721914210518</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>0.21679483388678783</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" ref="A49:A64" si="2">AVERAGE(E27,N27,W27,AF27,AO27)</f>
+        <v>35.165999999999997</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49:B66" si="3">AVERAGE(F27,O27,X27,AG27,AP27)</f>
+        <v>1.2339999999999998</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:C66" si="4">AVERAGE(G27,P27,Y27,AH27,AQ27)</f>
+        <v>15.644</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49:D66" si="5">AVERAGE(H27,Q27,Z27,AI27,AR27)</f>
+        <v>1.46</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49:F65" si="6">STDEV(E27,N27,W27,AF27,AO27)</f>
+        <v>10.476455984730736</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ref="G49:G65" si="7">STDEV(F27,O27,X27,AG27,AP27)</f>
+        <v>0.40506789554345168</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ref="H49:H65" si="8">STDEV(G27,P27,Y27,AH27,AQ27)</f>
+        <v>2.7095626953440366</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ref="I49:I65" si="9">STDEV(H27,Q27,Z27,AI27,AR27)</f>
+        <v>0.32093613071762456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>32.988</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="3"/>
+        <v>7.7060000000000004</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="4"/>
+        <v>18.97</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="5"/>
+        <v>2.14</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="6"/>
+        <v>6.7829912280645104</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="7"/>
+        <v>7.5845883210626521</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="8"/>
+        <v>7.6985485645022802</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="9"/>
+        <v>0.25099800796022037</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>28.673999999999999</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="3"/>
+        <v>3.6680000000000006</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="4"/>
+        <v>22.771999999999998</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="5"/>
+        <v>3.5400000000000005</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="6"/>
+        <v>9.8626786422350801</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="7"/>
+        <v>6.4247700347950198</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="8"/>
+        <v>9.3332802379442228</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="9"/>
+        <v>1.2700393694685201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>21.869999999999997</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="3"/>
+        <v>15.662000000000001</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="4"/>
+        <v>18.872</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="5"/>
+        <v>5.0600000000000005</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="6"/>
+        <v>21.865734609200764</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="7"/>
+        <v>21.932380627738524</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="8"/>
+        <v>21.813542124102629</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="9"/>
+        <v>3.803025111670971</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>39.297999999999995</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="3"/>
+        <v>35.996000000000002</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="4"/>
+        <v>37.688000000000002</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="5"/>
+        <v>4.54</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="6"/>
+        <v>27.549894192174332</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="7"/>
+        <v>27.866281237366422</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="8"/>
+        <v>27.646219813927541</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="9"/>
+        <v>3.9627010989980058</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>32.315999999999995</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="3"/>
+        <v>21.186</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="4"/>
+        <v>31.423999999999999</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="5"/>
+        <v>4.6800000000000006</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="6"/>
+        <v>18.367148118311679</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="7"/>
+        <v>17.662618152471055</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="8"/>
+        <v>18.2472745910177</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="9"/>
+        <v>3.925812017914255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>19.166000000000004</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="3"/>
+        <v>15.184000000000001</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="4"/>
+        <v>18.702000000000002</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="5"/>
+        <v>5.3599999999999994</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="6"/>
+        <v>3.8715474942198349</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="7"/>
+        <v>7.4313545198705233</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="8"/>
+        <v>3.867353099989705</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="9"/>
+        <v>0.9989994994993765</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>36.921999999999997</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="3"/>
+        <v>20036.544000000002</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="4"/>
+        <v>45.912500000000001</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="5"/>
+        <v>1.9</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="6"/>
+        <v>24.079153224314179</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="7"/>
+        <v>44700.932552883387</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="8"/>
+        <v>14.320135881571328</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="9"/>
+        <v>1.2825755338380662</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>5.800000000000001E-2</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="4"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="5"/>
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="6"/>
+        <v>8.3666002653406887E-3</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="8"/>
+        <v>4.4721359549995798E-3</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="9"/>
+        <v>4.4721359549995787E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>0.38</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="5"/>
+        <v>1.98</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="6"/>
+        <v>3.5355339059327376E-2</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="9"/>
+        <v>4.4721359549995836E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>0.44399999999999995</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="4"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="5"/>
+        <v>3.9799999999999995</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="6"/>
+        <v>7.7330459716725267E-2</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="8"/>
+        <v>4.4721359549995798E-3</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="9"/>
+        <v>4.4721359549995836E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="4"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="5"/>
+        <v>7.8400000000000007</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="6"/>
+        <v>9.4710083940412484E-2</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="8"/>
+        <v>4.4721359549995772E-3</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="9"/>
+        <v>0.19493588689617908</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="2"/>
+        <v>0.67399999999999993</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="4"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="5"/>
+        <v>15.84</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="6"/>
+        <v>0.12700393694685208</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="8"/>
+        <v>1.4832396974191375E-2</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="9"/>
+        <v>0.29664793948382712</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="2"/>
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="3"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="4"/>
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="5"/>
+        <v>27.82</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="6"/>
+        <v>0.12934450123604013</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="7"/>
+        <v>1.0954451150103336E-2</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="8"/>
+        <v>0.10454664030948099</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="9"/>
+        <v>0.92843955107481246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" si="2"/>
+        <v>2.5779999999999998</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="3"/>
+        <v>6.5999999999999989E-2</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="4"/>
+        <v>1.9</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="5"/>
+        <v>28.639999999999997</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="6"/>
+        <v>4.6583258795408582E-2</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="7"/>
+        <v>1.5165750888103164E-2</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="8"/>
+        <v>4.4721359549995746E-2</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="9"/>
+        <v>0.43358966777357577</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" si="2"/>
+        <v>2.77</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="3"/>
+        <v>0.152</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="4"/>
+        <v>2.2399999999999998</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="5"/>
+        <v>29.240000000000002</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="6"/>
+        <v>0.14124446891825537</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="7"/>
+        <v>3.4928498393145997E-2</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="8"/>
+        <v>0.10677078252031318</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="9"/>
+        <v>1.5741664460913907</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f>AVERAGE(E43,N43,W43,AF43,AO43)</f>
+        <v>2.9180000000000001</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="3"/>
+        <v>0.61199999999999988</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="4"/>
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="6"/>
+        <v>6.7601775124622288E-2</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="7"/>
+        <v>9.0939540355117865E-2</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="8"/>
+        <v>5.4129474410897535E-2</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="9"/>
+        <v>0.92466210044534725</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="str">
+        <f>TEXT(A48,"0.000")&amp;"@"&amp;TEXT(F48,"0.000")</f>
+        <v>67.516@30.490</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" ref="B69:D69" si="10">TEXT(B48,"0.000")&amp;"@"&amp;TEXT(G48,"0.000")</f>
+        <v>0.510@0.179</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="10"/>
+        <v>20.136@14.555</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="10"/>
+        <v>0.720@0.217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="str">
+        <f t="shared" ref="A70:A86" si="11">TEXT(A49,"0.000")&amp;"@"&amp;TEXT(F49,"0.000")</f>
+        <v>35.166@10.476</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" ref="B70:B86" si="12">TEXT(B49,"0.000")&amp;"@"&amp;TEXT(G49,"0.000")</f>
+        <v>1.234@0.405</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" ref="C70:C86" si="13">TEXT(C49,"0.000")&amp;"@"&amp;TEXT(H49,"0.000")</f>
+        <v>15.644@2.710</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" ref="D70:D86" si="14">TEXT(D49,"0.000")&amp;"@"&amp;TEXT(I49,"0.000")</f>
+        <v>1.460@0.321</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="str">
+        <f t="shared" si="11"/>
+        <v>32.988@6.783</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="12"/>
+        <v>7.706@7.585</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="13"/>
+        <v>18.970@7.699</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="14"/>
+        <v>2.140@0.251</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="str">
+        <f t="shared" si="11"/>
+        <v>28.674@9.863</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="12"/>
+        <v>3.668@6.425</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="13"/>
+        <v>22.772@9.333</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="14"/>
+        <v>3.540@1.270</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="str">
+        <f t="shared" si="11"/>
+        <v>21.870@21.866</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="12"/>
+        <v>15.662@21.932</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="13"/>
+        <v>18.872@21.814</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="14"/>
+        <v>5.060@3.803</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="str">
+        <f t="shared" si="11"/>
+        <v>39.298@27.550</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="12"/>
+        <v>35.996@27.866</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="13"/>
+        <v>37.688@27.646</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="14"/>
+        <v>4.540@3.963</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="str">
+        <f t="shared" si="11"/>
+        <v>32.316@18.367</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="12"/>
+        <v>21.186@17.663</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="13"/>
+        <v>31.424@18.247</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="14"/>
+        <v>4.680@3.926</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="str">
+        <f t="shared" si="11"/>
+        <v>19.166@3.872</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="12"/>
+        <v>15.184@7.431</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="13"/>
+        <v>18.702@3.867</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="14"/>
+        <v>5.360@0.999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="str">
+        <f t="shared" si="11"/>
+        <v>36.922@24.079</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="12"/>
+        <v>20036.544@44700.933</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="13"/>
+        <v>45.913@14.320</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="14"/>
+        <v>1.900@1.283</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" t="str">
+        <f t="shared" si="11"/>
+        <v>0.058@0.008</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="12"/>
+        <v>0.030@0.000</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="13"/>
+        <v>0.038@0.004</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="14"/>
+        <v>0.980@0.045</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" t="str">
+        <f t="shared" si="11"/>
+        <v>0.380@0.035</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="12"/>
+        <v>0.030@0.000</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="13"/>
+        <v>0.040@0.000</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="14"/>
+        <v>1.980@0.045</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" t="str">
+        <f t="shared" si="11"/>
+        <v>0.444@0.077</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="12"/>
+        <v>0.030@0.000</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="13"/>
+        <v>0.042@0.004</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="14"/>
+        <v>3.980@0.045</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="str">
+        <f t="shared" si="11"/>
+        <v>0.558@0.095</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="12"/>
+        <v>0.030@0.000</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="13"/>
+        <v>0.052@0.004</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="14"/>
+        <v>7.840@0.195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="str">
+        <f t="shared" si="11"/>
+        <v>0.674@0.127</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="12"/>
+        <v>0.030@0.000</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="13"/>
+        <v>0.098@0.015</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="14"/>
+        <v>15.840@0.297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="str">
+        <f t="shared" si="11"/>
+        <v>1.176@0.129</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="12"/>
+        <v>0.052@0.011</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="13"/>
+        <v>0.844@0.105</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="14"/>
+        <v>27.820@0.928</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="str">
+        <f t="shared" si="11"/>
+        <v>2.578@0.047</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="12"/>
+        <v>0.066@0.015</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="13"/>
+        <v>1.900@0.045</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="14"/>
+        <v>28.640@0.434</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="str">
+        <f t="shared" si="11"/>
+        <v>2.770@0.141</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="12"/>
+        <v>0.152@0.035</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="13"/>
+        <v>2.240@0.107</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="14"/>
+        <v>29.240@1.574</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="str">
+        <f t="shared" si="11"/>
+        <v>2.918@0.068</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="12"/>
+        <v>0.612@0.091</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="13"/>
+        <v>2.394@0.054</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="14"/>
+        <v>30.000@0.925</v>
       </c>
     </row>
   </sheetData>

--- a/Data_FGCS2.xlsx
+++ b/Data_FGCS2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeshunshi/Desktop/Github/FGCS2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B56353E-58E4-9343-A1E1-7AC6F56D3E40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECEF6C3-2039-3D4D-903D-F8FA48A0DA15}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14200" xr2:uid="{0E1FB2F4-51F8-A64D-A5C6-9FB8EC605AD1}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14200" activeTab="4" xr2:uid="{0E1FB2F4-51F8-A64D-A5C6-9FB8EC605AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Besu" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -570,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873FB8C2-BE84-8D47-93A9-0AE14038F2D0}">
   <dimension ref="A1:AR55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
@@ -13517,8 +13517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDD85A2-0575-4F4A-995B-6F15BC9A4F02}">
   <dimension ref="A1:AR86"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:D86"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16056,16 +16056,16 @@
         <v>1</v>
       </c>
       <c r="AF26" s="2">
-        <v>91.01</v>
+        <v>34.64</v>
       </c>
       <c r="AG26" s="2">
-        <v>0.43</v>
+        <v>0.64</v>
       </c>
       <c r="AH26" s="2">
-        <v>13.18</v>
+        <v>10.26</v>
       </c>
       <c r="AI26" s="2">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2" t="s">
@@ -16182,13 +16182,13 @@
         <v>2</v>
       </c>
       <c r="AF27" s="2">
-        <v>32.81</v>
+        <v>47.39</v>
       </c>
       <c r="AG27" s="2">
-        <v>1.23</v>
+        <v>0.68</v>
       </c>
       <c r="AH27" s="2">
-        <v>14.61</v>
+        <v>25.12</v>
       </c>
       <c r="AI27" s="2">
         <v>1.3</v>
@@ -16299,25 +16299,25 @@
         <v>8</v>
       </c>
       <c r="AC28" s="2">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="AD28" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE28" s="2">
         <v>4</v>
       </c>
       <c r="AF28" s="2">
-        <v>36.99</v>
+        <v>51.16</v>
       </c>
       <c r="AG28" s="2">
-        <v>0.82</v>
+        <v>30.58</v>
       </c>
       <c r="AH28" s="2">
-        <v>16.48</v>
+        <v>40.85</v>
       </c>
       <c r="AI28" s="2">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2" t="s">
@@ -16425,25 +16425,25 @@
         <v>8</v>
       </c>
       <c r="AC29" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="AD29" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="2">
         <v>8.1</v>
       </c>
       <c r="AF29" s="2">
-        <v>14.33</v>
+        <v>14.43</v>
       </c>
       <c r="AG29" s="2">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="AH29" s="2">
-        <v>9.17</v>
+        <v>8.15</v>
       </c>
       <c r="AI29" s="2">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AJ29" s="2"/>
       <c r="AK29" s="2" t="s">
@@ -16560,16 +16560,16 @@
         <v>16.2</v>
       </c>
       <c r="AF30" s="2">
-        <v>10.11</v>
+        <v>48.9</v>
       </c>
       <c r="AG30" s="2">
-        <v>3.87</v>
+        <v>42.71</v>
       </c>
       <c r="AH30" s="2">
-        <v>6.95</v>
+        <v>45.82</v>
       </c>
       <c r="AI30" s="2">
-        <v>9.9</v>
+        <v>2</v>
       </c>
       <c r="AJ30" s="2"/>
       <c r="AK30" s="2" t="s">
@@ -16686,16 +16686,16 @@
         <v>32.299999999999997</v>
       </c>
       <c r="AF31" s="2">
-        <v>75.14</v>
+        <v>28.37</v>
       </c>
       <c r="AG31" s="2">
-        <v>72.11</v>
+        <v>25.19</v>
       </c>
       <c r="AH31" s="2">
-        <v>73.62</v>
+        <v>26.79</v>
       </c>
       <c r="AI31" s="2">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2" t="s">
@@ -16812,16 +16812,16 @@
         <v>64.599999999999994</v>
       </c>
       <c r="AF32" s="2">
-        <v>8.85</v>
+        <v>24.21</v>
       </c>
       <c r="AG32" s="2">
-        <v>7.15</v>
+        <v>22.61</v>
       </c>
       <c r="AH32" s="2">
-        <v>8.02</v>
+        <v>23.42</v>
       </c>
       <c r="AI32" s="2">
-        <v>11.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2" t="s">
@@ -16935,19 +16935,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="2">
-        <v>130.19999999999999</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="AF33" s="2">
-        <v>25.32</v>
+        <v>26.56</v>
       </c>
       <c r="AG33" s="2">
-        <v>24.51</v>
+        <v>25.73</v>
       </c>
       <c r="AH33" s="2">
-        <v>24.9</v>
+        <v>26.12</v>
       </c>
       <c r="AI33" s="2">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2" t="s">
@@ -17055,25 +17055,25 @@
         <v>8</v>
       </c>
       <c r="AC34" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD34" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="2">
-        <v>257.7</v>
+        <v>256.39999999999998</v>
       </c>
       <c r="AF34" s="2">
-        <v>0</v>
+        <v>24.01</v>
       </c>
       <c r="AG34" s="2">
-        <v>100000</v>
-      </c>
-      <c r="AH34" s="2" t="s">
-        <v>15</v>
+        <v>23.58</v>
+      </c>
+      <c r="AH34" s="2">
+        <v>23.78</v>
       </c>
       <c r="AI34" s="2">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AJ34" s="2"/>
       <c r="AK34" s="2" t="s">
@@ -17181,16 +17181,16 @@
         <v>9</v>
       </c>
       <c r="AC35" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AD35" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AE35" s="2">
         <v>1</v>
       </c>
       <c r="AF35" s="2">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="AG35" s="2">
         <v>0.03</v>
@@ -17199,7 +17199,7 @@
         <v>0.04</v>
       </c>
       <c r="AI35" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AJ35" s="2"/>
       <c r="AK35" s="2" t="s">
@@ -17307,25 +17307,25 @@
         <v>9</v>
       </c>
       <c r="AC36" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AD36" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE36" s="2">
         <v>2</v>
       </c>
       <c r="AF36" s="2">
-        <v>0.41</v>
+        <v>0.79</v>
       </c>
       <c r="AG36" s="2">
         <v>0.03</v>
       </c>
       <c r="AH36" s="2">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AI36" s="2">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AJ36" s="2"/>
       <c r="AK36" s="2" t="s">
@@ -17433,22 +17433,22 @@
         <v>9</v>
       </c>
       <c r="AC37" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD37" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE37" s="2">
         <v>4</v>
       </c>
       <c r="AF37" s="2">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="AG37" s="2">
         <v>0.03</v>
       </c>
       <c r="AH37" s="2">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AI37" s="2">
         <v>3.9</v>
@@ -17559,25 +17559,25 @@
         <v>9</v>
       </c>
       <c r="AC38" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AD38" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE38" s="2">
         <v>8.1</v>
       </c>
       <c r="AF38" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="AG38" s="2">
         <v>0.03</v>
       </c>
       <c r="AH38" s="2">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AI38" s="2">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2" t="s">
@@ -17685,25 +17685,25 @@
         <v>9</v>
       </c>
       <c r="AC39" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AD39" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE39" s="2">
-        <v>16.100000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="AF39" s="2">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="AG39" s="2">
         <v>0.03</v>
       </c>
       <c r="AH39" s="2">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AI39" s="2">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="AJ39" s="2"/>
       <c r="AK39" s="2" t="s">
@@ -17811,25 +17811,25 @@
         <v>9</v>
       </c>
       <c r="AC40" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AD40" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE40" s="2">
         <v>32.299999999999997</v>
       </c>
       <c r="AF40" s="2">
-        <v>1.18</v>
+        <v>1.65</v>
       </c>
       <c r="AG40" s="2">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AH40" s="2">
-        <v>0.86</v>
+        <v>1.27</v>
       </c>
       <c r="AI40" s="2">
-        <v>27.8</v>
+        <v>24.1</v>
       </c>
       <c r="AJ40" s="2"/>
       <c r="AK40" s="2" t="s">
@@ -17937,25 +17937,25 @@
         <v>9</v>
       </c>
       <c r="AC41" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD41" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE41" s="2">
-        <v>64.599999999999994</v>
+        <v>64.7</v>
       </c>
       <c r="AF41" s="2">
-        <v>2.6</v>
+        <v>3.07</v>
       </c>
       <c r="AG41" s="2">
         <v>0.06</v>
       </c>
       <c r="AH41" s="2">
-        <v>1.89</v>
+        <v>2.44</v>
       </c>
       <c r="AI41" s="2">
-        <v>28.3</v>
+        <v>24.3</v>
       </c>
       <c r="AJ41" s="2"/>
       <c r="AK41" s="2" t="s">
@@ -18063,25 +18063,25 @@
         <v>9</v>
       </c>
       <c r="AC42" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AD42" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE42" s="2">
-        <v>129</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="AF42" s="2">
-        <v>2.96</v>
+        <v>3.41</v>
       </c>
       <c r="AG42" s="2">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="AH42" s="2">
-        <v>2.37</v>
+        <v>2.77</v>
       </c>
       <c r="AI42" s="2">
-        <v>27</v>
+        <v>24.2</v>
       </c>
       <c r="AJ42" s="2"/>
       <c r="AK42" s="2" t="s">
@@ -18189,25 +18189,25 @@
         <v>9</v>
       </c>
       <c r="AC43" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AD43" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE43" s="2">
-        <v>257.7</v>
+        <v>258.39999999999998</v>
       </c>
       <c r="AF43" s="2">
-        <v>2.81</v>
+        <v>3.53</v>
       </c>
       <c r="AG43" s="2">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="AH43" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.85</v>
       </c>
       <c r="AI43" s="2">
-        <v>31.3</v>
+        <v>25.1</v>
       </c>
       <c r="AJ43" s="2"/>
       <c r="AK43" s="2" t="s">
@@ -18238,49 +18238,49 @@
     <row r="48" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A48">
         <f>AVERAGE(E26,N26,W26,AF26,AO26)</f>
-        <v>67.515999999999991</v>
+        <v>56.241999999999997</v>
       </c>
       <c r="B48">
         <f t="shared" ref="B48:D48" si="0">AVERAGE(F26,O26,X26,AG26,AP26)</f>
-        <v>0.51</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>20.136000000000003</v>
+        <v>19.552</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="F48">
         <f>STDEV(E26,N26,W26,AF26,AO26)</f>
-        <v>30.490064447291701</v>
+        <v>30.049642593548441</v>
       </c>
       <c r="G48">
         <f t="shared" ref="G48:I48" si="1">STDEV(F26,O26,X26,AG26,AP26)</f>
-        <v>0.17902513789968147</v>
+        <v>0.1801943395337377</v>
       </c>
       <c r="H48">
         <f t="shared" si="1"/>
-        <v>14.554721914210518</v>
+        <v>14.956636319707716</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
-        <v>0.21679483388678783</v>
+        <v>0.18708286933869686</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" ref="A49:A64" si="2">AVERAGE(E27,N27,W27,AF27,AO27)</f>
-        <v>35.165999999999997</v>
+        <v>38.082000000000008</v>
       </c>
       <c r="B49">
         <f t="shared" ref="B49:B66" si="3">AVERAGE(F27,O27,X27,AG27,AP27)</f>
-        <v>1.2339999999999998</v>
+        <v>1.1240000000000001</v>
       </c>
       <c r="C49">
         <f t="shared" ref="C49:C66" si="4">AVERAGE(G27,P27,Y27,AH27,AQ27)</f>
-        <v>15.644</v>
+        <v>17.746000000000002</v>
       </c>
       <c r="D49">
         <f t="shared" ref="D49:D66" si="5">AVERAGE(H27,Q27,Z27,AI27,AR27)</f>
@@ -18288,15 +18288,15 @@
       </c>
       <c r="F49">
         <f t="shared" ref="F49:F65" si="6">STDEV(E27,N27,W27,AF27,AO27)</f>
-        <v>10.476455984730736</v>
+        <v>11.623087799719976</v>
       </c>
       <c r="G49">
         <f t="shared" ref="G49:G65" si="7">STDEV(F27,O27,X27,AG27,AP27)</f>
-        <v>0.40506789554345168</v>
+        <v>0.47505789120906061</v>
       </c>
       <c r="H49">
         <f t="shared" ref="H49:H65" si="8">STDEV(G27,P27,Y27,AH27,AQ27)</f>
-        <v>2.7095626953440366</v>
+        <v>4.8989876505253527</v>
       </c>
       <c r="I49">
         <f t="shared" ref="I49:I65" si="9">STDEV(H27,Q27,Z27,AI27,AR27)</f>
@@ -18306,245 +18306,245 @@
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="2"/>
-        <v>32.988</v>
+        <v>35.822000000000003</v>
       </c>
       <c r="B50">
         <f t="shared" si="3"/>
-        <v>7.7060000000000004</v>
+        <v>13.657999999999998</v>
       </c>
       <c r="C50">
         <f t="shared" si="4"/>
-        <v>18.97</v>
+        <v>23.844000000000001</v>
       </c>
       <c r="D50">
         <f t="shared" si="5"/>
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="F50">
         <f t="shared" si="6"/>
-        <v>6.7829912280645104</v>
+        <v>10.70144476227391</v>
       </c>
       <c r="G50">
         <f t="shared" si="7"/>
-        <v>7.5845883210626521</v>
+        <v>11.497557131843269</v>
       </c>
       <c r="H50">
         <f t="shared" si="8"/>
-        <v>7.6985485645022802</v>
+        <v>12.153451361650323</v>
       </c>
       <c r="I50">
         <f t="shared" si="9"/>
-        <v>0.25099800796022037</v>
+        <v>0.34205262752974136</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="2"/>
-        <v>28.673999999999999</v>
+        <v>28.693999999999999</v>
       </c>
       <c r="B51">
         <f t="shared" si="3"/>
-        <v>3.6680000000000006</v>
+        <v>3.6760000000000006</v>
       </c>
       <c r="C51">
         <f t="shared" si="4"/>
-        <v>22.771999999999998</v>
+        <v>22.568000000000001</v>
       </c>
       <c r="D51">
         <f t="shared" si="5"/>
-        <v>3.5400000000000005</v>
+        <v>3.5</v>
       </c>
       <c r="F51">
         <f t="shared" si="6"/>
-        <v>9.8626786422350801</v>
+        <v>9.8263538507424055</v>
       </c>
       <c r="G51">
         <f t="shared" si="7"/>
-        <v>6.4247700347950198</v>
+        <v>6.4204073079517316</v>
       </c>
       <c r="H51">
         <f t="shared" si="8"/>
-        <v>9.3332802379442228</v>
+        <v>9.7085127594292278</v>
       </c>
       <c r="I51">
         <f t="shared" si="9"/>
-        <v>1.2700393694685201</v>
+        <v>1.1853269591129703</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="2"/>
-        <v>21.869999999999997</v>
+        <v>29.628000000000004</v>
       </c>
       <c r="B52">
         <f t="shared" si="3"/>
-        <v>15.662000000000001</v>
+        <v>23.43</v>
       </c>
       <c r="C52">
         <f t="shared" si="4"/>
-        <v>18.872</v>
+        <v>26.645999999999997</v>
       </c>
       <c r="D52">
         <f t="shared" si="5"/>
-        <v>5.0600000000000005</v>
+        <v>3.4800000000000004</v>
       </c>
       <c r="F52">
         <f t="shared" si="6"/>
-        <v>21.865734609200764</v>
+        <v>23.472493902438231</v>
       </c>
       <c r="G52">
         <f t="shared" si="7"/>
-        <v>21.932380627738524</v>
+        <v>23.531634027410846</v>
       </c>
       <c r="H52">
         <f t="shared" si="8"/>
-        <v>21.813542124102629</v>
+        <v>23.373102703749026</v>
       </c>
       <c r="I52">
         <f t="shared" si="9"/>
-        <v>3.803025111670971</v>
+        <v>2.7976776083030006</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="2"/>
-        <v>39.297999999999995</v>
+        <v>29.943999999999999</v>
       </c>
       <c r="B53">
         <f t="shared" si="3"/>
-        <v>35.996000000000002</v>
+        <v>26.612000000000002</v>
       </c>
       <c r="C53">
         <f t="shared" si="4"/>
-        <v>37.688000000000002</v>
+        <v>28.321999999999996</v>
       </c>
       <c r="D53">
         <f t="shared" si="5"/>
-        <v>4.54</v>
+        <v>4.9799999999999995</v>
       </c>
       <c r="F53">
         <f t="shared" si="6"/>
-        <v>27.549894192174332</v>
+        <v>18.929291587378547</v>
       </c>
       <c r="G53">
         <f t="shared" si="7"/>
-        <v>27.866281237366422</v>
+        <v>19.224787905201975</v>
       </c>
       <c r="H53">
         <f t="shared" si="8"/>
-        <v>27.646219813927541</v>
+        <v>19.015137916933451</v>
       </c>
       <c r="I53">
         <f t="shared" si="9"/>
-        <v>3.9627010989980058</v>
+        <v>3.6203590982111162</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="2"/>
-        <v>32.315999999999995</v>
+        <v>35.387999999999998</v>
       </c>
       <c r="B54">
         <f t="shared" si="3"/>
-        <v>21.186</v>
+        <v>24.278000000000002</v>
       </c>
       <c r="C54">
         <f t="shared" si="4"/>
-        <v>31.423999999999999</v>
+        <v>34.504000000000005</v>
       </c>
       <c r="D54">
         <f t="shared" si="5"/>
-        <v>4.6800000000000006</v>
+        <v>3.2399999999999998</v>
       </c>
       <c r="F54">
         <f t="shared" si="6"/>
-        <v>18.367148118311679</v>
+        <v>14.294025675085377</v>
       </c>
       <c r="G54">
         <f t="shared" si="7"/>
-        <v>17.662618152471055</v>
+        <v>15.851565222399959</v>
       </c>
       <c r="H54">
         <f t="shared" si="8"/>
-        <v>18.2472745910177</v>
+        <v>14.148647638555419</v>
       </c>
       <c r="I54">
         <f t="shared" si="9"/>
-        <v>3.925812017914255</v>
+        <v>1.3957077057894323</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="2"/>
-        <v>19.166000000000004</v>
+        <v>19.414000000000001</v>
       </c>
       <c r="B55">
         <f t="shared" si="3"/>
-        <v>15.184000000000001</v>
+        <v>15.428000000000001</v>
       </c>
       <c r="C55">
         <f t="shared" si="4"/>
-        <v>18.702000000000002</v>
+        <v>18.946000000000005</v>
       </c>
       <c r="D55">
         <f t="shared" si="5"/>
-        <v>5.3599999999999994</v>
+        <v>5.3400000000000007</v>
       </c>
       <c r="F55">
         <f t="shared" si="6"/>
-        <v>3.8715474942198349</v>
+        <v>4.3717136228257072</v>
       </c>
       <c r="G55">
         <f t="shared" si="7"/>
-        <v>7.4313545198705233</v>
+        <v>7.8237823333730336</v>
       </c>
       <c r="H55">
         <f t="shared" si="8"/>
-        <v>3.867353099989705</v>
+        <v>4.3628981193697243</v>
       </c>
       <c r="I55">
         <f t="shared" si="9"/>
-        <v>0.9989994994993765</v>
+        <v>1.0358571330062816</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="2"/>
-        <v>36.921999999999997</v>
+        <v>41.723999999999997</v>
       </c>
       <c r="B56">
         <f t="shared" si="3"/>
-        <v>20036.544000000002</v>
+        <v>41.260000000000005</v>
       </c>
       <c r="C56">
         <f t="shared" si="4"/>
-        <v>45.912500000000001</v>
+        <v>41.486000000000004</v>
       </c>
       <c r="D56">
         <f t="shared" si="5"/>
-        <v>1.9</v>
+        <v>2.7399999999999998</v>
       </c>
       <c r="F56">
         <f t="shared" si="6"/>
-        <v>24.079153224314179</v>
+        <v>15.869878071365269</v>
       </c>
       <c r="G56">
         <f t="shared" si="7"/>
-        <v>44700.932552883387</v>
+        <v>15.857078860874724</v>
       </c>
       <c r="H56">
         <f t="shared" si="8"/>
-        <v>14.320135881571328</v>
+        <v>15.867237629782945</v>
       </c>
       <c r="I56">
         <f t="shared" si="9"/>
-        <v>1.2825755338380662</v>
+        <v>1.087658034494299</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="2"/>
-        <v>5.800000000000001E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="B57">
         <f t="shared" si="3"/>
@@ -18556,11 +18556,11 @@
       </c>
       <c r="D57">
         <f t="shared" si="5"/>
-        <v>0.98000000000000009</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <f t="shared" si="6"/>
-        <v>8.3666002653406887E-3</v>
+        <v>1.3038404810405298E-2</v>
       </c>
       <c r="G57">
         <f t="shared" si="7"/>
@@ -18572,13 +18572,13 @@
       </c>
       <c r="I57">
         <f t="shared" si="9"/>
-        <v>4.4721359549995787E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="2"/>
-        <v>0.38</v>
+        <v>0.45600000000000007</v>
       </c>
       <c r="B58">
         <f t="shared" si="3"/>
@@ -18586,15 +18586,15 @@
       </c>
       <c r="C58">
         <f t="shared" si="4"/>
-        <v>0.04</v>
+        <v>4.1999999999999996E-2</v>
       </c>
       <c r="D58">
         <f t="shared" si="5"/>
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="F58">
         <f t="shared" si="6"/>
-        <v>3.5355339059327376E-2</v>
+        <v>0.18928814014618039</v>
       </c>
       <c r="G58">
         <f t="shared" si="7"/>
@@ -18602,17 +18602,17 @@
       </c>
       <c r="H58">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.4721359549995806E-3</v>
       </c>
       <c r="I58">
         <f t="shared" si="9"/>
-        <v>4.4721359549995836E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="2"/>
-        <v>0.44399999999999995</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="B59">
         <f t="shared" si="3"/>
@@ -18620,7 +18620,7 @@
       </c>
       <c r="C59">
         <f t="shared" si="4"/>
-        <v>4.2000000000000003E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D59">
         <f t="shared" si="5"/>
@@ -18628,7 +18628,7 @@
       </c>
       <c r="F59">
         <f t="shared" si="6"/>
-        <v>7.7330459716725267E-2</v>
+        <v>7.5033325929216063E-2</v>
       </c>
       <c r="G59">
         <f t="shared" si="7"/>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="H59">
         <f t="shared" si="8"/>
-        <v>4.4721359549995798E-3</v>
+        <v>5.4772255750516622E-3</v>
       </c>
       <c r="I59">
         <f t="shared" si="9"/>
@@ -18646,7 +18646,7 @@
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="2"/>
-        <v>0.55800000000000005</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="B60">
         <f t="shared" si="3"/>
@@ -18654,15 +18654,15 @@
       </c>
       <c r="C60">
         <f t="shared" si="4"/>
-        <v>5.2000000000000005E-2</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="D60">
         <f t="shared" si="5"/>
-        <v>7.8400000000000007</v>
+        <v>7.9</v>
       </c>
       <c r="F60">
         <f t="shared" si="6"/>
-        <v>9.4710083940412484E-2</v>
+        <v>9.8742088290657393E-2</v>
       </c>
       <c r="G60">
         <f t="shared" si="7"/>
@@ -18670,17 +18670,17 @@
       </c>
       <c r="H60">
         <f t="shared" si="8"/>
-        <v>4.4721359549995772E-3</v>
+        <v>5.4772255750516587E-3</v>
       </c>
       <c r="I60">
         <f t="shared" si="9"/>
-        <v>0.19493588689617908</v>
+        <v>0.18708286933869686</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="2"/>
-        <v>0.67399999999999993</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="B61">
         <f t="shared" si="3"/>
@@ -18688,15 +18688,15 @@
       </c>
       <c r="C61">
         <f t="shared" si="4"/>
-        <v>9.8000000000000004E-2</v>
+        <v>0.10800000000000001</v>
       </c>
       <c r="D61">
         <f t="shared" si="5"/>
-        <v>15.84</v>
+        <v>15.9</v>
       </c>
       <c r="F61">
         <f t="shared" si="6"/>
-        <v>0.12700393694685208</v>
+        <v>0.13711309200802102</v>
       </c>
       <c r="G61">
         <f t="shared" si="7"/>
@@ -18704,51 +18704,51 @@
       </c>
       <c r="H61">
         <f t="shared" si="8"/>
-        <v>1.4832396974191375E-2</v>
+        <v>2.7748873851023183E-2</v>
       </c>
       <c r="I61">
         <f t="shared" si="9"/>
-        <v>0.29664793948382712</v>
+        <v>0.20000000000000107</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="2"/>
-        <v>1.1759999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="B62">
         <f t="shared" si="3"/>
-        <v>5.2000000000000005E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C62">
         <f t="shared" si="4"/>
-        <v>0.84399999999999997</v>
+        <v>0.92599999999999993</v>
       </c>
       <c r="D62">
         <f t="shared" si="5"/>
-        <v>27.82</v>
+        <v>27.080000000000002</v>
       </c>
       <c r="F62">
         <f t="shared" si="6"/>
-        <v>0.12934450123604013</v>
+        <v>0.24869660230891724</v>
       </c>
       <c r="G62">
         <f t="shared" si="7"/>
-        <v>1.0954451150103336E-2</v>
+        <v>1.2247448713915889E-2</v>
       </c>
       <c r="H62">
         <f t="shared" si="8"/>
-        <v>0.10454664030948099</v>
+        <v>0.21870070873227648</v>
       </c>
       <c r="I62">
         <f t="shared" si="9"/>
-        <v>0.92843955107481246</v>
+        <v>1.9070920271449925</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="2"/>
-        <v>2.5779999999999998</v>
+        <v>2.6719999999999997</v>
       </c>
       <c r="B63">
         <f t="shared" si="3"/>
@@ -18756,15 +18756,15 @@
       </c>
       <c r="C63">
         <f t="shared" si="4"/>
-        <v>1.9</v>
+        <v>2.0100000000000002</v>
       </c>
       <c r="D63">
         <f t="shared" si="5"/>
-        <v>28.639999999999997</v>
+        <v>27.839999999999996</v>
       </c>
       <c r="F63">
         <f t="shared" si="6"/>
-        <v>4.6583258795408582E-2</v>
+        <v>0.22698017534577772</v>
       </c>
       <c r="G63">
         <f t="shared" si="7"/>
@@ -18772,111 +18772,111 @@
       </c>
       <c r="H63">
         <f t="shared" si="8"/>
-        <v>4.4721359549995746E-2</v>
+        <v>0.2444381312316049</v>
       </c>
       <c r="I63">
         <f t="shared" si="9"/>
-        <v>0.43358966777357577</v>
+        <v>2.0169283576765933</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="2"/>
-        <v>2.77</v>
+        <v>2.86</v>
       </c>
       <c r="B64">
         <f t="shared" si="3"/>
-        <v>0.152</v>
+        <v>0.188</v>
       </c>
       <c r="C64">
         <f t="shared" si="4"/>
-        <v>2.2399999999999998</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="D64">
         <f t="shared" si="5"/>
-        <v>29.240000000000002</v>
+        <v>28.68</v>
       </c>
       <c r="F64">
         <f t="shared" si="6"/>
-        <v>0.14124446891825537</v>
+        <v>0.32124756808418031</v>
       </c>
       <c r="G64">
         <f t="shared" si="7"/>
-        <v>3.4928498393145997E-2</v>
+        <v>9.6540147089177339E-2</v>
       </c>
       <c r="H64">
         <f t="shared" si="8"/>
-        <v>0.10677078252031318</v>
+        <v>0.26343879744638626</v>
       </c>
       <c r="I64">
         <f t="shared" si="9"/>
-        <v>1.5741664460913907</v>
+        <v>2.6799253720952754</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <f>AVERAGE(E43,N43,W43,AF43,AO43)</f>
-        <v>2.9180000000000001</v>
+        <v>3.0620000000000003</v>
       </c>
       <c r="B65">
         <f t="shared" si="3"/>
-        <v>0.61199999999999988</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="C65">
         <f t="shared" si="4"/>
-        <v>2.3940000000000001</v>
+        <v>2.504</v>
       </c>
       <c r="D65">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>28.76</v>
       </c>
       <c r="F65">
         <f t="shared" si="6"/>
-        <v>6.7601775124622288E-2</v>
+        <v>0.26338185207033521</v>
       </c>
       <c r="G65">
         <f t="shared" si="7"/>
-        <v>9.0939540355117865E-2</v>
+        <v>7.1274118724821658E-2</v>
       </c>
       <c r="H65">
         <f t="shared" si="8"/>
-        <v>5.4129474410897535E-2</v>
+        <v>0.19385561637466167</v>
       </c>
       <c r="I65">
         <f t="shared" si="9"/>
-        <v>0.92466210044534725</v>
+        <v>2.1243822631532199</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f>TEXT(A48,"0.000")&amp;"@"&amp;TEXT(F48,"0.000")</f>
-        <v>67.516@30.490</v>
+        <v>56.242@30.050</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" ref="B69:D69" si="10">TEXT(B48,"0.000")&amp;"@"&amp;TEXT(G48,"0.000")</f>
-        <v>0.510@0.179</v>
+        <v>0.552@0.180</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="10"/>
-        <v>20.136@14.555</v>
+        <v>19.552@14.957</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="10"/>
-        <v>0.720@0.217</v>
+        <v>0.800@0.187</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" ref="A70:A86" si="11">TEXT(A49,"0.000")&amp;"@"&amp;TEXT(F49,"0.000")</f>
-        <v>35.166@10.476</v>
+        <v>38.082@11.623</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" ref="B70:B86" si="12">TEXT(B49,"0.000")&amp;"@"&amp;TEXT(G49,"0.000")</f>
-        <v>1.234@0.405</v>
+        <v>1.124@0.475</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" ref="C70:C86" si="13">TEXT(C49,"0.000")&amp;"@"&amp;TEXT(H49,"0.000")</f>
-        <v>15.644@2.710</v>
+        <v>17.746@4.899</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" ref="D70:D86" si="14">TEXT(D49,"0.000")&amp;"@"&amp;TEXT(I49,"0.000")</f>
@@ -18886,133 +18886,133 @@
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="11"/>
-        <v>32.988@6.783</v>
+        <v>35.822@10.701</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="12"/>
-        <v>7.706@7.585</v>
+        <v>13.658@11.498</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="13"/>
-        <v>18.970@7.699</v>
+        <v>23.844@12.153</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="14"/>
-        <v>2.140@0.251</v>
+        <v>2.080@0.342</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="11"/>
-        <v>28.674@9.863</v>
+        <v>28.694@9.826</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="12"/>
-        <v>3.668@6.425</v>
+        <v>3.676@6.420</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="13"/>
-        <v>22.772@9.333</v>
+        <v>22.568@9.709</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="14"/>
-        <v>3.540@1.270</v>
+        <v>3.500@1.185</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" si="11"/>
-        <v>21.870@21.866</v>
+        <v>29.628@23.472</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="12"/>
-        <v>15.662@21.932</v>
+        <v>23.430@23.532</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="13"/>
-        <v>18.872@21.814</v>
+        <v>26.646@23.373</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="14"/>
-        <v>5.060@3.803</v>
+        <v>3.480@2.798</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="11"/>
-        <v>39.298@27.550</v>
+        <v>29.944@18.929</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="12"/>
-        <v>35.996@27.866</v>
+        <v>26.612@19.225</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="13"/>
-        <v>37.688@27.646</v>
+        <v>28.322@19.015</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="14"/>
-        <v>4.540@3.963</v>
+        <v>4.980@3.620</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" si="11"/>
-        <v>32.316@18.367</v>
+        <v>35.388@14.294</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="12"/>
-        <v>21.186@17.663</v>
+        <v>24.278@15.852</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="13"/>
-        <v>31.424@18.247</v>
+        <v>34.504@14.149</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="14"/>
-        <v>4.680@3.926</v>
+        <v>3.240@1.396</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f t="shared" si="11"/>
-        <v>19.166@3.872</v>
+        <v>19.414@4.372</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="12"/>
-        <v>15.184@7.431</v>
+        <v>15.428@7.824</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="13"/>
-        <v>18.702@3.867</v>
+        <v>18.946@4.363</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="14"/>
-        <v>5.360@0.999</v>
+        <v>5.340@1.036</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" si="11"/>
-        <v>36.922@24.079</v>
+        <v>41.724@15.870</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="12"/>
-        <v>20036.544@44700.933</v>
+        <v>41.260@15.857</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="13"/>
-        <v>45.913@14.320</v>
+        <v>41.486@15.867</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="14"/>
-        <v>1.900@1.283</v>
+        <v>2.740@1.088</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f t="shared" si="11"/>
-        <v>0.058@0.008</v>
+        <v>0.062@0.013</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="12"/>
@@ -19024,13 +19024,13 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" si="14"/>
-        <v>0.980@0.045</v>
+        <v>1.000@0.000</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f t="shared" si="11"/>
-        <v>0.380@0.035</v>
+        <v>0.456@0.189</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="12"/>
@@ -19038,17 +19038,17 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" si="13"/>
-        <v>0.040@0.000</v>
+        <v>0.042@0.004</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="14"/>
-        <v>1.980@0.045</v>
+        <v>2.000@0.000</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f t="shared" si="11"/>
-        <v>0.444@0.077</v>
+        <v>0.454@0.075</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="12"/>
@@ -19056,7 +19056,7 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" si="13"/>
-        <v>0.042@0.004</v>
+        <v>0.044@0.005</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="14"/>
@@ -19066,7 +19066,7 @@
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f t="shared" si="11"/>
-        <v>0.558@0.095</v>
+        <v>0.570@0.099</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="12"/>
@@ -19074,17 +19074,17 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" si="13"/>
-        <v>0.052@0.004</v>
+        <v>0.054@0.005</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="14"/>
-        <v>7.840@0.195</v>
+        <v>7.900@0.187</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f t="shared" si="11"/>
-        <v>0.674@0.127</v>
+        <v>0.680@0.137</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="12"/>
@@ -19092,35 +19092,35 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" si="13"/>
-        <v>0.098@0.015</v>
+        <v>0.108@0.028</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="14"/>
-        <v>15.840@0.297</v>
+        <v>15.900@0.200</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f t="shared" si="11"/>
-        <v>1.176@0.129</v>
+        <v>1.270@0.249</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="12"/>
-        <v>0.052@0.011</v>
+        <v>0.050@0.012</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="13"/>
-        <v>0.844@0.105</v>
+        <v>0.926@0.219</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="14"/>
-        <v>27.820@0.928</v>
+        <v>27.080@1.907</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f t="shared" si="11"/>
-        <v>2.578@0.047</v>
+        <v>2.672@0.227</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="12"/>
@@ -19128,47 +19128,47 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" si="13"/>
-        <v>1.900@0.045</v>
+        <v>2.010@0.244</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="14"/>
-        <v>28.640@0.434</v>
+        <v>27.840@2.017</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f t="shared" si="11"/>
-        <v>2.770@0.141</v>
+        <v>2.860@0.321</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="12"/>
-        <v>0.152@0.035</v>
+        <v>0.188@0.097</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="13"/>
-        <v>2.240@0.107</v>
+        <v>2.320@0.263</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="14"/>
-        <v>29.240@1.574</v>
+        <v>28.680@2.680</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f t="shared" si="11"/>
-        <v>2.918@0.068</v>
+        <v>3.062@0.263</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="12"/>
-        <v>0.612@0.091</v>
+        <v>0.634@0.071</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="13"/>
-        <v>2.394@0.054</v>
+        <v>2.504@0.194</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="14"/>
-        <v>30.000@0.925</v>
+        <v>28.760@2.124</v>
       </c>
     </row>
   </sheetData>

--- a/Data_FGCS2.xlsx
+++ b/Data_FGCS2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeshunshi/Desktop/Github/FGCS2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECEF6C3-2039-3D4D-903D-F8FA48A0DA15}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F770CC9-D1EB-C146-8B79-A54F9A456641}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14200" activeTab="4" xr2:uid="{0E1FB2F4-51F8-A64D-A5C6-9FB8EC605AD1}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14200" activeTab="6" xr2:uid="{0E1FB2F4-51F8-A64D-A5C6-9FB8EC605AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Besu" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Fabric" sheetId="3" r:id="rId3"/>
     <sheet name="Iroha" sheetId="4" r:id="rId4"/>
     <sheet name="Sawtooth" sheetId="5" r:id="rId5"/>
+    <sheet name="Fabric10" sheetId="6" r:id="rId6"/>
+    <sheet name="Fabric30" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -13517,8 +13519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDD85A2-0575-4F4A-995B-6F15BC9A4F02}">
   <dimension ref="A1:AR86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18275,15 +18277,15 @@
         <v>38.082000000000008</v>
       </c>
       <c r="B49">
-        <f t="shared" ref="B49:B66" si="3">AVERAGE(F27,O27,X27,AG27,AP27)</f>
+        <f t="shared" ref="B49:B65" si="3">AVERAGE(F27,O27,X27,AG27,AP27)</f>
         <v>1.1240000000000001</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:C66" si="4">AVERAGE(G27,P27,Y27,AH27,AQ27)</f>
+        <f t="shared" ref="C49:C65" si="4">AVERAGE(G27,P27,Y27,AH27,AQ27)</f>
         <v>17.746000000000002</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49:D66" si="5">AVERAGE(H27,Q27,Z27,AI27,AR27)</f>
+        <f t="shared" ref="D49:D65" si="5">AVERAGE(H27,Q27,Z27,AI27,AR27)</f>
         <v>1.46</v>
       </c>
       <c r="F49">
@@ -19174,4 +19176,6545 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300D5B1F-1163-EE4B-9B4D-14C8B9DFF50B}">
+  <dimension ref="A1:AR59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2">
+        <v>100</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="2">
+        <v>100</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1.37</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2">
+        <v>100</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="2">
+        <v>100</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="X3" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="2">
+        <v>100</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="O4" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="2">
+        <v>100</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>100</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="2">
+        <v>100</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="2">
+        <v>100</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="H6" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2">
+        <v>100</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="O6" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>17</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="2">
+        <v>100</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="X6" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>17</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="H7" s="2">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2">
+        <v>100</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="2">
+        <v>100</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>34.1</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>100</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>65.7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="H8" s="2">
+        <v>61.2</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2">
+        <v>100</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>60.7</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" s="2">
+        <v>100</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>66.2</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>59.8</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>61.2</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>65.5</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>126.9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="H9" s="2">
+        <v>76.7</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2">
+        <v>100</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>127.6</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="2">
+        <v>100</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>124.1</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>130.4</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>241</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="H10" s="2">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2">
+        <v>100</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>199.6</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>78.3</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="2">
+        <v>100</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>206.6</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>200.4</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>208.3</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>100</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="2">
+        <v>100</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="2">
+        <v>100</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>100</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2">
+        <v>100</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="2">
+        <v>100</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="2">
+        <v>100</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="2">
+        <v>100</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H14" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="2">
+        <v>100</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N14" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="2">
+        <v>100</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2">
+        <v>100</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="H15" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="2">
+        <v>100</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="2">
+        <v>100</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="W15" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>17</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2">
+        <v>100</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H16" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="2">
+        <v>100</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="N16" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="2">
+        <v>100</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>33.9</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>34.1</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>33.9</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>33.6</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2">
+        <v>100</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H17" s="2">
+        <v>64.2</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="2">
+        <v>100</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>67.8</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="2">
+        <v>100</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>64.3</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>63.6</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>65.7</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2">
+        <v>100</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>124.5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H18" s="2">
+        <v>120.3</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="2">
+        <v>100</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>119.3</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>115.6</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T18" s="2">
+        <v>100</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>129</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>122.4</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>118.5</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>124.4</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>120.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2">
+        <v>100</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>221.2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="H19" s="2">
+        <v>180.2</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="2">
+        <v>100</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>232</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>182.1</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T19" s="2">
+        <v>100</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>234.2</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>177</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>225.7</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>174.2</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>227.3</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>174.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f>AVERAGE(E2,N2,W2,AF2,AO2)</f>
+        <v>0.58200000000000007</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:D22" si="0">AVERAGE(F2,O2,X2,AG2,AP2)</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.246</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F22">
+        <f>STDEV(E2,N2,W2,AF2,AO2)</f>
+        <v>0.44127089185669155</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:I22" si="1">STDEV(F2,O2,X2,AG2,AP2)</f>
+        <v>1.5165750888103135E-2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>5.5497747702046553E-2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" ref="A23:A38" si="2">AVERAGE(E3,N3,W3,AF3,AO3)</f>
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23:B39" si="3">AVERAGE(F3,O3,X3,AG3,AP3)</f>
+        <v>7.8E-2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:C39" si="4">AVERAGE(G3,P3,Y3,AH3,AQ3)</f>
+        <v>0.17200000000000001</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D39" si="5">AVERAGE(H3,Q3,Z3,AI3,AR3)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F33" si="6">STDEV(E3,N3,W3,AF3,AO3)</f>
+        <v>3.5637059362410635E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:G34" si="7">STDEV(F3,O3,X3,AG3,AP3)</f>
+        <v>1.4832396974191316E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23:H34" si="8">STDEV(G3,P3,Y3,AH3,AQ3)</f>
+        <v>1.4832396974191328E-2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23:I34" si="9">STDEV(H3,Q3,Z3,AI3,AR3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>0.248</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="3"/>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>0.156</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="6"/>
+        <v>3.8340579025361796E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="7"/>
+        <v>4.4721359549995772E-3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="8"/>
+        <v>5.4772255750516656E-3</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="3"/>
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>0.152</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="6"/>
+        <v>2.0000000000000014E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="7"/>
+        <v>8.3666002653407512E-3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="8"/>
+        <v>4.4721359549995832E-3</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="3"/>
+        <v>7.8E-2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>0.154</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>17.060000000000002</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="6"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="7"/>
+        <v>1.3038404810405298E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="8"/>
+        <v>5.4772255750516656E-3</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="9"/>
+        <v>5.477225575051739E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>0.22599999999999998</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="3"/>
+        <v>8.6000000000000007E-2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>0.156</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>33.220000000000006</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="6"/>
+        <v>8.9442719099991561E-3</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="7"/>
+        <v>1.6733200530681482E-2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="8"/>
+        <v>5.4772255750516656E-3</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="9"/>
+        <v>4.4721359549993255E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="3"/>
+        <v>0.126</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>0.316</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
+        <v>60.7</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="6"/>
+        <v>4.098780306383841E-2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="7"/>
+        <v>2.3021728866442583E-2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="8"/>
+        <v>2.7018512172212593E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="9"/>
+        <v>0.57445626465380517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>1.016</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="3"/>
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>0.78599999999999992</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="5"/>
+        <v>74.8</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="6"/>
+        <v>2.7018512172212617E-2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="7"/>
+        <v>4.6043457732885346E-2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="8"/>
+        <v>3.435112807463532E-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="9"/>
+        <v>1.972308292331604</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="3"/>
+        <v>0.63400000000000012</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="5"/>
+        <v>78.539999999999992</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="6"/>
+        <v>3.7682887362833484E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="7"/>
+        <v>3.2863353450309996E-2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="8"/>
+        <v>2.8809720581775892E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="9"/>
+        <v>1.1193748255164593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="6"/>
+        <v>2.6076809620810614E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="8"/>
+        <v>4.4721359549995798E-3</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="5"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="6"/>
+        <v>1.9235384061671336E-2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="8"/>
+        <v>4.472135954999578E-3</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="3"/>
+        <v>1.4000000000000002E-2</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="5"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="6"/>
+        <v>1.8708286933869743E-2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="7"/>
+        <v>5.4772255750516587E-3</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="8"/>
+        <v>7.0710678118654849E-3</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>5.800000000000001E-2</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="3"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="5"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F34">
+        <f>STDEV(E14,N14,W14,AF14,AO14)</f>
+        <v>2.167948338867878E-2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="7"/>
+        <v>4.4721359549995789E-3</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="8"/>
+        <v>5.4772255750516483E-3</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>17.2</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:F39" si="10">STDEV(E15,N15,W15,AF15,AO15)</f>
+        <v>2.5099800796022274E-2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35:G39" si="11">STDEV(F15,O15,X15,AG15,AP15)</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35:H39" si="12">STDEV(G15,P15,Y15,AH15,AQ15)</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35:I39" si="13">STDEV(H15,Q15,Z15,AI15,AR15)</f>
+        <v>0.28284271247461928</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>7.8000000000000014E-2</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="5"/>
+        <v>33.720000000000006</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="10"/>
+        <v>8.3666002653407512E-3</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="12"/>
+        <v>4.4721359549995798E-3</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="13"/>
+        <v>0.34928498393146118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="5"/>
+        <v>64.97999999999999</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="10"/>
+        <v>2.302172886644268E-2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="12"/>
+        <v>8.9442719099991578E-3</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="13"/>
+        <v>1.1099549540409286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>0.124</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>1.5999999999999997E-2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="5"/>
+        <v>119.01999999999998</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="10"/>
+        <v>3.7815340802378035E-2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="11"/>
+        <v>5.4772255750516786E-3</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="12"/>
+        <v>8.3666002653407408E-3</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="13"/>
+        <v>3.0433534135883753</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f>AVERAGE(E19,N19,W19,AF19,AO19)</f>
+        <v>0.40599999999999997</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="3"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>0.21800000000000003</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="5"/>
+        <v>177.54000000000002</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="10"/>
+        <v>5.029910535983749E-2</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="11"/>
+        <v>8.3666002653407564E-3</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="12"/>
+        <v>3.271085446759206E-2</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="13"/>
+        <v>3.5521824277477658</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f>TEXT(A22,"0.000")&amp;"@"&amp;TEXT(F22,"0.000")</f>
+        <v>0.582@0.441</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" ref="B42:D42" si="14">TEXT(B22,"0.000")&amp;"@"&amp;TEXT(G22,"0.000")</f>
+        <v>0.094@0.015</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="14"/>
+        <v>0.246@0.055</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="14"/>
+        <v>1.100@0.000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f t="shared" ref="A43:A57" si="15">TEXT(A23,"0.000")&amp;"@"&amp;TEXT(F23,"0.000")</f>
+        <v>0.272@0.036</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" ref="B43:B58" si="16">TEXT(B23,"0.000")&amp;"@"&amp;TEXT(G23,"0.000")</f>
+        <v>0.078@0.015</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" ref="C43:C58" si="17">TEXT(C23,"0.000")&amp;"@"&amp;TEXT(H23,"0.000")</f>
+        <v>0.172@0.015</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" ref="D43:D58" si="18">TEXT(D23,"0.000")&amp;"@"&amp;TEXT(I23,"0.000")</f>
+        <v>2.200@0.000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f t="shared" si="15"/>
+        <v>0.248@0.038</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="16"/>
+        <v>0.072@0.004</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="17"/>
+        <v>0.156@0.005</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="18"/>
+        <v>4.400@0.000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f t="shared" si="15"/>
+        <v>0.250@0.020</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="16"/>
+        <v>0.082@0.008</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="17"/>
+        <v>0.152@0.004</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="18"/>
+        <v>8.700@0.000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <f t="shared" si="15"/>
+        <v>0.240@0.010</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="16"/>
+        <v>0.078@0.013</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="17"/>
+        <v>0.154@0.005</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="18"/>
+        <v>17.060@0.055</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
+        <f t="shared" si="15"/>
+        <v>0.226@0.009</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="16"/>
+        <v>0.086@0.017</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="17"/>
+        <v>0.156@0.005</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="18"/>
+        <v>33.220@0.045</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <f t="shared" si="15"/>
+        <v>0.476@0.041</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="16"/>
+        <v>0.126@0.023</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="17"/>
+        <v>0.316@0.027</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="18"/>
+        <v>60.700@0.574</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f t="shared" si="15"/>
+        <v>1.016@0.027</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="16"/>
+        <v>0.532@0.046</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="17"/>
+        <v>0.786@0.034</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="18"/>
+        <v>74.800@1.972</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f t="shared" si="15"/>
+        <v>1.098@0.038</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="16"/>
+        <v>0.634@0.033</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="17"/>
+        <v>0.866@0.029</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="18"/>
+        <v>78.540@1.119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
+        <f t="shared" si="15"/>
+        <v>0.074@0.026</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="16"/>
+        <v>0.010@0.000</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="17"/>
+        <v>0.032@0.004</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="18"/>
+        <v>1.100@0.000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f t="shared" si="15"/>
+        <v>0.062@0.019</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="16"/>
+        <v>0.010@0.000</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="17"/>
+        <v>0.028@0.004</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="18"/>
+        <v>2.200@0.000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
+        <f t="shared" si="15"/>
+        <v>0.070@0.019</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="16"/>
+        <v>0.014@0.005</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="17"/>
+        <v>0.030@0.007</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="18"/>
+        <v>4.400@0.000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="str">
+        <f t="shared" si="15"/>
+        <v>0.058@0.022</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="16"/>
+        <v>0.012@0.004</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="17"/>
+        <v>0.024@0.005</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="18"/>
+        <v>8.800@0.000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="str">
+        <f t="shared" si="15"/>
+        <v>0.066@0.025</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="16"/>
+        <v>0.010@0.000</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="17"/>
+        <v>0.030@0.010</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="18"/>
+        <v>17.200@0.283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="str">
+        <f t="shared" si="15"/>
+        <v>0.078@0.008</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="16"/>
+        <v>0.010@0.000</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="17"/>
+        <v>0.032@0.004</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="18"/>
+        <v>33.720@0.349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="str">
+        <f t="shared" si="15"/>
+        <v>0.064@0.023</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="16"/>
+        <v>0.010@0.000</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="17"/>
+        <v>0.026@0.009</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="18"/>
+        <v>64.980@1.110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="str">
+        <f>TEXT(A38,"0.000")&amp;"@"&amp;TEXT(F38,"0.000")</f>
+        <v>0.124@0.038</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="16"/>
+        <v>0.016@0.005</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="17"/>
+        <v>0.048@0.008</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="18"/>
+        <v>119.020@3.043</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="str">
+        <f t="shared" ref="A59" si="19">TEXT(A39,"0.000")&amp;"@"&amp;TEXT(F39,"0.000")</f>
+        <v>0.406@0.050</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" ref="B59" si="20">TEXT(B39,"0.000")&amp;"@"&amp;TEXT(G39,"0.000")</f>
+        <v>0.018@0.008</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" ref="C59" si="21">TEXT(C39,"0.000")&amp;"@"&amp;TEXT(H39,"0.000")</f>
+        <v>0.218@0.033</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" ref="D59" si="22">TEXT(D39,"0.000")&amp;"@"&amp;TEXT(I39,"0.000")</f>
+        <v>177.540@3.552</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A596CA6-E808-2A49-AA2D-BD46483D078C}">
+  <dimension ref="A1:AR61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:D61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2">
+        <v>100</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="2">
+        <v>100</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1.31</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2">
+        <v>98</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4.03</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="2">
+        <v>100</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="W3" s="2">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>99</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.01</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="2">
+        <v>99</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="2">
+        <v>97</v>
+      </c>
+      <c r="U4" s="2">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>4.04</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="2">
+        <v>97</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="2">
+        <v>98</v>
+      </c>
+      <c r="U5" s="2">
+        <v>2</v>
+      </c>
+      <c r="V5" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2">
+        <v>98</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="2">
+        <v>92</v>
+      </c>
+      <c r="U6" s="2">
+        <v>8</v>
+      </c>
+      <c r="V6" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>96</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="H7" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2">
+        <v>100</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="2">
+        <v>100</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>100</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="H8" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2">
+        <v>97</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" s="2">
+        <v>97</v>
+      </c>
+      <c r="U8" s="2">
+        <v>3</v>
+      </c>
+      <c r="V8" s="2">
+        <v>17</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>94</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2">
+        <v>100</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>33.9</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="2">
+        <v>100</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>94</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>6</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>97</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>3</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>91</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>60.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2">
+        <v>100</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>56.9</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="2">
+        <v>94</v>
+      </c>
+      <c r="U10" s="2">
+        <v>6</v>
+      </c>
+      <c r="V10" s="2">
+        <v>60.4</v>
+      </c>
+      <c r="W10" s="2">
+        <v>2.16</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>91</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>9</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>1.57</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>94</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>6</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>60</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>100</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="2">
+        <v>100</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="2">
+        <v>100</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>100</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2">
+        <v>100</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="2">
+        <v>100</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="2">
+        <v>100</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="2">
+        <v>100</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="2">
+        <v>100</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="2">
+        <v>100</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2">
+        <v>100</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="2">
+        <v>100</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="2">
+        <v>100</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2">
+        <v>100</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H16" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="2">
+        <v>100</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="2">
+        <v>100</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2">
+        <v>100</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="H17" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="2">
+        <v>100</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="2">
+        <v>100</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2">
+        <v>100</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>31.8</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G18" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>31.7</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="2">
+        <v>100</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T18" s="2">
+        <v>100</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>29.8</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>29.7</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2">
+        <v>100</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>56.4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H19" s="2">
+        <v>55.8</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="2">
+        <v>100</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>63.6</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>62.9</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T19" s="2">
+        <v>100</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>66.7</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>61.5</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>60.9</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>AVERAGE(E2,N2,W2,AF2,AO2)</f>
+        <v>0.86399999999999988</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23:D23" si="0">AVERAGE(F2,O2,X2,AG2,AP2)</f>
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F23">
+        <f>STDEV(E2,N2,W2,AF2,AO2)</f>
+        <v>0.25343638254994139</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:I23" si="1">STDEV(F2,O2,X2,AG2,AP2)</f>
+        <v>7.4363969770312871E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>8.167006795638139E-2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" ref="A24:A34" si="2">AVERAGE(E3,N3,W3,AF3,AO3)</f>
+        <v>2.024</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:B35" si="3">AVERAGE(F3,O3,X3,AG3,AP3)</f>
+        <v>0.21400000000000002</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:C35" si="4">AVERAGE(G3,P3,Y3,AH3,AQ3)</f>
+        <v>0.45199999999999996</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:D35" si="5">AVERAGE(H3,Q3,Z3,AI3,AR3)</f>
+        <v>0.54</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:F32" si="6">STDEV(E3,N3,W3,AF3,AO3)</f>
+        <v>1.8463017088222606</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:G33" si="7">STDEV(F3,O3,X3,AG3,AP3)</f>
+        <v>4.159326868617079E-2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H33" si="8">STDEV(G3,P3,Y3,AH3,AQ3)</f>
+        <v>3.3466401061363026E-2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I33" si="9">STDEV(H3,Q3,Z3,AI3,AR3)</f>
+        <v>5.4772255750516599E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>2.6779999999999999</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="3"/>
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>0.434</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>1.0399999999999998</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="6"/>
+        <v>1.842205200296644</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="7"/>
+        <v>2.1679483388678811E-2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="8"/>
+        <v>2.6076809620810597E-2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="9"/>
+        <v>5.4772255750516662E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="3"/>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="6"/>
+        <v>0.10295630140987026</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="7"/>
+        <v>4.6904157598234304E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="8"/>
+        <v>6.5954529791364541E-2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>0.49000000000000005</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="3"/>
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>1.6200000000000003</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="6"/>
+        <v>4.3588989435406761E-2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="7"/>
+        <v>1.6431676725154987E-2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="8"/>
+        <v>5.4772255750516361E-3</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="9"/>
+        <v>1.5546703830716009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="3"/>
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
+        <v>8.5400000000000009</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="6"/>
+        <v>2.3874672772626612E-2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="7"/>
+        <v>8.6717933554715187E-2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="8"/>
+        <v>1.8708286933869694E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="9"/>
+        <v>0.11401754250991339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="3"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="5"/>
+        <v>10.220000000000001</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="6"/>
+        <v>0.48236915324261748</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="8"/>
+        <v>0.25907527863538077</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="9"/>
+        <v>8.4182539757363006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>1.0879999999999999</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="5"/>
+        <v>13.48</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="6"/>
+        <v>7.1902712048990153E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="8"/>
+        <v>4.4944410108488472E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="9"/>
+        <v>17.21749110643011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>1.6039999999999999</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="3"/>
+        <v>0.29800000000000004</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>1.036</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="5"/>
+        <v>12.099999999999998</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="6"/>
+        <v>0.32074912314767245</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="7"/>
+        <v>0.28314307337457495</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="8"/>
+        <v>6.7305274681855418E-2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="9"/>
+        <v>25.043961347997644</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="6"/>
+        <v>2.3021728866442583E-2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="8"/>
+        <v>1.2247448713915889E-2</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>0.14200000000000002</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="4"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="F33">
+        <f>STDEV(E12,N12,W12,AF12,AO12)</f>
+        <v>2.4899799195977377E-2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="8"/>
+        <v>1.0954451150103336E-2</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:F40" si="10">STDEV(E13,N13,W13,AF13,AO13)</f>
+        <v>2.5495097567963948E-2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:G40" si="11">STDEV(F13,O13,X13,AG13,AP13)</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H40" si="12">STDEV(G13,P13,Y13,AH13,AQ13)</f>
+        <v>7.0710678118654537E-3</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:I40" si="13">STDEV(H13,Q13,Z13,AI13,AR13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f>AVERAGE(E14,N14,W14,AF14,AO14)</f>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="3"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="10"/>
+        <v>0.10059821071967431</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="11"/>
+        <v>4.4721359549995789E-3</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="12"/>
+        <v>7.2801098892805186E-2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" ref="A36:A38" si="14">AVERAGE(E15,N15,W15,AF15,AO15)</f>
+        <v>0.11399999999999999</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36:B40" si="15">AVERAGE(F15,O15,X15,AG15,AP15)</f>
+        <v>0.01</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:C40" si="16">AVERAGE(G15,P15,Y15,AH15,AQ15)</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:D40" si="17">AVERAGE(H15,Q15,Z15,AI15,AR15)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="10"/>
+        <v>7.1624018317879928E-2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="12"/>
+        <v>1.3416407864998732E-2</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="14"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="15"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="16"/>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="17"/>
+        <v>8.7800000000000011</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="10"/>
+        <v>4.5276925690687045E-2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="11"/>
+        <v>4.4721359549995789E-3</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="12"/>
+        <v>1.414213562373097E-2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="13"/>
+        <v>4.4721359549996433E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="14"/>
+        <v>0.12200000000000003</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="15"/>
+        <v>0.01</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="16"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="17"/>
+        <v>17.060000000000002</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="10"/>
+        <v>5.9329587896765297E-2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="12"/>
+        <v>2.1679483388678797E-2</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="13"/>
+        <v>0.16733200530681622</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f>AVERAGE(E18,N18,W18,AF18,AO18)</f>
+        <v>0.318</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="15"/>
+        <v>0.01</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="16"/>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="17"/>
+        <v>32.06</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="10"/>
+        <v>0.31451550041293669</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="12"/>
+        <v>0.16887865466067639</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="13"/>
+        <v>1.4926486525636238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" ref="A40" si="18">AVERAGE(E19,N19,W19,AF19,AO19)</f>
+        <v>0.45</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="15"/>
+        <v>0.01</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="16"/>
+        <v>0.22399999999999998</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="17"/>
+        <v>63.339999999999996</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="10"/>
+        <v>5.3851648071345168E-2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="12"/>
+        <v>3.7815340802378264E-2</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="13"/>
+        <v>5.5707270620629075</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f>TEXT(A23,"0.000")&amp;"@"&amp;TEXT(F23,"0.000")</f>
+        <v>0.864@0.253</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" ref="B44:D44" si="19">TEXT(B23,"0.000")&amp;"@"&amp;TEXT(G23,"0.000")</f>
+        <v>0.176@0.074</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="19"/>
+        <v>0.488@0.082</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="19"/>
+        <v>0.300@0.000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f t="shared" ref="A45:A56" si="20">TEXT(A24,"0.000")&amp;"@"&amp;TEXT(F24,"0.000")</f>
+        <v>2.024@1.846</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" ref="B45:B57" si="21">TEXT(B24,"0.000")&amp;"@"&amp;TEXT(G24,"0.000")</f>
+        <v>0.214@0.042</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" ref="C45:C57" si="22">TEXT(C24,"0.000")&amp;"@"&amp;TEXT(H24,"0.000")</f>
+        <v>0.452@0.033</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" ref="D45:D57" si="23">TEXT(D24,"0.000")&amp;"@"&amp;TEXT(I24,"0.000")</f>
+        <v>0.540@0.055</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <f t="shared" si="20"/>
+        <v>2.678@1.842</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="21"/>
+        <v>0.238@0.022</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="22"/>
+        <v>0.434@0.026</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="23"/>
+        <v>1.040@0.055</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
+        <f t="shared" si="20"/>
+        <v>0.650@0.103</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="21"/>
+        <v>0.210@0.047</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="22"/>
+        <v>0.400@0.066</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="23"/>
+        <v>1.000@0.000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <f t="shared" si="20"/>
+        <v>0.490@0.044</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="21"/>
+        <v>0.242@0.016</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="22"/>
+        <v>0.346@0.005</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="23"/>
+        <v>1.620@1.555</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f t="shared" si="20"/>
+        <v>0.578@0.024</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="21"/>
+        <v>0.242@0.087</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="22"/>
+        <v>0.400@0.019</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="23"/>
+        <v>8.540@0.114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f t="shared" si="20"/>
+        <v>1.114@0.482</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="21"/>
+        <v>0.290@0.000</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="22"/>
+        <v>0.712@0.259</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="23"/>
+        <v>10.220@8.418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
+        <f t="shared" si="20"/>
+        <v>1.088@0.072</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="21"/>
+        <v>0.060@0.000</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="22"/>
+        <v>0.858@0.045</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="23"/>
+        <v>13.480@17.217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f t="shared" si="20"/>
+        <v>1.604@0.321</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="21"/>
+        <v>0.298@0.283</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="22"/>
+        <v>1.036@0.067</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="23"/>
+        <v>12.100@25.044</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
+        <f t="shared" si="20"/>
+        <v>0.136@0.023</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="21"/>
+        <v>0.010@0.000</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="22"/>
+        <v>0.050@0.012</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="23"/>
+        <v>0.300@0.000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="str">
+        <f t="shared" si="20"/>
+        <v>0.142@0.025</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="21"/>
+        <v>0.010@0.000</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="22"/>
+        <v>0.052@0.011</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="23"/>
+        <v>0.600@0.000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="str">
+        <f t="shared" si="20"/>
+        <v>0.120@0.025</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="21"/>
+        <v>0.010@0.000</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="22"/>
+        <v>0.040@0.007</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="23"/>
+        <v>1.100@0.000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="str">
+        <f t="shared" si="20"/>
+        <v>0.162@0.101</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="21"/>
+        <v>0.012@0.004</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="22"/>
+        <v>0.070@0.073</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="23"/>
+        <v>2.200@0.000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="str">
+        <f>TEXT(A36,"0.000")&amp;"@"&amp;TEXT(F36,"0.000")</f>
+        <v>0.114@0.072</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="21"/>
+        <v>0.010@0.000</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="22"/>
+        <v>0.036@0.013</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="23"/>
+        <v>4.400@0.000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="str">
+        <f t="shared" ref="A58:A60" si="24">TEXT(A37,"0.000")&amp;"@"&amp;TEXT(F37,"0.000")</f>
+        <v>0.110@0.045</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" ref="B58:B61" si="25">TEXT(B37,"0.000")&amp;"@"&amp;TEXT(G37,"0.000")</f>
+        <v>0.012@0.004</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" ref="C58:C61" si="26">TEXT(C37,"0.000")&amp;"@"&amp;TEXT(H37,"0.000")</f>
+        <v>0.040@0.014</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" ref="D58:D61" si="27">TEXT(D37,"0.000")&amp;"@"&amp;TEXT(I37,"0.000")</f>
+        <v>8.780@0.045</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="str">
+        <f t="shared" si="24"/>
+        <v>0.122@0.059</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="25"/>
+        <v>0.010@0.000</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="26"/>
+        <v>0.048@0.022</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="27"/>
+        <v>17.060@0.167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="str">
+        <f t="shared" si="24"/>
+        <v>0.318@0.315</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="25"/>
+        <v>0.010@0.000</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="26"/>
+        <v>0.148@0.169</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="27"/>
+        <v>32.060@1.493</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="str">
+        <f>TEXT(A40,"0.000")&amp;"@"&amp;TEXT(F40,"0.000")</f>
+        <v>0.450@0.054</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="25"/>
+        <v>0.010@0.000</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="26"/>
+        <v>0.224@0.038</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="27"/>
+        <v>63.340@5.571</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data_FGCS2.xlsx
+++ b/Data_FGCS2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeshunshi/Desktop/Github/FGCS2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F4E468-5A2D-1C4E-8CEE-54A05C953A21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B847EB46-7584-5447-AED2-04FED7E8DE3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14200" activeTab="11" xr2:uid="{0E1FB2F4-51F8-A64D-A5C6-9FB8EC605AD1}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14200" activeTab="9" xr2:uid="{0E1FB2F4-51F8-A64D-A5C6-9FB8EC605AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Besu" sheetId="1" r:id="rId1"/>
@@ -7911,7 +7911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68212CB9-E599-5345-BC15-6F16E6609CA9}">
   <dimension ref="A1:AR41"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -13297,7 +13297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEE110D-3E04-2C4C-800E-C6864D0E3107}">
   <dimension ref="A1:AR41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E24" sqref="E24:E41"/>
     </sheetView>
   </sheetViews>

--- a/Data_FGCS2.xlsx
+++ b/Data_FGCS2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeshunshi/Desktop/Github/FGCS2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B847EB46-7584-5447-AED2-04FED7E8DE3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3D5F75-D5A9-5549-A6ED-C1528A4432ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14200" activeTab="9" xr2:uid="{0E1FB2F4-51F8-A64D-A5C6-9FB8EC605AD1}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14200" firstSheet="1" activeTab="11" xr2:uid="{0E1FB2F4-51F8-A64D-A5C6-9FB8EC605AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Besu" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,9 @@
     <sheet name="Fabric10" sheetId="10" r:id="rId10"/>
     <sheet name="Fabric15" sheetId="11" r:id="rId11"/>
     <sheet name="Fabric20" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet6" sheetId="13" r:id="rId13"/>
+    <sheet name="Fabric20_new" sheetId="14" r:id="rId13"/>
+    <sheet name="Sheet6" sheetId="13" r:id="rId14"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet6!$A$12:$A$20</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet6!$B$12:$B$20</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet6!$C$12:$C$20</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet6!$D$12:$D$20</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet6!$E$12:$E$20</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet6!$A$12:$A$20</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet6!$B$12:$B$20</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet6!$C$12:$C$20</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet6!$D$12:$D$20</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet6!$E$12:$E$20</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -108,6 +97,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -236,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -281,6 +273,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7911,8 +7904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68212CB9-E599-5345-BC15-6F16E6609CA9}">
   <dimension ref="A1:AR41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33:J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10256,379 +10249,523 @@
         <f>AVERAGE((B2-C2)/100,(K2-L2)/100,(T2-U2)/100,(AC2-AD2)/100,(AL2-AM2)/100)</f>
         <v>1</v>
       </c>
+      <c r="I24">
+        <f t="shared" ref="I24:J24" si="1">STDEV(G2,P2,Y2,AH2,AQ2)</f>
+        <v>5.6568542494923879E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" ref="A25:A37" si="1">AVERAGE(E3,N3,W3,AF3,AO3)</f>
+        <f t="shared" ref="A25:A37" si="2">AVERAGE(E3,N3,W3,AF3,AO3)</f>
         <v>0.34199999999999997</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:B38" si="2">AVERAGE(F3,O3,X3,AG3,AP3)</f>
+        <f t="shared" ref="B25:B38" si="3">AVERAGE(F3,O3,X3,AG3,AP3)</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:C38" si="3">AVERAGE(G3,P3,Y3,AH3,AQ3)</f>
+        <f t="shared" ref="C25:C38" si="4">AVERAGE(G3,P3,Y3,AH3,AQ3)</f>
         <v>0.20200000000000001</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:D38" si="4">AVERAGE(H3,Q3,Z3,AI3,AR3)</f>
+        <f t="shared" ref="D25:D38" si="5">AVERAGE(H3,Q3,Z3,AI3,AR3)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E25">
         <f>AVERAGE((B3-C3)/100,(K3-L3)/100,(T3-U3)/100,(AC3-AD3)/100,(AL3-AM3)/100)</f>
         <v>1</v>
       </c>
+      <c r="I25">
+        <f t="shared" ref="I25:I33" si="6">STDEV(G3,P3,Y3,AH3,AQ3)</f>
+        <v>1.3038404810405295E-2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:J33" si="7">STDEV(H3,Q3,Z3,AI3,AR3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.37</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="C26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22200000000000003</v>
       </c>
       <c r="D26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3600000000000003</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E25:E41" si="5">AVERAGE((B4-C4)/100,(K4-L4)/100,(T4-U4)/100,(AC4-AD4)/100,(AL4-AM4)/100)</f>
+        <f t="shared" ref="E26:E41" si="8">AVERAGE((B4-C4)/100,(K4-L4)/100,(T4-U4)/100,(AC4-AD4)/100,(AL4-AM4)/100)</f>
         <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="6"/>
+        <v>2.5884358211089378E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="7"/>
+        <v>5.4772255750516897E-2</v>
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36399999999999999</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.188</v>
       </c>
       <c r="D27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="E27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="6"/>
+        <v>2.1679483388679078E-2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33600000000000002</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.6000000000000012E-2</v>
       </c>
       <c r="C28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18600000000000003</v>
       </c>
       <c r="D28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.899999999999999</v>
       </c>
       <c r="E28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="6"/>
+        <v>8.9442719099991543E-3</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="7"/>
+        <v>7.0710678118654502E-2</v>
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.55800000000000005</v>
       </c>
       <c r="B29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.24399999999999999</v>
       </c>
       <c r="D29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.700000000000003</v>
       </c>
       <c r="E29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="6"/>
+        <v>0.15993748778819808</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="7"/>
+        <v>0.2738612787525837</v>
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.80199999999999994</v>
       </c>
       <c r="B30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.21599999999999997</v>
       </c>
       <c r="C30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.55999999999999994</v>
       </c>
       <c r="D30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.64</v>
       </c>
       <c r="E30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="6"/>
+        <v>7.8740078740118361E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="7"/>
+        <v>2.6235472170326948</v>
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.206</v>
       </c>
       <c r="B31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61</v>
       </c>
       <c r="C31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.90999999999999992</v>
       </c>
       <c r="D31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.900000000000006</v>
       </c>
       <c r="E31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="6"/>
+        <v>3.2403703492039297E-2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="7"/>
+        <v>2.6201145013147826</v>
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.236</v>
       </c>
       <c r="B32">
+        <f t="shared" si="3"/>
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>0.97199999999999986</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="5"/>
+        <v>70.72</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="6"/>
+        <v>1.7888543819998333E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="7"/>
+        <v>1.7866169147301842</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
         <f t="shared" si="2"/>
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="C32">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="B33">
         <f t="shared" si="3"/>
-        <v>0.97199999999999986</v>
-      </c>
-      <c r="D32">
+        <v>0.01</v>
+      </c>
+      <c r="C33">
         <f t="shared" si="4"/>
-        <v>70.72</v>
-      </c>
-      <c r="E32">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="D33">
         <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <f t="shared" si="1"/>
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="B33">
+      <c r="I33">
+        <f t="shared" si="6"/>
+        <v>5.4772255750516483E-3</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
         <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="C33">
+        <v>8.6000000000000007E-2</v>
+      </c>
+      <c r="B34">
         <f t="shared" si="3"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="D33">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C34">
         <f t="shared" si="4"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E33">
+        <v>2.8000000000000004E-2</v>
+      </c>
+      <c r="D34">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <f t="shared" si="1"/>
-        <v>8.6000000000000007E-2</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="2"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="3"/>
-        <v>2.8000000000000004E-2</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="E34">
         <f>AVERAGE((B12-C12)/100,(K12-L12)/100,(T12-U12)/100,(AC12-AD12)/100,(AL12-AM12)/100)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <f t="shared" ref="I34:I41" si="9">STDEV(G12,P12,Y12,AH12,AQ12)</f>
+        <v>8.3666002653407529E-3</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34:J41" si="10">STDEV(H12,Q12,Z12,AI12,AR12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6000000000000008E-2</v>
       </c>
       <c r="B35">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="9"/>
+        <v>5.4772255750516483E-3</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
         <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="C35">
+        <v>7.400000000000001E-2</v>
+      </c>
+      <c r="B36">
         <f t="shared" si="3"/>
-        <v>2.4E-2</v>
-      </c>
-      <c r="D35">
+        <v>0.01</v>
+      </c>
+      <c r="C36">
         <f t="shared" si="4"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E35">
+        <v>2.8000000000000004E-2</v>
+      </c>
+      <c r="D36">
         <f t="shared" si="5"/>
+        <v>8.76</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <f t="shared" si="1"/>
-        <v>7.400000000000001E-2</v>
-      </c>
-      <c r="B36">
+      <c r="I36">
+        <f t="shared" si="9"/>
+        <v>4.472135954999578E-3</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="10"/>
+        <v>5.477225575051739E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37">
         <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="C36">
+        <v>6.2000000000000013E-2</v>
+      </c>
+      <c r="B37">
         <f t="shared" si="3"/>
-        <v>2.8000000000000004E-2</v>
-      </c>
-      <c r="D36">
+        <v>0.01</v>
+      </c>
+      <c r="C37">
         <f t="shared" si="4"/>
-        <v>8.76</v>
-      </c>
-      <c r="E36">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="D37">
         <f t="shared" si="5"/>
+        <v>16.940000000000001</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <f t="shared" si="1"/>
-        <v>6.2000000000000013E-2</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="3"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="4"/>
-        <v>16.940000000000001</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <f t="shared" si="9"/>
+        <v>5.4772255750516483E-3</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="10"/>
+        <v>0.33615472627943244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <f>AVERAGE(E16,N16,W16,AF16,AO16)</f>
         <v>0.126</v>
       </c>
       <c r="B38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
       <c r="C38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6000000000000002E-2</v>
       </c>
       <c r="D38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.559999999999995</v>
       </c>
       <c r="E38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <f t="shared" si="9"/>
+        <v>1.3416407864998739E-2</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="10"/>
+        <v>0.32093613071762384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" ref="A39:A40" si="6">AVERAGE(E17,N17,W17,AF17,AO17)</f>
+        <f t="shared" ref="A39:A40" si="11">AVERAGE(E17,N17,W17,AF17,AO17)</f>
         <v>0.10800000000000001</v>
       </c>
       <c r="B39">
-        <f t="shared" ref="B39:B41" si="7">AVERAGE(F17,O17,X17,AG17,AP17)</f>
+        <f t="shared" ref="B39:B41" si="12">AVERAGE(F17,O17,X17,AG17,AP17)</f>
         <v>0.01</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:C41" si="8">AVERAGE(G17,P17,Y17,AH17,AQ17)</f>
+        <f t="shared" ref="C39:C41" si="13">AVERAGE(G17,P17,Y17,AH17,AQ17)</f>
         <v>0.03</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39:D41" si="9">AVERAGE(H17,Q17,Z17,AI17,AR17)</f>
+        <f t="shared" ref="D39:D41" si="14">AVERAGE(H17,Q17,Z17,AI17,AR17)</f>
         <v>61.440000000000012</v>
       </c>
       <c r="E39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="10"/>
+        <v>1.1802542099056472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.27400000000000002</v>
       </c>
       <c r="B40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.2E-2</v>
       </c>
       <c r="C40">
+        <f t="shared" si="13"/>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="14"/>
+        <v>111.04</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="8"/>
-        <v>0.10400000000000001</v>
-      </c>
-      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="9"/>
-        <v>111.04</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.5165750888103078E-2</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="10"/>
+        <v>6.4882971571900141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <f>AVERAGE(E19,N19,W19,AF19,AO19)</f>
         <v>0.54800000000000004</v>
       </c>
       <c r="B41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.2E-2</v>
       </c>
       <c r="C41">
+        <f t="shared" si="13"/>
+        <v>0.32799999999999996</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="14"/>
+        <v>146.68</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="8"/>
-        <v>0.32799999999999996</v>
-      </c>
-      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="9"/>
-        <v>146.68</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>1.9235384061671346E-2</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="10"/>
+        <v>10.351425022672002</v>
       </c>
     </row>
   </sheetData>
@@ -13258,15 +13395,15 @@
         <v>0.502</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:B42" si="6">AVERAGE(F18,O18,X18,AG18,AP18)</f>
+        <f t="shared" ref="B40:B41" si="6">AVERAGE(F18,O18,X18,AG18,AP18)</f>
         <v>1.2E-2</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:C42" si="7">AVERAGE(G18,P18,Y18,AH18,AQ18)</f>
+        <f t="shared" ref="C40:C41" si="7">AVERAGE(G18,P18,Y18,AH18,AQ18)</f>
         <v>0.13599999999999998</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D42" si="8">AVERAGE(H18,Q18,Z18,AI18,AR18)</f>
+        <f t="shared" ref="D40:D41" si="8">AVERAGE(H18,Q18,Z18,AI18,AR18)</f>
         <v>49.239999999999995</v>
       </c>
     </row>
@@ -13297,8 +13434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEE110D-3E04-2C4C-800E-C6864D0E3107}">
   <dimension ref="A1:AR41"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E41"/>
+    <sheetView tabSelected="1" topLeftCell="I11" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15642,379 +15779,523 @@
         <f>AVERAGE((B2-C2)/100,(K2-L2)/100,(T2-U2)/100,(AC2-AD2)/100,(AL2-AM2)/100)</f>
         <v>1</v>
       </c>
+      <c r="I24">
+        <f t="shared" ref="I24:J24" si="1">STDEV(G2,P2,Y2,AH2,AQ2)</f>
+        <v>0.10353743284435844</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" ref="A25:A38" si="1">AVERAGE(E3,N3,W3,AF3,AO3)</f>
+        <f t="shared" ref="A25:A38" si="2">AVERAGE(E3,N3,W3,AF3,AO3)</f>
         <v>0.60399999999999998</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:B39" si="2">AVERAGE(F3,O3,X3,AG3,AP3)</f>
+        <f t="shared" ref="B25:B39" si="3">AVERAGE(F3,O3,X3,AG3,AP3)</f>
         <v>0.12000000000000002</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:C39" si="3">AVERAGE(G3,P3,Y3,AH3,AQ3)</f>
+        <f t="shared" ref="C25:C39" si="4">AVERAGE(G3,P3,Y3,AH3,AQ3)</f>
         <v>0.33</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:D39" si="4">AVERAGE(H3,Q3,Z3,AI3,AR3)</f>
+        <f t="shared" ref="D25:D39" si="5">AVERAGE(H3,Q3,Z3,AI3,AR3)</f>
         <v>2.48</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25:E41" si="5">AVERAGE((B3-C3)/100,(K3-L3)/100,(T3-U3)/100,(AC3-AD3)/100,(AL3-AM3)/100)</f>
+        <f t="shared" ref="E25:E41" si="6">AVERAGE((B3-C3)/100,(K3-L3)/100,(T3-U3)/100,(AC3-AD3)/100,(AL3-AM3)/100)</f>
         <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25:J41" si="7">STDEV(G3,P3,Y3,AH3,AQ3)</f>
+        <v>3.3166247903554005E-2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:J41" si="8">STDEV(H3,Q3,Z3,AI3,AR3)</f>
+        <v>4.4721359549995836E-2</v>
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.43</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13</v>
       </c>
       <c r="C26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.36399999999999999</v>
       </c>
       <c r="D26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0400000000000009</v>
       </c>
       <c r="E26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.99199999999999999</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="7"/>
+        <v>7.9874902190863406E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="8"/>
+        <v>1.7008821240756202</v>
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.69199999999999995</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11000000000000001</v>
       </c>
       <c r="C27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.26600000000000001</v>
       </c>
       <c r="D27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.74</v>
       </c>
       <c r="E27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.99600000000000011</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="7"/>
+        <v>2.3021728866442676E-2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="8"/>
+        <v>3.7720021208901753</v>
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44399999999999995</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.124</v>
       </c>
       <c r="C28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.26600000000000001</v>
       </c>
       <c r="D28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.34</v>
       </c>
       <c r="E28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="7"/>
+        <v>2.0736441353327716E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="8"/>
+        <v>0.23021728866442712</v>
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.59399999999999997</v>
       </c>
       <c r="B29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
       <c r="C29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.316</v>
       </c>
       <c r="D29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33.019999999999996</v>
       </c>
       <c r="E29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="7"/>
+        <v>8.6197447758039752E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="8"/>
+        <v>1.1691877522451217</v>
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6199999999999999</v>
       </c>
       <c r="B30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27400000000000002</v>
       </c>
       <c r="C30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70199999999999996</v>
       </c>
       <c r="D30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.560000000000002</v>
       </c>
       <c r="E30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.96799999999999997</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="7"/>
+        <v>0.37076947015632244</v>
+      </c>
+      <c r="J30">
+        <f>STDEV(H8,Z8,AR8)</f>
+        <v>9.3927276833374567</v>
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1659999999999999</v>
       </c>
       <c r="B31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.64399999999999991</v>
       </c>
       <c r="C31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93600000000000017</v>
       </c>
       <c r="D31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48.440000000000005</v>
       </c>
       <c r="E31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.98000000000000009</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="7"/>
+        <v>6.1886993787063208E-2</v>
+      </c>
+      <c r="J31">
+        <f>STDEV(H9,Q9,Z9,AI9)</f>
+        <v>1.7017148213885114</v>
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="1"/>
-        <v>57.342000000000006</v>
+        <f>AVERAGE(N10,W10,AF10,AO10)</f>
+        <v>1.3900000000000001</v>
       </c>
       <c r="B32">
+        <f t="shared" ref="B32:E32" si="9">AVERAGE(O10,X10,AG10,AP10)</f>
+        <v>0.81749999999999989</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="9"/>
+        <v>1.06</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="9"/>
+        <v>62.574999999999996</v>
+      </c>
+      <c r="E32" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32">
+        <f>STDEV(P10,Y10,AH10,AQ10)</f>
+        <v>2.9439202887759516E-2</v>
+      </c>
+      <c r="J32">
+        <f>STDEV(Q10,Z10,AI10,AR10)</f>
+        <v>1.1701139545645396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
         <f t="shared" si="2"/>
-        <v>1.016</v>
-      </c>
-      <c r="C32">
+        <v>0.13399999999999998</v>
+      </c>
+      <c r="B33">
         <f t="shared" si="3"/>
-        <v>54.658000000000001</v>
-      </c>
-      <c r="D32">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C33">
         <f t="shared" si="4"/>
-        <v>50.14</v>
-      </c>
-      <c r="E32">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D33">
         <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <f t="shared" si="1"/>
-        <v>0.13399999999999998</v>
-      </c>
-      <c r="B33">
+      <c r="I33">
+        <f t="shared" si="7"/>
+        <v>2.6076809620810597E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
         <f t="shared" si="2"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="3"/>
+        <v>1.4000000000000002E-2</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="7"/>
+        <v>1.4142135623730939E-2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
-      <c r="C33">
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>4.88</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="7"/>
+        <v>4.2778499272414894E-2</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="8"/>
+        <v>4.472135954999603E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="B36">
         <f t="shared" si="3"/>
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="D33">
+        <v>1.4000000000000002E-2</v>
+      </c>
+      <c r="C36">
         <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-      <c r="E33">
+        <v>3.8000000000000006E-2</v>
+      </c>
+      <c r="D36">
         <f t="shared" si="5"/>
+        <v>9.6</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <f t="shared" si="1"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="B34">
+      <c r="I36">
+        <f t="shared" si="7"/>
+        <v>4.4721359549995798E-3</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="8"/>
+        <v>0.21213203435596434</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37">
         <f t="shared" si="2"/>
-        <v>1.4000000000000002E-2</v>
-      </c>
-      <c r="C34">
+        <v>0.24799999999999994</v>
+      </c>
+      <c r="B37">
         <f t="shared" si="3"/>
-        <v>0.04</v>
-      </c>
-      <c r="D34">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C37">
         <f t="shared" si="4"/>
-        <v>2.5</v>
-      </c>
-      <c r="E34">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D37">
         <f t="shared" si="5"/>
+        <v>18.04</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="B35">
+      <c r="I37">
+        <f t="shared" si="7"/>
+        <v>0.10545141061171254</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="8"/>
+        <v>0.78930349042684445</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38">
         <f t="shared" si="2"/>
+        <v>0.12399999999999997</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="3"/>
-        <v>5.4000000000000006E-2</v>
-      </c>
-      <c r="D35">
+      <c r="C38">
         <f t="shared" si="4"/>
-        <v>4.88</v>
-      </c>
-      <c r="E35">
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="D38">
         <f t="shared" si="5"/>
+        <v>34.339999999999996</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="2"/>
-        <v>1.4000000000000002E-2</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="3"/>
-        <v>3.8000000000000006E-2</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="4"/>
-        <v>9.6</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <f t="shared" si="1"/>
-        <v>0.24799999999999994</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="2"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="3"/>
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="4"/>
-        <v>18.04</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <f t="shared" si="1"/>
-        <v>0.12399999999999997</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="2"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="3"/>
-        <v>5.2000000000000005E-2</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="4"/>
-        <v>34.339999999999996</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <f t="shared" si="7"/>
+        <v>4.9699094559156727E-2</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="8"/>
+        <v>2.010721263626563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <f>AVERAGE(E17,N17,W17,AF17,AO17)</f>
         <v>0.26400000000000001</v>
       </c>
       <c r="B39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
       <c r="C39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="E39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <f t="shared" si="7"/>
+        <v>6.9426219830839131E-2</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="8"/>
+        <v>2.7658633371878674</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" ref="A40:A43" si="6">AVERAGE(E18,N18,W18,AF18,AO18)</f>
+        <f t="shared" ref="A40:A41" si="10">AVERAGE(E18,N18,W18,AF18,AO18)</f>
         <v>0.31999999999999995</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:B43" si="7">AVERAGE(F18,O18,X18,AG18,AP18)</f>
+        <f t="shared" ref="B40:B41" si="11">AVERAGE(F18,O18,X18,AG18,AP18)</f>
         <v>0.02</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:C43" si="8">AVERAGE(G18,P18,Y18,AH18,AQ18)</f>
+        <f t="shared" ref="C40:C41" si="12">AVERAGE(G18,P18,Y18,AH18,AQ18)</f>
         <v>0.15999999999999998</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D43" si="9">AVERAGE(H18,Q18,Z18,AI18,AR18)</f>
+        <f t="shared" ref="D40:D41" si="13">AVERAGE(H18,Q18,Z18,AI18,AR18)</f>
         <v>94.460000000000008</v>
       </c>
       <c r="E40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <f t="shared" si="7"/>
+        <v>0.17421251390184347</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="8"/>
+        <v>12.856049159831345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
+        <f t="shared" si="10"/>
+        <v>0.49000000000000005</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="11"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="12"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="13"/>
+        <v>122.21999999999998</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="6"/>
-        <v>0.49000000000000005</v>
-      </c>
-      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="7"/>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="C41">
+        <v>2.9154759474226494E-2</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="8"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="9"/>
-        <v>122.21999999999998</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>24.747060431493775</v>
       </c>
     </row>
   </sheetData>
@@ -16023,6 +16304,2871 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C642AE52-7C18-2F42-BB0E-6881EEB0AF03}">
+  <dimension ref="A1:AR42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2">
+        <v>100</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="2">
+        <v>100</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2">
+        <v>100</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="2">
+        <v>100</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="2">
+        <v>100</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4.04</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="2">
+        <v>100</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>100</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="H5" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="2">
+        <v>100</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AB5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>18.7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2">
+        <v>100</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>18.8</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>18.3</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="2">
+        <v>100</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>18.8</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>19.2</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="H7" s="2">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2">
+        <v>100</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>36</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>33.9</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="2">
+        <v>100</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>35.1</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>33.4</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>100</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="H8" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="S8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" s="2">
+        <v>100</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>60.1</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>51.2</v>
+      </c>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AK8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>104.2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="H9" s="2">
+        <v>59.7</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2">
+        <v>100</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>107</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>60.2</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="2">
+        <v>100</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>108</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>62.7</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>111.9</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>58.7</v>
+      </c>
+      <c r="AK9" s="23"/>
+      <c r="AL9" s="23"/>
+      <c r="AM9" s="23"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2">
+        <v>100</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>171.5</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1.37</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>63.7</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="2">
+        <v>100</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>162.1</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>63.3</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>154.1</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>62.2</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>168.4</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>100</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2">
+        <v>100</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="2">
+        <v>100</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="2">
+        <v>100</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="2">
+        <v>100</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="2">
+        <v>100</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="2">
+        <v>100</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2">
+        <v>100</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="H15" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="2">
+        <v>100</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N15" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="2">
+        <v>100</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2">
+        <v>100</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="H16" s="2">
+        <v>16.7</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="2">
+        <v>100</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="2">
+        <v>100</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>18.7</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>18.8</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>18.7</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>18</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2">
+        <v>100</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H17" s="2">
+        <v>30.9</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="2">
+        <v>100</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>34.9</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="2">
+        <v>100</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>35.9</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>35.6</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2">
+        <v>100</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>65.8</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="H18" s="2">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="2">
+        <v>100</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>64</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T18" s="2">
+        <v>100</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>63.1</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>62.2</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>65</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>58.6</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="2">
+        <v>100</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>103.5</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>101.2</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T19" s="2">
+        <v>100</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>107.4</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>104.2</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>108.5</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>105.4</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>85.7</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="2">
+        <v>100</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>186.6</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>137.6</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" s="2">
+        <v>100</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2">
+        <v>170.1</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>134.6</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL20" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="2">
+        <v>169.5</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AQ20" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AR20" s="2">
+        <v>129.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f>AVERAGE(E2,N2,W2,AF2,AO2)</f>
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:C24" si="0">AVERAGE(F2,O2,X2,AG2,AP2)</f>
+        <v>0.13599999999999998</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="D24">
+        <f>AVERAGE(H2,Q2,Z2,AI2,AR2)</f>
+        <v>1.2</v>
+      </c>
+      <c r="F24" s="24">
+        <f>STDEV(E2,N2,W2,AF2,AO2)</f>
+        <v>0.44178048847815821</v>
+      </c>
+      <c r="G24" s="24">
+        <f t="shared" ref="G24:I24" si="1">STDEV(F2,O2,X2,AG2,AP2)</f>
+        <v>6.0663003552412484E-2</v>
+      </c>
+      <c r="H24" s="24">
+        <f t="shared" si="1"/>
+        <v>0.10353743284435844</v>
+      </c>
+      <c r="I24" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" ref="A25:A38" si="2">AVERAGE(E3,N3,W3,AF3,AO3)</f>
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:B38" si="3">AVERAGE(F3,O3,X3,AG3,AP3)</f>
+        <v>0.12000000000000002</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:D38" si="4">AVERAGE(G3,P3,Y3,AH3,AQ3)</f>
+        <v>0.33</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>2.48</v>
+      </c>
+      <c r="F25" s="24">
+        <f t="shared" ref="F25:F42" si="5">STDEV(E3,N3,W3,AF3,AO3)</f>
+        <v>8.961026726887962E-2</v>
+      </c>
+      <c r="G25" s="24">
+        <f t="shared" ref="G25:G42" si="6">STDEV(F3,O3,X3,AG3,AP3)</f>
+        <v>2.6457513110645824E-2</v>
+      </c>
+      <c r="H25" s="24">
+        <f t="shared" ref="H25:H42" si="7">STDEV(G3,P3,Y3,AH3,AQ3)</f>
+        <v>3.3166247903554005E-2</v>
+      </c>
+      <c r="I25" s="24">
+        <f t="shared" ref="I25:I42" si="8">STDEV(H3,Q3,Z3,AI3,AR3)</f>
+        <v>4.4721359549995836E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>1.43</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="3"/>
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D38" si="9">AVERAGE(H4,Q4,Z4,AI4,AR4)</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="F26" s="24">
+        <f t="shared" si="5"/>
+        <v>1.742890319746675</v>
+      </c>
+      <c r="G26" s="24">
+        <f t="shared" si="6"/>
+        <v>3.5939764421412994E-2</v>
+      </c>
+      <c r="H26" s="24">
+        <f t="shared" si="7"/>
+        <v>4.3493294502333121E-2</v>
+      </c>
+      <c r="I26" s="24">
+        <f t="shared" si="8"/>
+        <v>8.1649658092772678E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="3"/>
+        <v>0.10750000000000001</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="9"/>
+        <v>9.4250000000000007</v>
+      </c>
+      <c r="F27" s="24">
+        <f t="shared" si="5"/>
+        <v>6.191391873668891E-2</v>
+      </c>
+      <c r="G27" s="24">
+        <f t="shared" si="6"/>
+        <v>2.4999999999999967E-2</v>
+      </c>
+      <c r="H27" s="24">
+        <f t="shared" si="7"/>
+        <v>2.6457513110645904E-2</v>
+      </c>
+      <c r="I27" s="24">
+        <f t="shared" si="8"/>
+        <v>0.20615528128088292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>0.44399999999999995</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="3"/>
+        <v>0.124</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="9"/>
+        <v>18.34</v>
+      </c>
+      <c r="F28" s="24">
+        <f t="shared" si="5"/>
+        <v>5.4589376255825071E-2</v>
+      </c>
+      <c r="G28" s="24">
+        <f t="shared" si="6"/>
+        <v>3.361547262794326E-2</v>
+      </c>
+      <c r="H28" s="24">
+        <f t="shared" si="7"/>
+        <v>2.0736441353327716E-2</v>
+      </c>
+      <c r="I28" s="24">
+        <f t="shared" si="8"/>
+        <v>0.23021728866442712</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="3"/>
+        <v>0.12</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>0.316</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="9"/>
+        <v>33.019999999999996</v>
+      </c>
+      <c r="F29" s="24">
+        <f t="shared" si="5"/>
+        <v>0.20329781110479311</v>
+      </c>
+      <c r="G29" s="24">
+        <f t="shared" si="6"/>
+        <v>2.7386127875258317E-2</v>
+      </c>
+      <c r="H29" s="24">
+        <f t="shared" si="7"/>
+        <v>8.6197447758039752E-2</v>
+      </c>
+      <c r="I29" s="24">
+        <f t="shared" si="8"/>
+        <v>1.1691877522451217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>0.86</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="3"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>0.54666666666666675</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="9"/>
+        <v>45.333333333333336</v>
+      </c>
+      <c r="F30" s="24">
+        <f t="shared" si="5"/>
+        <v>0.12124355652982023</v>
+      </c>
+      <c r="G30" s="24">
+        <f t="shared" si="6"/>
+        <v>9.1651513899116827E-2</v>
+      </c>
+      <c r="H30" s="24">
+        <f t="shared" si="7"/>
+        <v>0.11060440015358007</v>
+      </c>
+      <c r="I30" s="24">
+        <f t="shared" si="8"/>
+        <v>9.3927276833374567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>1.175</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="3"/>
+        <v>0.6825</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>0.94500000000000006</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="9"/>
+        <v>60.325000000000003</v>
+      </c>
+      <c r="F31" s="24">
+        <f t="shared" si="5"/>
+        <v>0.11445523142259598</v>
+      </c>
+      <c r="G31" s="24">
+        <f t="shared" si="6"/>
+        <v>4.7169905660283007E-2</v>
+      </c>
+      <c r="H31" s="24">
+        <f t="shared" si="7"/>
+        <v>6.7577116442377641E-2</v>
+      </c>
+      <c r="I31" s="24">
+        <f t="shared" si="8"/>
+        <v>1.7017148213885114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>1.3900000000000001</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="3"/>
+        <v>0.81749999999999989</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>1.06</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="9"/>
+        <v>62.574999999999996</v>
+      </c>
+      <c r="F32" s="24">
+        <f t="shared" si="5"/>
+        <v>5.3541261347363305E-2</v>
+      </c>
+      <c r="G32" s="24">
+        <f t="shared" si="6"/>
+        <v>6.0759087111860607E-2</v>
+      </c>
+      <c r="H32" s="24">
+        <f t="shared" si="7"/>
+        <v>2.9439202887759516E-2</v>
+      </c>
+      <c r="I32" s="24">
+        <f t="shared" si="8"/>
+        <v>1.1701139545645396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>0.13399999999999998</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="3"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="F34" s="24">
+        <f t="shared" si="5"/>
+        <v>5.4129474410897417E-2</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="6"/>
+        <v>4.4721359549995789E-3</v>
+      </c>
+      <c r="H34" s="24">
+        <f t="shared" si="7"/>
+        <v>2.6076809620810597E-2</v>
+      </c>
+      <c r="I34" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="3"/>
+        <v>1.4000000000000002E-2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="F35" s="24">
+        <f t="shared" si="5"/>
+        <v>9.2357999112150521E-2</v>
+      </c>
+      <c r="G35" s="24">
+        <f t="shared" si="6"/>
+        <v>5.4772255750516587E-3</v>
+      </c>
+      <c r="H35" s="24">
+        <f t="shared" si="7"/>
+        <v>1.4142135623730939E-2</v>
+      </c>
+      <c r="I35" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="3"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="9"/>
+        <v>4.88</v>
+      </c>
+      <c r="F36" s="24">
+        <f t="shared" si="5"/>
+        <v>0.17535677916750186</v>
+      </c>
+      <c r="G36" s="24">
+        <f t="shared" si="6"/>
+        <v>4.4721359549995789E-3</v>
+      </c>
+      <c r="H36" s="24">
+        <f t="shared" si="7"/>
+        <v>4.2778499272414894E-2</v>
+      </c>
+      <c r="I36" s="24">
+        <f t="shared" si="8"/>
+        <v>4.472135954999603E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="3"/>
+        <v>1.4000000000000002E-2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>3.8000000000000006E-2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="9"/>
+        <v>9.6</v>
+      </c>
+      <c r="F37" s="24">
+        <f t="shared" si="5"/>
+        <v>3.0822070014844872E-2</v>
+      </c>
+      <c r="G37" s="24">
+        <f t="shared" si="6"/>
+        <v>5.4772255750516587E-3</v>
+      </c>
+      <c r="H37" s="24">
+        <f t="shared" si="7"/>
+        <v>4.4721359549995798E-3</v>
+      </c>
+      <c r="I37" s="24">
+        <f t="shared" si="8"/>
+        <v>0.21213203435596434</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>0.24799999999999994</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="9"/>
+        <v>18.04</v>
+      </c>
+      <c r="F38" s="24">
+        <f t="shared" si="5"/>
+        <v>0.22353970564532835</v>
+      </c>
+      <c r="G38" s="24">
+        <f t="shared" si="6"/>
+        <v>8.9442719099991578E-3</v>
+      </c>
+      <c r="H38" s="24">
+        <f t="shared" si="7"/>
+        <v>0.10545141061171254</v>
+      </c>
+      <c r="I38" s="24">
+        <f t="shared" si="8"/>
+        <v>0.78930349042684445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" ref="A39:A44" si="10">AVERAGE(E17,N17,W17,AF17,AO17)</f>
+        <v>0.12399999999999997</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39:B44" si="11">AVERAGE(F17,O17,X17,AG17,AP17)</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C44" si="12">AVERAGE(G17,P17,Y17,AH17,AQ17)</f>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D44" si="13">AVERAGE(H17,Q17,Z17,AI17,AR17)</f>
+        <v>34.339999999999996</v>
+      </c>
+      <c r="F39" s="24">
+        <f t="shared" si="5"/>
+        <v>0.10620734437881407</v>
+      </c>
+      <c r="G39" s="24">
+        <f t="shared" si="6"/>
+        <v>4.4721359549995789E-3</v>
+      </c>
+      <c r="H39" s="24">
+        <f t="shared" si="7"/>
+        <v>4.9699094559156727E-2</v>
+      </c>
+      <c r="I39" s="24">
+        <f t="shared" si="8"/>
+        <v>2.010721263626563</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="10"/>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="11"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="12"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="13"/>
+        <v>62.5</v>
+      </c>
+      <c r="F40" s="24">
+        <f t="shared" si="5"/>
+        <v>0.32837478587735686</v>
+      </c>
+      <c r="G40" s="24">
+        <f t="shared" si="6"/>
+        <v>4.4721359549995789E-3</v>
+      </c>
+      <c r="H40" s="24">
+        <f t="shared" si="7"/>
+        <v>6.9426219830839131E-2</v>
+      </c>
+      <c r="I40" s="24">
+        <f t="shared" si="8"/>
+        <v>2.7658633371878674</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="10"/>
+        <v>0.1925</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="11"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="12"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="13"/>
+        <v>98.775000000000006</v>
+      </c>
+      <c r="F41" s="24">
+        <f t="shared" si="5"/>
+        <v>5.560275772537436E-2</v>
+      </c>
+      <c r="G41" s="24">
+        <f t="shared" si="6"/>
+        <v>4.9999999999999992E-3</v>
+      </c>
+      <c r="H41" s="24">
+        <f t="shared" si="7"/>
+        <v>2.0615528128088319E-2</v>
+      </c>
+      <c r="I41" s="24">
+        <f t="shared" si="8"/>
+        <v>9.8103261923342835</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="10"/>
+        <v>0.50750000000000006</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="11"/>
+        <v>1.7499999999999998E-2</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="12"/>
+        <v>0.29249999999999998</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="13"/>
+        <v>133.19999999999999</v>
+      </c>
+      <c r="F42" s="24">
+        <f t="shared" si="5"/>
+        <v>3.0956959368344545E-2</v>
+      </c>
+      <c r="G42" s="24">
+        <f t="shared" si="6"/>
+        <v>5.000000000000014E-3</v>
+      </c>
+      <c r="H42" s="24">
+        <f t="shared" si="7"/>
+        <v>9.574271077563366E-3</v>
+      </c>
+      <c r="I42" s="24">
+        <f t="shared" si="8"/>
+        <v>3.5805027579936293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F94159A-5964-2F44-A80F-80C051747B5B}">
   <dimension ref="A1:E54"/>
   <sheetViews>
@@ -38523,8 +41669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2203BBC-CC57-1443-86EC-04C159D7B851}">
   <dimension ref="A1:AR41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40871,15 +44017,15 @@
         <v>0.48399999999999999</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:B42" si="2">AVERAGE(F3,O3,X3,AG3,AP3)</f>
+        <f t="shared" ref="B25:B41" si="2">AVERAGE(F3,O3,X3,AG3,AP3)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:C42" si="3">AVERAGE(G3,P3,Y3,AH3,AQ3)</f>
+        <f t="shared" ref="C25:C41" si="3">AVERAGE(G3,P3,Y3,AH3,AQ3)</f>
         <v>0.30599999999999999</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:D42" si="4">AVERAGE(H3,Q3,Z3,AI3,AR3)</f>
+        <f t="shared" ref="D25:D41" si="4">AVERAGE(H3,Q3,Z3,AI3,AR3)</f>
         <v>2</v>
       </c>
     </row>

--- a/Data_FGCS2.xlsx
+++ b/Data_FGCS2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeshunshi/Desktop/Github/FGCS2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3D5F75-D5A9-5549-A6ED-C1528A4432ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC17A317-CCC9-AD4C-8530-23472B8C0029}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14200" firstSheet="1" activeTab="11" xr2:uid="{0E1FB2F4-51F8-A64D-A5C6-9FB8EC605AD1}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14200" firstSheet="1" activeTab="9" xr2:uid="{0E1FB2F4-51F8-A64D-A5C6-9FB8EC605AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Besu" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -98,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -273,7 +273,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7904,8 +7904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68212CB9-E599-5345-BC15-6F16E6609CA9}">
   <dimension ref="A1:AR41"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33:J40"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10249,11 +10249,11 @@
         <f>AVERAGE((B2-C2)/100,(K2-L2)/100,(T2-U2)/100,(AC2-AD2)/100,(AL2-AM2)/100)</f>
         <v>1</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="24">
         <f t="shared" ref="I24:J24" si="1">STDEV(G2,P2,Y2,AH2,AQ2)</f>
         <v>5.6568542494923879E-2</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10279,11 +10279,11 @@
         <f>AVERAGE((B3-C3)/100,(K3-L3)/100,(T3-U3)/100,(AC3-AD3)/100,(AL3-AM3)/100)</f>
         <v>1</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="24">
         <f t="shared" ref="I25:I33" si="6">STDEV(G3,P3,Y3,AH3,AQ3)</f>
         <v>1.3038404810405295E-2</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="24">
         <f t="shared" ref="J25:J33" si="7">STDEV(H3,Q3,Z3,AI3,AR3)</f>
         <v>0</v>
       </c>
@@ -10309,11 +10309,11 @@
         <f t="shared" ref="E26:E41" si="8">AVERAGE((B4-C4)/100,(K4-L4)/100,(T4-U4)/100,(AC4-AD4)/100,(AL4-AM4)/100)</f>
         <v>1</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="24">
         <f t="shared" si="6"/>
         <v>2.5884358211089378E-2</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="24">
         <f t="shared" si="7"/>
         <v>5.4772255750516897E-2</v>
       </c>
@@ -10339,11 +10339,11 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="24">
         <f t="shared" si="6"/>
         <v>2.1679483388679078E-2</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10369,11 +10369,11 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="24">
         <f t="shared" si="6"/>
         <v>8.9442719099991543E-3</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="24">
         <f t="shared" si="7"/>
         <v>7.0710678118654502E-2</v>
       </c>
@@ -10399,11 +10399,11 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="24">
         <f t="shared" si="6"/>
         <v>0.15993748778819808</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="24">
         <f t="shared" si="7"/>
         <v>0.2738612787525837</v>
       </c>
@@ -10429,11 +10429,11 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="24">
         <f t="shared" si="6"/>
         <v>7.8740078740118361E-2</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="24">
         <f t="shared" si="7"/>
         <v>2.6235472170326948</v>
       </c>
@@ -10459,11 +10459,11 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="24">
         <f t="shared" si="6"/>
         <v>3.2403703492039297E-2</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="24">
         <f t="shared" si="7"/>
         <v>2.6201145013147826</v>
       </c>
@@ -10489,11 +10489,11 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="24">
         <f t="shared" si="6"/>
         <v>1.7888543819998333E-2</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="24">
         <f t="shared" si="7"/>
         <v>1.7866169147301842</v>
       </c>
@@ -10519,11 +10519,11 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="24">
         <f t="shared" si="6"/>
         <v>5.4772255750516483E-3</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10549,11 +10549,11 @@
         <f>AVERAGE((B12-C12)/100,(K12-L12)/100,(T12-U12)/100,(AC12-AD12)/100,(AL12-AM12)/100)</f>
         <v>1</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="24">
         <f t="shared" ref="I34:I41" si="9">STDEV(G12,P12,Y12,AH12,AQ12)</f>
         <v>8.3666002653407529E-3</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="24">
         <f t="shared" ref="J34:J41" si="10">STDEV(H12,Q12,Z12,AI12,AR12)</f>
         <v>0</v>
       </c>
@@ -10579,11 +10579,11 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="24">
         <f t="shared" si="9"/>
         <v>5.4772255750516483E-3</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -10609,11 +10609,11 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="24">
         <f t="shared" si="9"/>
         <v>4.472135954999578E-3</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="24">
         <f t="shared" si="10"/>
         <v>5.477225575051739E-2</v>
       </c>
@@ -10639,11 +10639,11 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="24">
         <f t="shared" si="9"/>
         <v>5.4772255750516483E-3</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="24">
         <f t="shared" si="10"/>
         <v>0.33615472627943244</v>
       </c>
@@ -10669,11 +10669,11 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="24">
         <f t="shared" si="9"/>
         <v>1.3416407864998739E-2</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="24">
         <f t="shared" si="10"/>
         <v>0.32093613071762384</v>
       </c>
@@ -10699,11 +10699,11 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="24">
         <f t="shared" si="10"/>
         <v>1.1802542099056472</v>
       </c>
@@ -10729,11 +10729,11 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="24">
         <f t="shared" si="9"/>
         <v>1.5165750888103078E-2</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="24">
         <f t="shared" si="10"/>
         <v>6.4882971571900141</v>
       </c>
@@ -10759,11 +10759,11 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="24">
         <f t="shared" si="9"/>
         <v>1.9235384061671346E-2</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="24">
         <f t="shared" si="10"/>
         <v>10.351425022672002</v>
       </c>
@@ -13434,8 +13434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEE110D-3E04-2C4C-800E-C6864D0E3107}">
   <dimension ref="A1:AR41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I11" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16307,8 +16307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C642AE52-7C18-2F42-BB0E-6881EEB0AF03}">
   <dimension ref="A1:AR42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18334,14 +18334,30 @@
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2">
+        <v>100</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>102</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="H19" s="2">
+        <v>77.2</v>
+      </c>
       <c r="J19" s="2" t="s">
         <v>9</v>
       </c>
@@ -18440,14 +18456,30 @@
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2">
+        <v>100</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>91.1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="H20" s="2">
+        <v>78.3</v>
+      </c>
       <c r="J20" s="2" t="s">
         <v>9</v>
       </c>
@@ -19029,19 +19061,19 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" ref="A39:A44" si="10">AVERAGE(E17,N17,W17,AF17,AO17)</f>
+        <f t="shared" ref="A39:A42" si="10">AVERAGE(E17,N17,W17,AF17,AO17)</f>
         <v>0.12399999999999997</v>
       </c>
       <c r="B39">
-        <f t="shared" ref="B39:B44" si="11">AVERAGE(F17,O17,X17,AG17,AP17)</f>
+        <f t="shared" ref="B39:B42" si="11">AVERAGE(F17,O17,X17,AG17,AP17)</f>
         <v>1.2E-2</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:C44" si="12">AVERAGE(G17,P17,Y17,AH17,AQ17)</f>
+        <f t="shared" ref="C39:C42" si="12">AVERAGE(G17,P17,Y17,AH17,AQ17)</f>
         <v>5.2000000000000005E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39:D44" si="13">AVERAGE(H17,Q17,Z17,AI17,AR17)</f>
+        <f t="shared" ref="D39:D42" si="13">AVERAGE(H17,Q17,Z17,AI17,AR17)</f>
         <v>34.339999999999996</v>
       </c>
       <c r="F39" s="24">
@@ -19098,69 +19130,69 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="10"/>
-        <v>0.1925</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="B41">
         <f t="shared" si="11"/>
-        <v>1.7500000000000002E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C41">
         <f t="shared" si="12"/>
-        <v>8.2500000000000004E-2</v>
+        <v>0.15999999999999998</v>
       </c>
       <c r="D41">
         <f t="shared" si="13"/>
-        <v>98.775000000000006</v>
+        <v>94.460000000000008</v>
       </c>
       <c r="F41" s="24">
         <f t="shared" si="5"/>
-        <v>5.560275772537436E-2</v>
+        <v>0.28913664589601928</v>
       </c>
       <c r="G41" s="24">
         <f t="shared" si="6"/>
-        <v>4.9999999999999992E-3</v>
+        <v>7.0710678118654693E-3</v>
       </c>
       <c r="H41" s="24">
         <f t="shared" si="7"/>
-        <v>2.0615528128088319E-2</v>
+        <v>0.17421251390184347</v>
       </c>
       <c r="I41" s="24">
         <f t="shared" si="8"/>
-        <v>9.8103261923342835</v>
+        <v>12.856049159831345</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="10"/>
-        <v>0.50750000000000006</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="B42">
         <f t="shared" si="11"/>
-        <v>1.7499999999999998E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C42">
         <f t="shared" si="12"/>
-        <v>0.29249999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D42">
         <f t="shared" si="13"/>
-        <v>133.19999999999999</v>
+        <v>122.21999999999998</v>
       </c>
       <c r="F42" s="24">
         <f t="shared" si="5"/>
-        <v>3.0956959368344545E-2</v>
+        <v>4.7434164902525708E-2</v>
       </c>
       <c r="G42" s="24">
         <f t="shared" si="6"/>
-        <v>5.000000000000014E-3</v>
+        <v>4.472135954999585E-3</v>
       </c>
       <c r="H42" s="24">
         <f t="shared" si="7"/>
-        <v>9.574271077563366E-3</v>
+        <v>2.9154759474226494E-2</v>
       </c>
       <c r="I42" s="24">
         <f t="shared" si="8"/>
-        <v>3.5805027579936293</v>
+        <v>24.747060431493775</v>
       </c>
     </row>
   </sheetData>
